--- a/USHPRR/umo_defects.xlsx
+++ b/USHPRR/umo_defects.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/Documents/USHPRR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F2C411D-C3AC-1440-A738-51735EE41346}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298A97D1-96AB-F045-B5D4-6855B61F85E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="4180" windowWidth="26840" windowHeight="15940" activeTab="1" xr2:uid="{0DBEEBB1-FF5B-D846-89BD-75622B7A2B7B}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="19700" windowHeight="15940" activeTab="1" xr2:uid="{0DBEEBB1-FF5B-D846-89BD-75622B7A2B7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
   <si>
     <t>U23Mo</t>
   </si>
@@ -87,15 +87,31 @@
   <si>
     <t>Vac</t>
   </si>
+  <si>
+    <t>Eint</t>
+  </si>
+  <si>
+    <t>Evac</t>
+  </si>
+  <si>
+    <t>EXTENDING TO 100 SIMULATIONS FOR 700 K</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -121,8 +137,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -189,156 +206,156 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$5:$H$53</c:f>
+              <c:f>Sheet1!$I$5:$I$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>-9178.880000000001</c:v>
+                  <c:v>-9066.7250000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9178.25</c:v>
+                  <c:v>-9066.0466666666671</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9178.2724999999991</c:v>
+                  <c:v>-9065.5949999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9178.7340000000004</c:v>
+                  <c:v>-9064.9699999999993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-9178.9283333333333</c:v>
+                  <c:v>-9064.3949999999986</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-9178.7357142857145</c:v>
+                  <c:v>-9064.1785714285706</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9179.3187500000004</c:v>
+                  <c:v>-9064.5774999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-9178.9533333333329</c:v>
+                  <c:v>-9064.9466666666649</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-9179.0790000000015</c:v>
+                  <c:v>-9064.857</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-9179.0245454545457</c:v>
+                  <c:v>-9064.989999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-9179.1166666666668</c:v>
+                  <c:v>-9064.8649999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-9179.17</c:v>
+                  <c:v>-9064.9330769230764</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-9179.0864285714288</c:v>
+                  <c:v>-9064.9171428571426</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-9179.0113333333338</c:v>
+                  <c:v>-9064.7840000000015</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-9178.9181250000001</c:v>
+                  <c:v>-9064.9125000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-9178.9505882352951</c:v>
+                  <c:v>-9064.607647058825</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-9179.1044444444451</c:v>
+                  <c:v>-9064.5383333333339</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-9179.0821052631582</c:v>
+                  <c:v>-9064.4689473684211</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-9178.8875000000007</c:v>
+                  <c:v>-9064.3670000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-9178.8471428571429</c:v>
+                  <c:v>-9064.1928571428562</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-9178.6918181818182</c:v>
+                  <c:v>-9064.2886363636353</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-9178.6547826086953</c:v>
+                  <c:v>-9064.2339130434775</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-9178.6324999999997</c:v>
+                  <c:v>-9064.3458333333328</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-9178.5175999999992</c:v>
+                  <c:v>-9064.2739999999994</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-9178.5584615384614</c:v>
+                  <c:v>-9064.3184615384598</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-9178.3922222222227</c:v>
+                  <c:v>-9064.2555555555537</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-9178.437142857143</c:v>
+                  <c:v>-9064.3157142857126</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-9178.419310344827</c:v>
+                  <c:v>-9064.2810344827576</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-9178.404333333332</c:v>
+                  <c:v>-9064.2733333333326</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-9178.3596774193538</c:v>
+                  <c:v>-9064.1999999999989</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-9178.4384374999991</c:v>
+                  <c:v>-9064.1612499999992</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-9178.4690909090896</c:v>
+                  <c:v>-9064.2342424242415</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-9178.49</c:v>
+                  <c:v>-9064.2852941176461</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-9178.4951428571421</c:v>
+                  <c:v>-9064.3819999999978</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-9178.4686111111096</c:v>
+                  <c:v>-9064.3655555555524</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-9178.5037837837826</c:v>
+                  <c:v>-9064.3448648648628</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-9178.4473684210516</c:v>
+                  <c:v>-9064.4131578947345</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-9178.4630769230753</c:v>
+                  <c:v>-9064.3674358974331</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-9178.5037499999999</c:v>
+                  <c:v>-9064.3312499999975</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-9178.456341463414</c:v>
+                  <c:v>-9064.3807317073133</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-9178.4209523809513</c:v>
+                  <c:v>-9064.404999999997</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-9178.4225581395331</c:v>
+                  <c:v>-9064.4004651162777</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-9178.3774999999987</c:v>
+                  <c:v>-9064.3790909090894</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-9178.3715555555536</c:v>
+                  <c:v>-9064.3755555555526</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-9178.4426086956501</c:v>
+                  <c:v>-9064.3386956521717</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-9178.4323404255301</c:v>
+                  <c:v>-9064.357446808508</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-9178.4299999999985</c:v>
+                  <c:v>-9064.359791666664</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-9178.4230612244901</c:v>
+                  <c:v>-9064.4153061224461</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-9178.3948</c:v>
+                  <c:v>-9064.4263999999966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -393,156 +410,156 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$5:$I$53</c:f>
+              <c:f>Sheet1!$J$5:$J$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>0.41000000000076392</c:v>
+                  <c:v>0.21500000000014552</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.67300321940810925</c:v>
+                  <c:v>0.68959730600140801</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47641674683709584</c:v>
+                  <c:v>0.66466156801798004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59090269926620298</c:v>
+                  <c:v>0.80974687402934709</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.52013726820697037</c:v>
+                  <c:v>0.8762143953775221</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.47994472470851718</c:v>
+                  <c:v>0.77151498634168492</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.71602433493161266</c:v>
+                  <c:v>0.7781841271283283</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7295813106767518</c:v>
+                  <c:v>0.77928385927943167</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.66454738147263426</c:v>
+                  <c:v>0.70275655655275182</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.60356721947906034</c:v>
+                  <c:v>0.64943191958964908</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.55862701457598207</c:v>
+                  <c:v>0.60588215175746063</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.51662241332394654</c:v>
+                  <c:v>0.56147286234330851</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.48554558317808399</c:v>
+                  <c:v>0.52006701657276522</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.45821378527477069</c:v>
+                  <c:v>0.50212956021144295</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.43863730152783892</c:v>
+                  <c:v>0.48695952946150878</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.41330489261078951</c:v>
+                  <c:v>0.54969746319053592</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.41894219594580584</c:v>
+                  <c:v>0.52287431474460999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.3969088004512058</c:v>
+                  <c:v>0.49943295023052792</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.42385627839728035</c:v>
+                  <c:v>0.48464751162710601</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.40518258251067441</c:v>
+                  <c:v>0.49278708956941925</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.41638187827478346</c:v>
+                  <c:v>0.47951693561207581</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.39958667853432589</c:v>
+                  <c:v>0.46145059950422146</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.3832234798485108</c:v>
+                  <c:v>0.45576099630049166</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.3851148227043763</c:v>
+                  <c:v>0.44301316759966936</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.37225578150495553</c:v>
+                  <c:v>0.42794920342265469</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.39489885947131015</c:v>
+                  <c:v>0.41657138511713082</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.38317624702106257</c:v>
+                  <c:v>0.40590105806004112</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.37015704663159416</c:v>
+                  <c:v>0.393186848382299</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.35791917257893408</c:v>
+                  <c:v>0.37993264174134284</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.34904924133343873</c:v>
+                  <c:v>0.37471824540696935</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.34702134282196867</c:v>
+                  <c:v>0.3648828109486999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.33773514918010716</c:v>
+                  <c:v>0.36110704949332151</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.32831770188181997</c:v>
+                  <c:v>0.35402554750714726</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.31884069714520374</c:v>
+                  <c:v>0.35710526188680147</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.31099128573960638</c:v>
+                  <c:v>0.34743331995735666</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.30450751637720225</c:v>
+                  <c:v>0.33854564891555494</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.3017072531474182</c:v>
+                  <c:v>0.33651868141203645</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.29428890343278424</c:v>
+                  <c:v>0.33094999193093377</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.28970667913577336</c:v>
+                  <c:v>0.3245934710901805</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.28650198060385051</c:v>
+                  <c:v>0.32042129094099647</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.28182803166761844</c:v>
+                  <c:v>0.3136394672983096</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.27520053958954921</c:v>
+                  <c:v>0.30629225425292123</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.27262255521320761</c:v>
+                  <c:v>0.30001247651680085</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.26656171335321016</c:v>
+                  <c:v>0.29329107057039921</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.27021166060122931</c:v>
+                  <c:v>0.28920290399778203</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.26459929259119203</c:v>
+                  <c:v>0.2836033288089031</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.25903873036627767</c:v>
+                  <c:v>0.27764196572795669</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.25379202411330137</c:v>
+                  <c:v>0.27752583106486156</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.25026520463909452</c:v>
+                  <c:v>0.27214488338204912</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -829,151 +846,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>-9173.33</c:v>
+                  <c:v>-9059.0249999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9172.35</c:v>
+                  <c:v>-9058.5733333333337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9171.6175000000003</c:v>
+                  <c:v>-9059.3325000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9172.1260000000002</c:v>
+                  <c:v>-9059.7040000000015</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-9172.131666666668</c:v>
+                  <c:v>-9059.2933333333331</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-9172.2228571428586</c:v>
+                  <c:v>-9059.4771428571439</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9172.4675000000025</c:v>
+                  <c:v>-9059.1450000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-9172.8400000000038</c:v>
+                  <c:v>-9059.4622222222224</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-9172.8030000000035</c:v>
+                  <c:v>-9059.607</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-9172.4727272727305</c:v>
+                  <c:v>-9059.4109090909096</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-9172.3441666666695</c:v>
+                  <c:v>-9059.0466666666671</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-9172.3261538461556</c:v>
+                  <c:v>-9059.0084615384621</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-9172.3707142857165</c:v>
+                  <c:v>-9059.0214285714283</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-9172.6093333333356</c:v>
+                  <c:v>-9059.1933333333327</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-9172.6375000000025</c:v>
+                  <c:v>-9059.401249999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-9172.8241176470619</c:v>
+                  <c:v>-9059.2711764705873</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-9172.8361111111135</c:v>
+                  <c:v>-9059.378333333334</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-9173.1242105263173</c:v>
+                  <c:v>-9059.3284210526308</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-9173.1530000000021</c:v>
+                  <c:v>-9059.31</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-9173.0695238095268</c:v>
+                  <c:v>-9059.2571428571428</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-9173.0377272727292</c:v>
+                  <c:v>-9059.2818181818166</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-9173.0469565217409</c:v>
+                  <c:v>-9059.1747826086958</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-9173.0133333333342</c:v>
+                  <c:v>-9059.1470833333333</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-9172.8880000000008</c:v>
+                  <c:v>-9059.1031999999996</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-9172.8634615384635</c:v>
+                  <c:v>-9059.1134615384617</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-9172.7755555555559</c:v>
+                  <c:v>-9059.1740740740734</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-9172.8653571428586</c:v>
+                  <c:v>-9059.0653571428575</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-9172.8420689655195</c:v>
+                  <c:v>-9059.0458620689642</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-9172.717333333334</c:v>
+                  <c:v>-9059.0663333333305</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-9172.5987096774188</c:v>
+                  <c:v>-9059.0596774193527</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-9172.5918750000001</c:v>
+                  <c:v>-9058.9084374999966</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-9172.691515151515</c:v>
+                  <c:v>-9058.9436363636341</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-9172.8117647058825</c:v>
+                  <c:v>-9058.8773529411737</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-9172.8577142857157</c:v>
+                  <c:v>-9058.9542857142824</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-9172.7933333333331</c:v>
+                  <c:v>-9058.8497222222195</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-9172.7478378378382</c:v>
+                  <c:v>-9058.8286486486468</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-9172.7799999999988</c:v>
+                  <c:v>-9058.7378947368397</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-9172.8943589743576</c:v>
+                  <c:v>-9058.7499999999982</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-9172.887999999999</c:v>
+                  <c:v>-9058.6439999999984</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-9172.8643902439017</c:v>
+                  <c:v>-9058.5648780487791</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-9172.8409523809514</c:v>
+                  <c:v>-9058.4957142857129</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-9172.8581395348829</c:v>
+                  <c:v>-9058.4839534883704</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-9172.8784090909085</c:v>
+                  <c:v>-9058.484318181816</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-9172.8571111111105</c:v>
+                  <c:v>-9058.4971111111099</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-9172.9260869565205</c:v>
+                  <c:v>-9058.5097826086949</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-9172.9285106382977</c:v>
+                  <c:v>-9058.4512765957443</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-9173.0014583333323</c:v>
+                  <c:v>-9058.4352083333324</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-9173.0253061224485</c:v>
+                  <c:v>-9058.4397959183661</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-9172.997199999998</c:v>
+                  <c:v>-9058.4183999999987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1033,151 +1050,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>0.55999999999949057</c:v>
+                  <c:v>0.10499999999956343</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0319560714165483</c:v>
+                  <c:v>0.45571677364083912</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0339356443544359</c:v>
+                  <c:v>0.82472596458877745</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94867591937393314</c:v>
+                  <c:v>0.73899661704246788</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77461137209426689</c:v>
+                  <c:v>0.72987974656420473</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.66098668773323166</c:v>
+                  <c:v>0.64366404386191201</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.62251721146603989</c:v>
+                  <c:v>0.64888090476723714</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.66345057590348411</c:v>
+                  <c:v>0.65430153127381185</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.59456062208435578</c:v>
+                  <c:v>0.60286731541863492</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.63111746624407272</c:v>
+                  <c:v>0.57949892861375907</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.59029840724496607</c:v>
+                  <c:v>0.64227853550596958</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.54329424721161856</c:v>
+                  <c:v>0.59204431373672739</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5049626950487397</c:v>
+                  <c:v>0.54827988475331224</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.52718883096294666</c:v>
+                  <c:v>0.53859134315418655</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.4939437383616454</c:v>
+                  <c:v>0.54502283973549071</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.50010297382545443</c:v>
+                  <c:v>0.52822530450399441</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.47165411809600449</c:v>
+                  <c:v>0.50941351001226132</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.53107653867907434</c:v>
+                  <c:v>0.48443508014590175</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.50464531577814897</c:v>
+                  <c:v>0.45994450466162434</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.48721779435721796</c:v>
+                  <c:v>0.44067596499293155</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.46563085346245214</c:v>
+                  <c:v>0.42089198024181618</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.44502139877607011</c:v>
+                  <c:v>0.41617582820997173</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.42740015643398915</c:v>
+                  <c:v>0.39941963293800653</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.42867897856865761</c:v>
+                  <c:v>0.38561497204682377</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.41259178645305289</c:v>
+                  <c:v>0.37062896325351186</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.40663210352397988</c:v>
+                  <c:v>0.36175193341215123</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.40199913203165349</c:v>
+                  <c:v>0.36515253105692086</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.38858793861497704</c:v>
+                  <c:v>0.35287507287216818</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.39559178231802472</c:v>
+                  <c:v>0.34152379406963557</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.4005847183121975</c:v>
+                  <c:v>0.33039028204062532</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.38792469897727661</c:v>
+                  <c:v>0.35384868661501162</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.38896451530821546</c:v>
+                  <c:v>0.34475996760314531</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.39604764621541005</c:v>
+                  <c:v>0.34097096044785535</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.3873009568959036</c:v>
+                  <c:v>0.33990638496536824</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.38185532870903716</c:v>
+                  <c:v>0.34648403754229529</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.37416777225204229</c:v>
+                  <c:v>0.33764779038916409</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.3656055597499166</c:v>
+                  <c:v>0.34094278915353249</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.37401959918763894</c:v>
+                  <c:v>0.33230617720953437</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.36460466824021365</c:v>
+                  <c:v>0.34079616435786453</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.35638360546118758</c:v>
+                  <c:v>0.34166773939077227</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.34858362982649466</c:v>
+                  <c:v>0.34053130975265655</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.34081416035022216</c:v>
+                  <c:v>0.33272560428186876</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.33359467360256279</c:v>
+                  <c:v>0.32507592180822231</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.32679197074538607</c:v>
+                  <c:v>0.31802731955297414</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.32696710204897195</c:v>
+                  <c:v>0.31129486295702058</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.31994390967763747</c:v>
+                  <c:v>0.31016745455191391</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.32159026803523455</c:v>
+                  <c:v>0.30406174566333172</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.31586038179198955</c:v>
+                  <c:v>0.29782709249406347</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.31075235103449561</c:v>
+                  <c:v>0.29259310187581361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2900,8 +2917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F54B6CA5-B23E-3D4C-9F27-E4D862681973}">
   <dimension ref="A2:U53"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2911,17 +2928,17 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>3</v>
       </c>
       <c r="T3" t="s">
@@ -2939,31 +2956,34 @@
         <v>100000</v>
       </c>
       <c r="C4">
-        <v>300.20499999999998</v>
+        <v>700.28099999999995</v>
       </c>
       <c r="D4">
-        <v>-9178.4699999999993</v>
+        <v>-9066.94</v>
       </c>
       <c r="E4">
-        <v>39315.699999999997</v>
+        <v>39509.5</v>
       </c>
       <c r="F4">
-        <v>0.244646</v>
+        <v>0.81267199999999995</v>
+      </c>
+      <c r="G4">
+        <v>1540</v>
       </c>
       <c r="L4">
         <v>100000</v>
       </c>
       <c r="M4">
-        <v>300.14800000000002</v>
+        <v>700.66399999999999</v>
       </c>
       <c r="N4">
-        <v>-9173.89</v>
+        <v>-9058.92</v>
       </c>
       <c r="O4">
-        <v>39281.300000000003</v>
+        <v>39481.199999999997</v>
       </c>
       <c r="P4">
-        <v>0.31168400000000002</v>
+        <v>0.250888</v>
       </c>
       <c r="Q4">
         <v>1539</v>
@@ -2980,39 +3000,42 @@
         <v>100000</v>
       </c>
       <c r="C5">
-        <v>300.09199999999998</v>
+        <v>700.26400000000001</v>
       </c>
       <c r="D5">
-        <v>-9179.2900000000009</v>
+        <v>-9066.51</v>
       </c>
       <c r="E5">
-        <v>39267</v>
+        <v>39497.4</v>
       </c>
       <c r="F5">
-        <v>0.59015499999999999</v>
-      </c>
-      <c r="H5">
+        <v>0.215361</v>
+      </c>
+      <c r="G5">
+        <v>1540</v>
+      </c>
+      <c r="I5">
         <f>AVERAGE(D$4:D5)</f>
-        <v>-9178.880000000001</v>
-      </c>
-      <c r="I5">
+        <v>-9066.7250000000004</v>
+      </c>
+      <c r="J5">
         <f>STDEV(D$4:D5)/SQRT(COUNT(D$4:D5))</f>
-        <v>0.41000000000076392</v>
+        <v>0.21500000000014552</v>
       </c>
       <c r="L5">
         <v>100000</v>
       </c>
       <c r="M5">
-        <v>300.08699999999999</v>
+        <v>699.61300000000006</v>
       </c>
       <c r="N5">
-        <v>-9172.77</v>
+        <v>-9059.1299999999992</v>
       </c>
       <c r="O5">
-        <v>39255.1</v>
+        <v>39507.300000000003</v>
       </c>
       <c r="P5">
-        <v>0.49886799999999998</v>
+        <v>0.219695</v>
       </c>
       <c r="Q5">
         <v>1539</v>
@@ -3022,11 +3045,11 @@
       </c>
       <c r="T5">
         <f>AVERAGE(N$4:N5)</f>
-        <v>-9173.33</v>
+        <v>-9059.0249999999996</v>
       </c>
       <c r="U5">
         <f>STDEV(N$4:N5)/SQRT(COUNT(N$4:N5))</f>
-        <v>0.55999999999949057</v>
+        <v>0.10499999999956343</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -3037,53 +3060,56 @@
         <v>100000</v>
       </c>
       <c r="C6">
-        <v>300.274</v>
+        <v>700.32</v>
       </c>
       <c r="D6">
-        <v>-9176.99</v>
+        <v>-9064.69</v>
       </c>
       <c r="E6">
-        <v>39260.1</v>
+        <v>39532.5</v>
       </c>
       <c r="F6">
-        <v>0.33218199999999998</v>
-      </c>
-      <c r="H6">
+        <v>0.126833</v>
+      </c>
+      <c r="G6">
+        <v>1540</v>
+      </c>
+      <c r="I6">
         <f>AVERAGE(D$4:D6)</f>
-        <v>-9178.25</v>
-      </c>
-      <c r="I6">
+        <v>-9066.0466666666671</v>
+      </c>
+      <c r="J6">
         <f>STDEV(D$4:D6)/SQRT(COUNT(D$4:D6))</f>
-        <v>0.67300321940810925</v>
+        <v>0.68959730600140801</v>
       </c>
       <c r="L6">
         <v>100000</v>
       </c>
       <c r="M6">
-        <v>299.79000000000002</v>
+        <v>699.69500000000005</v>
       </c>
       <c r="N6">
-        <v>-9170.39</v>
+        <v>-9057.67</v>
       </c>
       <c r="O6">
-        <v>39240.800000000003</v>
+        <v>39496.699999999997</v>
       </c>
       <c r="P6">
-        <v>0.55845900000000004</v>
+        <v>0.26407999999999998</v>
       </c>
       <c r="Q6">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="R6">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="T6">
         <f>AVERAGE(N$4:N6)</f>
-        <v>-9172.35</v>
+        <v>-9058.5733333333337</v>
       </c>
       <c r="U6">
         <f>STDEV(N$4:N6)/SQRT(COUNT(N$4:N6))</f>
-        <v>1.0319560714165483</v>
+        <v>0.45571677364083912</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -3094,53 +3120,56 @@
         <v>100000</v>
       </c>
       <c r="C7">
-        <v>300.07299999999998</v>
+        <v>700.25199999999995</v>
       </c>
       <c r="D7">
-        <v>-9178.34</v>
+        <v>-9064.24</v>
       </c>
       <c r="E7">
-        <v>39284.199999999997</v>
+        <v>39525.599999999999</v>
       </c>
       <c r="F7">
-        <v>0.120807</v>
-      </c>
-      <c r="H7">
+        <v>6.3861100000000004E-3</v>
+      </c>
+      <c r="G7">
+        <v>1540</v>
+      </c>
+      <c r="I7">
         <f>AVERAGE(D$4:D7)</f>
-        <v>-9178.2724999999991</v>
-      </c>
-      <c r="I7">
+        <v>-9065.5949999999993</v>
+      </c>
+      <c r="J7">
         <f>STDEV(D$4:D7)/SQRT(COUNT(D$4:D7))</f>
-        <v>0.47641674683709584</v>
+        <v>0.66466156801798004</v>
       </c>
       <c r="L7">
         <v>100000</v>
       </c>
       <c r="M7">
-        <v>300.14100000000002</v>
+        <v>700.10599999999999</v>
       </c>
       <c r="N7">
-        <v>-9169.42</v>
+        <v>-9061.61</v>
       </c>
       <c r="O7">
-        <v>39244.199999999997</v>
+        <v>39514.199999999997</v>
       </c>
       <c r="P7">
-        <v>0.59279499999999996</v>
+        <v>-6.6865499999999994E-2</v>
       </c>
       <c r="Q7">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="R7">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="T7">
         <f>AVERAGE(N$4:N7)</f>
-        <v>-9171.6175000000003</v>
+        <v>-9059.3325000000004</v>
       </c>
       <c r="U7">
         <f>STDEV(N$4:N7)/SQRT(COUNT(N$4:N7))</f>
-        <v>1.0339356443544359</v>
+        <v>0.82472596458877745</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -3151,39 +3180,42 @@
         <v>100000</v>
       </c>
       <c r="C8">
-        <v>299.91300000000001</v>
+        <v>699.78399999999999</v>
       </c>
       <c r="D8">
-        <v>-9180.58</v>
+        <v>-9062.4699999999993</v>
       </c>
       <c r="E8">
-        <v>39282.9</v>
+        <v>39520.699999999997</v>
       </c>
       <c r="F8">
-        <v>0.307477</v>
-      </c>
-      <c r="H8">
+        <v>4.1713800000000002E-2</v>
+      </c>
+      <c r="G8">
+        <v>1540</v>
+      </c>
+      <c r="I8">
         <f>AVERAGE(D$4:D8)</f>
-        <v>-9178.7340000000004</v>
-      </c>
-      <c r="I8">
+        <v>-9064.9699999999993</v>
+      </c>
+      <c r="J8">
         <f>STDEV(D$4:D8)/SQRT(COUNT(D$4:D8))</f>
-        <v>0.59090269926620298</v>
+        <v>0.80974687402934709</v>
       </c>
       <c r="L8">
         <v>100000</v>
       </c>
       <c r="M8">
-        <v>299.81</v>
+        <v>699.68399999999997</v>
       </c>
       <c r="N8">
-        <v>-9174.16</v>
+        <v>-9061.19</v>
       </c>
       <c r="O8">
-        <v>39274.5</v>
+        <v>39511.599999999999</v>
       </c>
       <c r="P8">
-        <v>0.54850200000000005</v>
+        <v>9.9956100000000006E-2</v>
       </c>
       <c r="Q8">
         <v>1539</v>
@@ -3193,11 +3225,11 @@
       </c>
       <c r="T8">
         <f>AVERAGE(N$4:N8)</f>
-        <v>-9172.1260000000002</v>
+        <v>-9059.7040000000015</v>
       </c>
       <c r="U8">
         <f>STDEV(N$4:N8)/SQRT(COUNT(N$4:N8))</f>
-        <v>0.94867591937393314</v>
+        <v>0.73899661704246788</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
@@ -3208,39 +3240,42 @@
         <v>100000</v>
       </c>
       <c r="C9">
-        <v>299.73</v>
+        <v>700.37800000000004</v>
       </c>
       <c r="D9">
-        <v>-9179.9</v>
+        <v>-9061.52</v>
       </c>
       <c r="E9">
-        <v>39289.699999999997</v>
+        <v>39542.6</v>
       </c>
       <c r="F9">
-        <v>0.64993199999999995</v>
-      </c>
-      <c r="H9">
+        <v>0.20413899999999999</v>
+      </c>
+      <c r="G9">
+        <v>1540</v>
+      </c>
+      <c r="I9">
         <f>AVERAGE(D$4:D9)</f>
-        <v>-9178.9283333333333</v>
-      </c>
-      <c r="I9">
+        <v>-9064.3949999999986</v>
+      </c>
+      <c r="J9">
         <f>STDEV(D$4:D9)/SQRT(COUNT(D$4:D9))</f>
-        <v>0.52013726820697037</v>
+        <v>0.8762143953775221</v>
       </c>
       <c r="L9">
         <v>100000</v>
       </c>
       <c r="M9">
-        <v>299.99400000000003</v>
+        <v>700.17100000000005</v>
       </c>
       <c r="N9">
-        <v>-9172.16</v>
+        <v>-9057.24</v>
       </c>
       <c r="O9">
-        <v>39267.5</v>
+        <v>39476.5</v>
       </c>
       <c r="P9">
-        <v>0.41569</v>
+        <v>-4.7078099999999998E-3</v>
       </c>
       <c r="Q9">
         <v>1539</v>
@@ -3250,11 +3285,11 @@
       </c>
       <c r="T9">
         <f>AVERAGE(N$4:N9)</f>
-        <v>-9172.131666666668</v>
+        <v>-9059.2933333333331</v>
       </c>
       <c r="U9">
         <f>STDEV(N$4:N9)/SQRT(COUNT(N$4:N9))</f>
-        <v>0.77461137209426689</v>
+        <v>0.72987974656420473</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
@@ -3265,39 +3300,42 @@
         <v>100000</v>
       </c>
       <c r="C10">
-        <v>299.82900000000001</v>
+        <v>700.43799999999999</v>
       </c>
       <c r="D10">
-        <v>-9177.58</v>
+        <v>-9062.8799999999992</v>
       </c>
       <c r="E10">
-        <v>39263.199999999997</v>
+        <v>39529</v>
       </c>
       <c r="F10">
-        <v>0.17296</v>
-      </c>
-      <c r="H10">
+        <v>0.49168600000000001</v>
+      </c>
+      <c r="G10">
+        <v>1540</v>
+      </c>
+      <c r="I10">
         <f>AVERAGE(D$4:D10)</f>
-        <v>-9178.7357142857145</v>
-      </c>
-      <c r="I10">
+        <v>-9064.1785714285706</v>
+      </c>
+      <c r="J10">
         <f>STDEV(D$4:D10)/SQRT(COUNT(D$4:D10))</f>
-        <v>0.47994472470851718</v>
+        <v>0.77151498634168492</v>
       </c>
       <c r="L10">
         <v>100000</v>
       </c>
       <c r="M10">
-        <v>299.78100000000001</v>
+        <v>699.36099999999999</v>
       </c>
       <c r="N10">
-        <v>-9172.77</v>
+        <v>-9060.58</v>
       </c>
       <c r="O10">
-        <v>39294</v>
+        <v>39510.400000000001</v>
       </c>
       <c r="P10">
-        <v>-6.9313100000000002E-2</v>
+        <v>0.185109</v>
       </c>
       <c r="Q10">
         <v>1539</v>
@@ -3307,11 +3345,11 @@
       </c>
       <c r="T10">
         <f>AVERAGE(N$4:N10)</f>
-        <v>-9172.2228571428586</v>
+        <v>-9059.4771428571439</v>
       </c>
       <c r="U10">
         <f>STDEV(N$4:N10)/SQRT(COUNT(N$4:N10))</f>
-        <v>0.66098668773323166</v>
+        <v>0.64366404386191201</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
@@ -3322,39 +3360,42 @@
         <v>100000</v>
       </c>
       <c r="C11">
-        <v>299.678</v>
+        <v>700.20799999999997</v>
       </c>
       <c r="D11">
-        <v>-9183.4</v>
+        <v>-9067.3700000000008</v>
       </c>
       <c r="E11">
-        <v>39312</v>
+        <v>39516.6</v>
       </c>
       <c r="F11">
-        <v>0.30251899999999998</v>
-      </c>
-      <c r="H11">
+        <v>0.56755299999999997</v>
+      </c>
+      <c r="G11">
+        <v>1540</v>
+      </c>
+      <c r="I11">
         <f>AVERAGE(D$4:D11)</f>
-        <v>-9179.3187500000004</v>
-      </c>
-      <c r="I11">
+        <v>-9064.5774999999994</v>
+      </c>
+      <c r="J11">
         <f>STDEV(D$4:D11)/SQRT(COUNT(D$4:D11))</f>
-        <v>0.71602433493161266</v>
+        <v>0.7781841271283283</v>
       </c>
       <c r="L11">
         <v>100000</v>
       </c>
       <c r="M11">
-        <v>300.464</v>
+        <v>699.80499999999995</v>
       </c>
       <c r="N11">
-        <v>-9174.18</v>
+        <v>-9056.82</v>
       </c>
       <c r="O11">
-        <v>39230.9</v>
+        <v>39485.9</v>
       </c>
       <c r="P11">
-        <v>0.245891</v>
+        <v>-0.38140000000000002</v>
       </c>
       <c r="Q11">
         <v>1539</v>
@@ -3364,11 +3405,11 @@
       </c>
       <c r="T11">
         <f>AVERAGE(N$4:N11)</f>
-        <v>-9172.4675000000025</v>
+        <v>-9059.1450000000004</v>
       </c>
       <c r="U11">
         <f>STDEV(N$4:N11)/SQRT(COUNT(N$4:N11))</f>
-        <v>0.62251721146603989</v>
+        <v>0.64888090476723714</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
@@ -3379,39 +3420,42 @@
         <v>100000</v>
       </c>
       <c r="C12">
-        <v>299.673</v>
+        <v>700.72500000000002</v>
       </c>
       <c r="D12">
-        <v>-9176.0300000000007</v>
+        <v>-9067.9</v>
       </c>
       <c r="E12">
-        <v>39254.199999999997</v>
+        <v>39536.9</v>
       </c>
       <c r="F12">
-        <v>0.23199900000000001</v>
-      </c>
-      <c r="H12">
+        <v>-0.51063999999999998</v>
+      </c>
+      <c r="G12">
+        <v>1540</v>
+      </c>
+      <c r="I12">
         <f>AVERAGE(D$4:D12)</f>
-        <v>-9178.9533333333329</v>
-      </c>
-      <c r="I12">
+        <v>-9064.9466666666649</v>
+      </c>
+      <c r="J12">
         <f>STDEV(D$4:D12)/SQRT(COUNT(D$4:D12))</f>
-        <v>0.7295813106767518</v>
+        <v>0.77928385927943167</v>
       </c>
       <c r="L12">
         <v>100000</v>
       </c>
       <c r="M12">
-        <v>300.05099999999999</v>
+        <v>699.90099999999995</v>
       </c>
       <c r="N12">
-        <v>-9175.82</v>
+        <v>-9062</v>
       </c>
       <c r="O12">
-        <v>39231.9</v>
+        <v>39544.1</v>
       </c>
       <c r="P12">
-        <v>0.30764999999999998</v>
+        <v>0.65577799999999997</v>
       </c>
       <c r="Q12">
         <v>1539</v>
@@ -3421,11 +3465,11 @@
       </c>
       <c r="T12">
         <f>AVERAGE(N$4:N12)</f>
-        <v>-9172.8400000000038</v>
+        <v>-9059.4622222222224</v>
       </c>
       <c r="U12">
         <f>STDEV(N$4:N12)/SQRT(COUNT(N$4:N12))</f>
-        <v>0.66345057590348411</v>
+        <v>0.65430153127381185</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
@@ -3436,53 +3480,56 @@
         <v>100000</v>
       </c>
       <c r="C13">
-        <v>299.964</v>
+        <v>699.49599999999998</v>
       </c>
       <c r="D13">
-        <v>-9180.2099999999991</v>
+        <v>-9064.0499999999993</v>
       </c>
       <c r="E13">
-        <v>39352.6</v>
+        <v>39533.800000000003</v>
       </c>
       <c r="F13">
-        <v>0.28817700000000002</v>
-      </c>
-      <c r="H13">
+        <v>0.43084499999999998</v>
+      </c>
+      <c r="G13">
+        <v>1540</v>
+      </c>
+      <c r="I13">
         <f>AVERAGE(D$4:D13)</f>
-        <v>-9179.0790000000015</v>
-      </c>
-      <c r="I13">
+        <v>-9064.857</v>
+      </c>
+      <c r="J13">
         <f>STDEV(D$4:D13)/SQRT(COUNT(D$4:D13))</f>
-        <v>0.66454738147263426</v>
+        <v>0.70275655655275182</v>
       </c>
       <c r="L13">
         <v>100000</v>
       </c>
       <c r="M13">
-        <v>300.19600000000003</v>
+        <v>699.60599999999999</v>
       </c>
       <c r="N13">
-        <v>-9172.4699999999993</v>
+        <v>-9060.91</v>
       </c>
       <c r="O13">
-        <v>39240.6</v>
+        <v>39529.800000000003</v>
       </c>
       <c r="P13">
-        <v>0.12956400000000001</v>
+        <v>-0.31316100000000002</v>
       </c>
       <c r="Q13">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="R13">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="T13">
         <f>AVERAGE(N$4:N13)</f>
-        <v>-9172.8030000000035</v>
+        <v>-9059.607</v>
       </c>
       <c r="U13">
         <f>STDEV(N$4:N13)/SQRT(COUNT(N$4:N13))</f>
-        <v>0.59456062208435578</v>
+        <v>0.60286731541863492</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -3493,53 +3540,56 @@
         <v>100000</v>
       </c>
       <c r="C14">
-        <v>300.017</v>
+        <v>700.20600000000002</v>
       </c>
       <c r="D14">
-        <v>-9178.48</v>
+        <v>-9066.32</v>
       </c>
       <c r="E14">
-        <v>39299.1</v>
+        <v>39552.699999999997</v>
       </c>
       <c r="F14">
-        <v>0.37581199999999998</v>
-      </c>
-      <c r="H14">
+        <v>4.1112900000000001E-2</v>
+      </c>
+      <c r="G14">
+        <v>1540</v>
+      </c>
+      <c r="I14">
         <f>AVERAGE(D$4:D14)</f>
-        <v>-9179.0245454545457</v>
-      </c>
-      <c r="I14">
+        <v>-9064.989999999998</v>
+      </c>
+      <c r="J14">
         <f>STDEV(D$4:D14)/SQRT(COUNT(D$4:D14))</f>
-        <v>0.60356721947906034</v>
+        <v>0.64943191958964908</v>
       </c>
       <c r="L14">
         <v>100000</v>
       </c>
       <c r="M14">
-        <v>300.077</v>
+        <v>699.90099999999995</v>
       </c>
       <c r="N14">
-        <v>-9169.17</v>
+        <v>-9057.4500000000007</v>
       </c>
       <c r="O14">
-        <v>39291.800000000003</v>
+        <v>39522.300000000003</v>
       </c>
       <c r="P14">
-        <v>-3.2219499999999998E-2</v>
+        <v>-0.28929300000000002</v>
       </c>
       <c r="Q14">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="R14">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="T14">
         <f>AVERAGE(N$4:N14)</f>
-        <v>-9172.4727272727305</v>
+        <v>-9059.4109090909096</v>
       </c>
       <c r="U14">
         <f>STDEV(N$4:N14)/SQRT(COUNT(N$4:N14))</f>
-        <v>0.63111746624407272</v>
+        <v>0.57949892861375907</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
@@ -3550,53 +3600,56 @@
         <v>100000</v>
       </c>
       <c r="C15">
-        <v>300.06599999999997</v>
+        <v>700.072</v>
       </c>
       <c r="D15">
-        <v>-9180.1299999999992</v>
+        <v>-9063.49</v>
       </c>
       <c r="E15">
-        <v>39274.300000000003</v>
+        <v>39523.5</v>
       </c>
       <c r="F15">
-        <v>0.26258999999999999</v>
-      </c>
-      <c r="H15">
+        <v>-0.168849</v>
+      </c>
+      <c r="G15">
+        <v>1540</v>
+      </c>
+      <c r="I15">
         <f>AVERAGE(D$4:D15)</f>
-        <v>-9179.1166666666668</v>
-      </c>
-      <c r="I15">
+        <v>-9064.8649999999998</v>
+      </c>
+      <c r="J15">
         <f>STDEV(D$4:D15)/SQRT(COUNT(D$4:D15))</f>
-        <v>0.55862701457598207</v>
+        <v>0.60588215175746063</v>
       </c>
       <c r="L15">
         <v>100000</v>
       </c>
       <c r="M15">
-        <v>299.73599999999999</v>
+        <v>700.53700000000003</v>
       </c>
       <c r="N15">
-        <v>-9170.93</v>
+        <v>-9055.0400000000009</v>
       </c>
       <c r="O15">
-        <v>39264</v>
+        <v>39517.699999999997</v>
       </c>
       <c r="P15">
-        <v>0.202039</v>
+        <v>0.63373699999999999</v>
       </c>
       <c r="Q15">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="R15">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="T15">
         <f>AVERAGE(N$4:N15)</f>
-        <v>-9172.3441666666695</v>
+        <v>-9059.0466666666671</v>
       </c>
       <c r="U15">
         <f>STDEV(N$4:N15)/SQRT(COUNT(N$4:N15))</f>
-        <v>0.59029840724496607</v>
+        <v>0.64227853550596958</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -3607,39 +3660,42 @@
         <v>100000</v>
       </c>
       <c r="C16">
-        <v>299.94400000000002</v>
+        <v>700.33799999999997</v>
       </c>
       <c r="D16">
-        <v>-9179.81</v>
+        <v>-9065.75</v>
       </c>
       <c r="E16">
-        <v>39284.699999999997</v>
+        <v>39515</v>
       </c>
       <c r="F16">
-        <v>-2.9053099999999998E-2</v>
-      </c>
-      <c r="H16">
+        <v>0.38355299999999998</v>
+      </c>
+      <c r="G16">
+        <v>1540</v>
+      </c>
+      <c r="I16">
         <f>AVERAGE(D$4:D16)</f>
-        <v>-9179.17</v>
-      </c>
-      <c r="I16">
+        <v>-9064.9330769230764</v>
+      </c>
+      <c r="J16">
         <f>STDEV(D$4:D16)/SQRT(COUNT(D$4:D16))</f>
-        <v>0.51662241332394654</v>
+        <v>0.56147286234330851</v>
       </c>
       <c r="L16">
         <v>100000</v>
       </c>
       <c r="M16">
-        <v>300.03899999999999</v>
+        <v>699.70299999999997</v>
       </c>
       <c r="N16">
-        <v>-9172.11</v>
+        <v>-9058.5499999999993</v>
       </c>
       <c r="O16">
-        <v>39244.5</v>
+        <v>39508.400000000001</v>
       </c>
       <c r="P16">
-        <v>0.27413900000000002</v>
+        <v>-0.33952300000000002</v>
       </c>
       <c r="Q16">
         <v>1539</v>
@@ -3649,11 +3705,11 @@
       </c>
       <c r="T16">
         <f>AVERAGE(N$4:N16)</f>
-        <v>-9172.3261538461556</v>
+        <v>-9059.0084615384621</v>
       </c>
       <c r="U16">
         <f>STDEV(N$4:N16)/SQRT(COUNT(N$4:N16))</f>
-        <v>0.54329424721161856</v>
+        <v>0.59204431373672739</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -3664,39 +3720,42 @@
         <v>100000</v>
       </c>
       <c r="C17">
-        <v>300.05</v>
+        <v>700.298</v>
       </c>
       <c r="D17">
-        <v>-9178</v>
+        <v>-9064.7099999999991</v>
       </c>
       <c r="E17">
-        <v>39281.800000000003</v>
+        <v>39493.1</v>
       </c>
       <c r="F17">
-        <v>0.28846500000000003</v>
-      </c>
-      <c r="H17">
+        <v>0.32467200000000002</v>
+      </c>
+      <c r="G17">
+        <v>1540</v>
+      </c>
+      <c r="I17">
         <f>AVERAGE(D$4:D17)</f>
-        <v>-9179.0864285714288</v>
-      </c>
-      <c r="I17">
+        <v>-9064.9171428571426</v>
+      </c>
+      <c r="J17">
         <f>STDEV(D$4:D17)/SQRT(COUNT(D$4:D17))</f>
-        <v>0.48554558317808399</v>
+        <v>0.52006701657276522</v>
       </c>
       <c r="L17">
         <v>100000</v>
       </c>
       <c r="M17">
-        <v>299.702</v>
+        <v>699.37099999999998</v>
       </c>
       <c r="N17">
-        <v>-9172.9500000000007</v>
+        <v>-9059.19</v>
       </c>
       <c r="O17">
-        <v>39275.699999999997</v>
+        <v>39498.9</v>
       </c>
       <c r="P17">
-        <v>0.26614399999999999</v>
+        <v>0.39665</v>
       </c>
       <c r="Q17">
         <v>1539</v>
@@ -3706,11 +3765,11 @@
       </c>
       <c r="T17">
         <f>AVERAGE(N$4:N17)</f>
-        <v>-9172.3707142857165</v>
+        <v>-9059.0214285714283</v>
       </c>
       <c r="U17">
         <f>STDEV(N$4:N17)/SQRT(COUNT(N$4:N17))</f>
-        <v>0.5049626950487397</v>
+        <v>0.54827988475331224</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
@@ -3721,39 +3780,42 @@
         <v>100000</v>
       </c>
       <c r="C18">
-        <v>300.01900000000001</v>
+        <v>700.33199999999999</v>
       </c>
       <c r="D18">
-        <v>-9177.9599999999991</v>
+        <v>-9062.92</v>
       </c>
       <c r="E18">
-        <v>39298.800000000003</v>
+        <v>39519.5</v>
       </c>
       <c r="F18">
-        <v>0.20095099999999999</v>
-      </c>
-      <c r="H18">
+        <v>-0.126084</v>
+      </c>
+      <c r="G18">
+        <v>1540</v>
+      </c>
+      <c r="I18">
         <f>AVERAGE(D$4:D18)</f>
-        <v>-9179.0113333333338</v>
-      </c>
-      <c r="I18">
+        <v>-9064.7840000000015</v>
+      </c>
+      <c r="J18">
         <f>STDEV(D$4:D18)/SQRT(COUNT(D$4:D18))</f>
-        <v>0.45821378527477069</v>
+        <v>0.50212956021144295</v>
       </c>
       <c r="L18">
         <v>100000</v>
       </c>
       <c r="M18">
-        <v>299.92899999999997</v>
+        <v>699.87699999999995</v>
       </c>
       <c r="N18">
-        <v>-9175.9500000000007</v>
+        <v>-9061.6</v>
       </c>
       <c r="O18">
-        <v>39305.1</v>
+        <v>39500.1</v>
       </c>
       <c r="P18">
-        <v>-0.11404300000000001</v>
+        <v>0.124444</v>
       </c>
       <c r="Q18">
         <v>1539</v>
@@ -3763,11 +3825,11 @@
       </c>
       <c r="T18">
         <f>AVERAGE(N$4:N18)</f>
-        <v>-9172.6093333333356</v>
+        <v>-9059.1933333333327</v>
       </c>
       <c r="U18">
         <f>STDEV(N$4:N18)/SQRT(COUNT(N$4:N18))</f>
-        <v>0.52718883096294666</v>
+        <v>0.53859134315418655</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
@@ -3778,39 +3840,42 @@
         <v>100000</v>
       </c>
       <c r="C19">
-        <v>299.78500000000003</v>
+        <v>700.21900000000005</v>
       </c>
       <c r="D19">
-        <v>-9177.52</v>
+        <v>-9066.84</v>
       </c>
       <c r="E19">
-        <v>39282.1</v>
+        <v>39549.4</v>
       </c>
       <c r="F19">
-        <v>9.8411100000000001E-2</v>
-      </c>
-      <c r="H19">
+        <v>0.42087599999999997</v>
+      </c>
+      <c r="G19">
+        <v>1540</v>
+      </c>
+      <c r="I19">
         <f>AVERAGE(D$4:D19)</f>
-        <v>-9178.9181250000001</v>
-      </c>
-      <c r="I19">
+        <v>-9064.9125000000004</v>
+      </c>
+      <c r="J19">
         <f>STDEV(D$4:D19)/SQRT(COUNT(D$4:D19))</f>
-        <v>0.43863730152783892</v>
+        <v>0.48695952946150878</v>
       </c>
       <c r="L19">
         <v>100000</v>
       </c>
       <c r="M19">
-        <v>300.18599999999998</v>
+        <v>699.95799999999997</v>
       </c>
       <c r="N19">
-        <v>-9173.06</v>
+        <v>-9062.52</v>
       </c>
       <c r="O19">
-        <v>39273.699999999997</v>
+        <v>39505.300000000003</v>
       </c>
       <c r="P19">
-        <v>0.19068199999999999</v>
+        <v>0.179587</v>
       </c>
       <c r="Q19">
         <v>1539</v>
@@ -3820,11 +3885,11 @@
       </c>
       <c r="T19">
         <f>AVERAGE(N$4:N19)</f>
-        <v>-9172.6375000000025</v>
+        <v>-9059.401249999999</v>
       </c>
       <c r="U19">
         <f>STDEV(N$4:N19)/SQRT(COUNT(N$4:N19))</f>
-        <v>0.4939437383616454</v>
+        <v>0.54502283973549071</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
@@ -3835,53 +3900,56 @@
         <v>100000</v>
       </c>
       <c r="C20">
-        <v>299.904</v>
+        <v>700.04499999999996</v>
       </c>
       <c r="D20">
-        <v>-9179.4699999999993</v>
+        <v>-9059.73</v>
       </c>
       <c r="E20">
-        <v>39253.800000000003</v>
+        <v>39543.800000000003</v>
       </c>
       <c r="F20">
-        <v>-5.9752399999999997E-2</v>
-      </c>
-      <c r="H20">
+        <v>0.24556500000000001</v>
+      </c>
+      <c r="G20">
+        <v>1540</v>
+      </c>
+      <c r="I20">
         <f>AVERAGE(D$4:D20)</f>
-        <v>-9178.9505882352951</v>
-      </c>
-      <c r="I20">
+        <v>-9064.607647058825</v>
+      </c>
+      <c r="J20">
         <f>STDEV(D$4:D20)/SQRT(COUNT(D$4:D20))</f>
-        <v>0.41330489261078951</v>
+        <v>0.54969746319053592</v>
       </c>
       <c r="L20">
         <v>100000</v>
       </c>
       <c r="M20">
-        <v>299.92599999999999</v>
+        <v>700.40200000000004</v>
       </c>
       <c r="N20">
-        <v>-9175.81</v>
+        <v>-9057.19</v>
       </c>
       <c r="O20">
-        <v>39297.199999999997</v>
+        <v>39534.199999999997</v>
       </c>
       <c r="P20">
-        <v>0.422294</v>
+        <v>-0.18711</v>
       </c>
       <c r="Q20">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="R20">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="T20">
         <f>AVERAGE(N$4:N20)</f>
-        <v>-9172.8241176470619</v>
+        <v>-9059.2711764705873</v>
       </c>
       <c r="U20">
         <f>STDEV(N$4:N20)/SQRT(COUNT(N$4:N20))</f>
-        <v>0.50010297382545443</v>
+        <v>0.52822530450399441</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
@@ -3892,39 +3960,42 @@
         <v>100000</v>
       </c>
       <c r="C21">
-        <v>299.79399999999998</v>
+        <v>699.78700000000003</v>
       </c>
       <c r="D21">
-        <v>-9181.7199999999993</v>
+        <v>-9063.36</v>
       </c>
       <c r="E21">
-        <v>39276.699999999997</v>
+        <v>39505.300000000003</v>
       </c>
       <c r="F21">
-        <v>0.47046100000000002</v>
-      </c>
-      <c r="H21">
+        <v>0.44801999999999997</v>
+      </c>
+      <c r="G21">
+        <v>1540</v>
+      </c>
+      <c r="I21">
         <f>AVERAGE(D$4:D21)</f>
-        <v>-9179.1044444444451</v>
-      </c>
-      <c r="I21">
+        <v>-9064.5383333333339</v>
+      </c>
+      <c r="J21">
         <f>STDEV(D$4:D21)/SQRT(COUNT(D$4:D21))</f>
-        <v>0.41894219594580584</v>
+        <v>0.52287431474460999</v>
       </c>
       <c r="L21">
         <v>100000</v>
       </c>
       <c r="M21">
-        <v>299.93900000000002</v>
+        <v>699.93499999999995</v>
       </c>
       <c r="N21">
-        <v>-9173.0400000000009</v>
+        <v>-9061.2000000000007</v>
       </c>
       <c r="O21">
-        <v>39285.199999999997</v>
+        <v>39533.800000000003</v>
       </c>
       <c r="P21">
-        <v>0.22920199999999999</v>
+        <v>0.23852100000000001</v>
       </c>
       <c r="Q21">
         <v>1539</v>
@@ -3934,11 +4005,11 @@
       </c>
       <c r="T21">
         <f>AVERAGE(N$4:N21)</f>
-        <v>-9172.8361111111135</v>
+        <v>-9059.378333333334</v>
       </c>
       <c r="U21">
         <f>STDEV(N$4:N21)/SQRT(COUNT(N$4:N21))</f>
-        <v>0.47165411809600449</v>
+        <v>0.50941351001226132</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
@@ -3949,39 +4020,42 @@
         <v>100000</v>
       </c>
       <c r="C22">
-        <v>299.95</v>
+        <v>699.61800000000005</v>
       </c>
       <c r="D22">
-        <v>-9178.68</v>
+        <v>-9063.2199999999993</v>
       </c>
       <c r="E22">
-        <v>39312.800000000003</v>
+        <v>39520</v>
       </c>
       <c r="F22">
-        <v>6.1535100000000002E-2</v>
-      </c>
-      <c r="H22">
+        <v>0.58330800000000005</v>
+      </c>
+      <c r="G22">
+        <v>1540</v>
+      </c>
+      <c r="I22">
         <f>AVERAGE(D$4:D22)</f>
-        <v>-9179.0821052631582</v>
-      </c>
-      <c r="I22">
+        <v>-9064.4689473684211</v>
+      </c>
+      <c r="J22">
         <f>STDEV(D$4:D22)/SQRT(COUNT(D$4:D22))</f>
-        <v>0.3969088004512058</v>
+        <v>0.49943295023052792</v>
       </c>
       <c r="L22">
         <v>100000</v>
       </c>
       <c r="M22">
-        <v>299.88400000000001</v>
+        <v>699.91600000000005</v>
       </c>
       <c r="N22">
-        <v>-9178.31</v>
+        <v>-9058.43</v>
       </c>
       <c r="O22">
-        <v>39298.1</v>
+        <v>39504.300000000003</v>
       </c>
       <c r="P22">
-        <v>0.14429700000000001</v>
+        <v>0.65887300000000004</v>
       </c>
       <c r="Q22">
         <v>1539</v>
@@ -3991,11 +4065,11 @@
       </c>
       <c r="T22">
         <f>AVERAGE(N$4:N22)</f>
-        <v>-9173.1242105263173</v>
+        <v>-9059.3284210526308</v>
       </c>
       <c r="U22">
         <f>STDEV(N$4:N22)/SQRT(COUNT(N$4:N22))</f>
-        <v>0.53107653867907434</v>
+        <v>0.48443508014590175</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
@@ -4006,53 +4080,56 @@
         <v>100000</v>
       </c>
       <c r="C23">
-        <v>299.84300000000002</v>
+        <v>700.15800000000002</v>
       </c>
       <c r="D23">
-        <v>-9175.19</v>
+        <v>-9062.43</v>
       </c>
       <c r="E23">
-        <v>39281.800000000003</v>
+        <v>39508.800000000003</v>
       </c>
       <c r="F23">
-        <v>0.39182299999999998</v>
-      </c>
-      <c r="H23">
+        <v>0.29265000000000002</v>
+      </c>
+      <c r="G23">
+        <v>1540</v>
+      </c>
+      <c r="I23">
         <f>AVERAGE(D$4:D23)</f>
-        <v>-9178.8875000000007</v>
-      </c>
-      <c r="I23">
+        <v>-9064.3670000000002</v>
+      </c>
+      <c r="J23">
         <f>STDEV(D$4:D23)/SQRT(COUNT(D$4:D23))</f>
-        <v>0.42385627839728035</v>
+        <v>0.48464751162710601</v>
       </c>
       <c r="L23">
         <v>100000</v>
       </c>
       <c r="M23">
-        <v>299.91500000000002</v>
+        <v>699.80499999999995</v>
       </c>
       <c r="N23">
-        <v>-9173.7000000000007</v>
+        <v>-9058.9599999999991</v>
       </c>
       <c r="O23">
-        <v>39289.9</v>
+        <v>39497.1</v>
       </c>
       <c r="P23">
-        <v>0.221777</v>
+        <v>-9.3367900000000004E-2</v>
       </c>
       <c r="Q23">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="R23">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="T23">
         <f>AVERAGE(N$4:N23)</f>
-        <v>-9173.1530000000021</v>
+        <v>-9059.31</v>
       </c>
       <c r="U23">
         <f>STDEV(N$4:N23)/SQRT(COUNT(N$4:N23))</f>
-        <v>0.50464531577814897</v>
+        <v>0.45994450466162434</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
@@ -4063,53 +4140,56 @@
         <v>100000</v>
       </c>
       <c r="C24">
-        <v>300.09800000000001</v>
+        <v>700.00300000000004</v>
       </c>
       <c r="D24">
-        <v>-9178.0400000000009</v>
+        <v>-9060.7099999999991</v>
       </c>
       <c r="E24">
-        <v>39302.699999999997</v>
+        <v>39507.599999999999</v>
       </c>
       <c r="F24">
-        <v>0.51368199999999997</v>
-      </c>
-      <c r="H24">
+        <v>6.3845200000000005E-2</v>
+      </c>
+      <c r="G24">
+        <v>1540</v>
+      </c>
+      <c r="I24">
         <f>AVERAGE(D$4:D24)</f>
-        <v>-9178.8471428571429</v>
-      </c>
-      <c r="I24">
+        <v>-9064.1928571428562</v>
+      </c>
+      <c r="J24">
         <f>STDEV(D$4:D24)/SQRT(COUNT(D$4:D24))</f>
-        <v>0.40518258251067441</v>
+        <v>0.49278708956941925</v>
       </c>
       <c r="L24">
         <v>100000</v>
       </c>
       <c r="M24">
-        <v>300.036</v>
+        <v>699.86699999999996</v>
       </c>
       <c r="N24">
-        <v>-9171.4</v>
+        <v>-9058.2000000000007</v>
       </c>
       <c r="O24">
-        <v>39288.9</v>
+        <v>39493.4</v>
       </c>
       <c r="P24">
-        <v>0.343524</v>
+        <v>0.30722699999999997</v>
       </c>
       <c r="Q24">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="R24">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="T24">
         <f>AVERAGE(N$4:N24)</f>
-        <v>-9173.0695238095268</v>
+        <v>-9059.2571428571428</v>
       </c>
       <c r="U24">
         <f>STDEV(N$4:N24)/SQRT(COUNT(N$4:N24))</f>
-        <v>0.48721779435721796</v>
+        <v>0.44067596499293155</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
@@ -4120,39 +4200,42 @@
         <v>100000</v>
       </c>
       <c r="C25">
-        <v>300.39</v>
+        <v>700.02800000000002</v>
       </c>
       <c r="D25">
-        <v>-9175.43</v>
+        <v>-9066.2999999999993</v>
       </c>
       <c r="E25">
-        <v>39278.6</v>
+        <v>39526.6</v>
       </c>
       <c r="F25">
-        <v>0.35727500000000001</v>
-      </c>
-      <c r="H25">
+        <v>0.699187</v>
+      </c>
+      <c r="G25">
+        <v>1540</v>
+      </c>
+      <c r="I25">
         <f>AVERAGE(D$4:D25)</f>
-        <v>-9178.6918181818182</v>
-      </c>
-      <c r="I25">
+        <v>-9064.2886363636353</v>
+      </c>
+      <c r="J25">
         <f>STDEV(D$4:D25)/SQRT(COUNT(D$4:D25))</f>
-        <v>0.41638187827478346</v>
+        <v>0.47951693561207581</v>
       </c>
       <c r="L25">
         <v>100000</v>
       </c>
       <c r="M25">
-        <v>299.983</v>
+        <v>699.93700000000001</v>
       </c>
       <c r="N25">
-        <v>-9172.3700000000008</v>
+        <v>-9059.7999999999993</v>
       </c>
       <c r="O25">
-        <v>39259.199999999997</v>
+        <v>39520.199999999997</v>
       </c>
       <c r="P25">
-        <v>0.25086900000000001</v>
+        <v>0.73419100000000004</v>
       </c>
       <c r="Q25">
         <v>1539</v>
@@ -4162,11 +4245,11 @@
       </c>
       <c r="T25">
         <f>AVERAGE(N$4:N25)</f>
-        <v>-9173.0377272727292</v>
+        <v>-9059.2818181818166</v>
       </c>
       <c r="U25">
         <f>STDEV(N$4:N25)/SQRT(COUNT(N$4:N25))</f>
-        <v>0.46563085346245214</v>
+        <v>0.42089198024181618</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
@@ -4177,53 +4260,56 @@
         <v>100000</v>
       </c>
       <c r="C26">
-        <v>299.834</v>
+        <v>699.95399999999995</v>
       </c>
       <c r="D26">
-        <v>-9177.84</v>
+        <v>-9063.0300000000007</v>
       </c>
       <c r="E26">
-        <v>39281.599999999999</v>
+        <v>39522.5</v>
       </c>
       <c r="F26">
-        <v>0.21110799999999999</v>
-      </c>
-      <c r="H26">
+        <v>0.41066399999999997</v>
+      </c>
+      <c r="G26">
+        <v>1540</v>
+      </c>
+      <c r="I26">
         <f>AVERAGE(D$4:D26)</f>
-        <v>-9178.6547826086953</v>
-      </c>
-      <c r="I26">
+        <v>-9064.2339130434775</v>
+      </c>
+      <c r="J26">
         <f>STDEV(D$4:D26)/SQRT(COUNT(D$4:D26))</f>
-        <v>0.39958667853432589</v>
+        <v>0.46145059950422146</v>
       </c>
       <c r="L26">
         <v>100000</v>
       </c>
       <c r="M26">
-        <v>300.012</v>
+        <v>700.63099999999997</v>
       </c>
       <c r="N26">
-        <v>-9173.25</v>
+        <v>-9056.82</v>
       </c>
       <c r="O26">
-        <v>39279.199999999997</v>
+        <v>39511.199999999997</v>
       </c>
       <c r="P26">
-        <v>0.57856799999999997</v>
+        <v>0.352186</v>
       </c>
       <c r="Q26">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="R26">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="T26">
         <f>AVERAGE(N$4:N26)</f>
-        <v>-9173.0469565217409</v>
+        <v>-9059.1747826086958</v>
       </c>
       <c r="U26">
         <f>STDEV(N$4:N26)/SQRT(COUNT(N$4:N26))</f>
-        <v>0.44502139877607011</v>
+        <v>0.41617582820997173</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
@@ -4234,39 +4320,42 @@
         <v>100000</v>
       </c>
       <c r="C27">
-        <v>299.94299999999998</v>
+        <v>699.15499999999997</v>
       </c>
       <c r="D27">
-        <v>-9178.1200000000008</v>
+        <v>-9066.92</v>
       </c>
       <c r="E27">
-        <v>39273.699999999997</v>
+        <v>39528.300000000003</v>
       </c>
       <c r="F27">
-        <v>0.29492200000000002</v>
-      </c>
-      <c r="H27">
+        <v>0.4466</v>
+      </c>
+      <c r="G27">
+        <v>1540</v>
+      </c>
+      <c r="I27">
         <f>AVERAGE(D$4:D27)</f>
-        <v>-9178.6324999999997</v>
-      </c>
-      <c r="I27">
+        <v>-9064.3458333333328</v>
+      </c>
+      <c r="J27">
         <f>STDEV(D$4:D27)/SQRT(COUNT(D$4:D27))</f>
-        <v>0.3832234798485108</v>
+        <v>0.45576099630049166</v>
       </c>
       <c r="L27">
         <v>100000</v>
       </c>
       <c r="M27">
-        <v>299.98</v>
+        <v>700.60599999999999</v>
       </c>
       <c r="N27">
-        <v>-9172.24</v>
+        <v>-9058.51</v>
       </c>
       <c r="O27">
-        <v>39267.1</v>
+        <v>39515</v>
       </c>
       <c r="P27">
-        <v>0.38528800000000002</v>
+        <v>0.62554299999999996</v>
       </c>
       <c r="Q27">
         <v>1539</v>
@@ -4276,11 +4365,11 @@
       </c>
       <c r="T27">
         <f>AVERAGE(N$4:N27)</f>
-        <v>-9173.0133333333342</v>
+        <v>-9059.1470833333333</v>
       </c>
       <c r="U27">
         <f>STDEV(N$4:N27)/SQRT(COUNT(N$4:N27))</f>
-        <v>0.42740015643398915</v>
+        <v>0.39941963293800653</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
@@ -4291,39 +4380,42 @@
         <v>100000</v>
       </c>
       <c r="C28">
-        <v>299.84500000000003</v>
+        <v>699.601</v>
       </c>
       <c r="D28">
-        <v>-9175.76</v>
+        <v>-9062.5499999999993</v>
       </c>
       <c r="E28">
-        <v>39291</v>
+        <v>39517.599999999999</v>
       </c>
       <c r="F28">
-        <v>0.142038</v>
-      </c>
-      <c r="H28">
+        <v>-1.0507300000000001E-2</v>
+      </c>
+      <c r="G28">
+        <v>1540</v>
+      </c>
+      <c r="I28">
         <f>AVERAGE(D$4:D28)</f>
-        <v>-9178.5175999999992</v>
-      </c>
-      <c r="I28">
+        <v>-9064.2739999999994</v>
+      </c>
+      <c r="J28">
         <f>STDEV(D$4:D28)/SQRT(COUNT(D$4:D28))</f>
-        <v>0.3851148227043763</v>
+        <v>0.44301316759966936</v>
       </c>
       <c r="L28">
         <v>100000</v>
       </c>
       <c r="M28">
-        <v>299.97199999999998</v>
+        <v>700.89400000000001</v>
       </c>
       <c r="N28">
-        <v>-9169.8799999999992</v>
+        <v>-9058.0499999999993</v>
       </c>
       <c r="O28">
-        <v>39217.800000000003</v>
+        <v>39497.800000000003</v>
       </c>
       <c r="P28">
-        <v>0.352802</v>
+        <v>0.27226899999999998</v>
       </c>
       <c r="Q28">
         <v>1539</v>
@@ -4333,11 +4425,11 @@
       </c>
       <c r="T28">
         <f>AVERAGE(N$4:N28)</f>
-        <v>-9172.8880000000008</v>
+        <v>-9059.1031999999996</v>
       </c>
       <c r="U28">
         <f>STDEV(N$4:N28)/SQRT(COUNT(N$4:N28))</f>
-        <v>0.42867897856865761</v>
+        <v>0.38561497204682377</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
@@ -4348,39 +4440,42 @@
         <v>100000</v>
       </c>
       <c r="C29">
-        <v>300.18099999999998</v>
+        <v>699.69899999999996</v>
       </c>
       <c r="D29">
-        <v>-9179.58</v>
+        <v>-9065.43</v>
       </c>
       <c r="E29">
-        <v>39309.1</v>
+        <v>39520.300000000003</v>
       </c>
       <c r="F29">
-        <v>0.142349</v>
-      </c>
-      <c r="H29">
+        <v>0.319023</v>
+      </c>
+      <c r="G29">
+        <v>1540</v>
+      </c>
+      <c r="I29">
         <f>AVERAGE(D$4:D29)</f>
-        <v>-9178.5584615384614</v>
-      </c>
-      <c r="I29">
+        <v>-9064.3184615384598</v>
+      </c>
+      <c r="J29">
         <f>STDEV(D$4:D29)/SQRT(COUNT(D$4:D29))</f>
-        <v>0.37225578150495553</v>
+        <v>0.42794920342265469</v>
       </c>
       <c r="L29">
         <v>100000</v>
       </c>
       <c r="M29">
-        <v>299.56799999999998</v>
+        <v>699.56200000000001</v>
       </c>
       <c r="N29">
-        <v>-9172.25</v>
+        <v>-9059.3700000000008</v>
       </c>
       <c r="O29">
-        <v>39268.1</v>
+        <v>39500.699999999997</v>
       </c>
       <c r="P29">
-        <v>0.38692900000000002</v>
+        <v>-0.17585100000000001</v>
       </c>
       <c r="Q29">
         <v>1539</v>
@@ -4390,11 +4485,11 @@
       </c>
       <c r="T29">
         <f>AVERAGE(N$4:N29)</f>
-        <v>-9172.8634615384635</v>
+        <v>-9059.1134615384617</v>
       </c>
       <c r="U29">
         <f>STDEV(N$4:N29)/SQRT(COUNT(N$4:N29))</f>
-        <v>0.41259178645305289</v>
+        <v>0.37062896325351186</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
@@ -4405,53 +4500,56 @@
         <v>100000</v>
       </c>
       <c r="C30">
-        <v>299.90600000000001</v>
+        <v>699.75199999999995</v>
       </c>
       <c r="D30">
-        <v>-9174.07</v>
+        <v>-9062.6200000000008</v>
       </c>
       <c r="E30">
-        <v>39253.800000000003</v>
+        <v>39504.5</v>
       </c>
       <c r="F30">
-        <v>-0.164909</v>
-      </c>
-      <c r="H30">
+        <v>-8.7474800000000005E-2</v>
+      </c>
+      <c r="G30">
+        <v>1540</v>
+      </c>
+      <c r="I30">
         <f>AVERAGE(D$4:D30)</f>
-        <v>-9178.3922222222227</v>
-      </c>
-      <c r="I30">
+        <v>-9064.2555555555537</v>
+      </c>
+      <c r="J30">
         <f>STDEV(D$4:D30)/SQRT(COUNT(D$4:D30))</f>
-        <v>0.39489885947131015</v>
+        <v>0.41657138511713082</v>
       </c>
       <c r="L30">
         <v>100000</v>
       </c>
       <c r="M30">
-        <v>299.971</v>
+        <v>700.39</v>
       </c>
       <c r="N30">
-        <v>-9170.49</v>
+        <v>-9060.75</v>
       </c>
       <c r="O30">
-        <v>39253.300000000003</v>
+        <v>39516.400000000001</v>
       </c>
       <c r="P30">
-        <v>0.24005899999999999</v>
+        <v>0.30439899999999998</v>
       </c>
       <c r="Q30">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="R30">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="T30">
         <f>AVERAGE(N$4:N30)</f>
-        <v>-9172.7755555555559</v>
+        <v>-9059.1740740740734</v>
       </c>
       <c r="U30">
         <f>STDEV(N$4:N30)/SQRT(COUNT(N$4:N30))</f>
-        <v>0.40663210352397988</v>
+        <v>0.36175193341215123</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
@@ -4462,39 +4560,42 @@
         <v>100000</v>
       </c>
       <c r="C31">
-        <v>299.858</v>
+        <v>700.41099999999994</v>
       </c>
       <c r="D31">
-        <v>-9179.65</v>
+        <v>-9065.94</v>
       </c>
       <c r="E31">
-        <v>39280.199999999997</v>
+        <v>39514.1</v>
       </c>
       <c r="F31">
-        <v>0.403084</v>
-      </c>
-      <c r="H31">
+        <v>0.30384899999999998</v>
+      </c>
+      <c r="G31">
+        <v>1540</v>
+      </c>
+      <c r="I31">
         <f>AVERAGE(D$4:D31)</f>
-        <v>-9178.437142857143</v>
-      </c>
-      <c r="I31">
+        <v>-9064.3157142857126</v>
+      </c>
+      <c r="J31">
         <f>STDEV(D$4:D31)/SQRT(COUNT(D$4:D31))</f>
-        <v>0.38317624702106257</v>
+        <v>0.40590105806004112</v>
       </c>
       <c r="L31">
         <v>100000</v>
       </c>
       <c r="M31">
-        <v>299.97300000000001</v>
+        <v>699.73400000000004</v>
       </c>
       <c r="N31">
-        <v>-9175.2900000000009</v>
+        <v>-9056.1299999999992</v>
       </c>
       <c r="O31">
-        <v>39271.800000000003</v>
+        <v>39478.9</v>
       </c>
       <c r="P31">
-        <v>0.30074800000000002</v>
+        <v>0.43903900000000001</v>
       </c>
       <c r="Q31">
         <v>1539</v>
@@ -4504,11 +4605,11 @@
       </c>
       <c r="T31">
         <f>AVERAGE(N$4:N31)</f>
-        <v>-9172.8653571428586</v>
+        <v>-9059.0653571428575</v>
       </c>
       <c r="U31">
         <f>STDEV(N$4:N31)/SQRT(COUNT(N$4:N31))</f>
-        <v>0.40199913203165349</v>
+        <v>0.36515253105692086</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
@@ -4519,53 +4620,56 @@
         <v>100000</v>
       </c>
       <c r="C32">
-        <v>300.10500000000002</v>
+        <v>699.92499999999995</v>
       </c>
       <c r="D32">
-        <v>-9177.92</v>
+        <v>-9063.31</v>
       </c>
       <c r="E32">
-        <v>39308.300000000003</v>
+        <v>39517.800000000003</v>
       </c>
       <c r="F32">
-        <v>0.51445300000000005</v>
-      </c>
-      <c r="H32">
+        <v>0.224132</v>
+      </c>
+      <c r="G32">
+        <v>1540</v>
+      </c>
+      <c r="I32">
         <f>AVERAGE(D$4:D32)</f>
-        <v>-9178.419310344827</v>
-      </c>
-      <c r="I32">
+        <v>-9064.2810344827576</v>
+      </c>
+      <c r="J32">
         <f>STDEV(D$4:D32)/SQRT(COUNT(D$4:D32))</f>
-        <v>0.37015704663159416</v>
+        <v>0.393186848382299</v>
       </c>
       <c r="L32">
         <v>100000</v>
       </c>
       <c r="M32">
-        <v>300.07799999999997</v>
+        <v>700.39</v>
       </c>
       <c r="N32">
-        <v>-9172.19</v>
+        <v>-9058.5</v>
       </c>
       <c r="O32">
-        <v>39270.699999999997</v>
+        <v>39481.199999999997</v>
       </c>
       <c r="P32">
-        <v>0.41783399999999998</v>
+        <v>0.31573000000000001</v>
       </c>
       <c r="Q32">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="R32">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="T32">
         <f>AVERAGE(N$4:N32)</f>
-        <v>-9172.8420689655195</v>
+        <v>-9059.0458620689642</v>
       </c>
       <c r="U32">
         <f>STDEV(N$4:N32)/SQRT(COUNT(N$4:N32))</f>
-        <v>0.38858793861497704</v>
+        <v>0.35287507287216818</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
@@ -4576,53 +4680,56 @@
         <v>100000</v>
       </c>
       <c r="C33">
-        <v>300.07900000000001</v>
+        <v>700.49699999999996</v>
       </c>
       <c r="D33">
-        <v>-9177.9699999999993</v>
+        <v>-9064.0499999999993</v>
       </c>
       <c r="E33">
-        <v>39250.699999999997</v>
+        <v>39510.400000000001</v>
       </c>
       <c r="F33">
-        <v>0.472881</v>
-      </c>
-      <c r="H33">
+        <v>0.51018200000000002</v>
+      </c>
+      <c r="G33">
+        <v>1540</v>
+      </c>
+      <c r="I33">
         <f>AVERAGE(D$4:D33)</f>
-        <v>-9178.404333333332</v>
-      </c>
-      <c r="I33">
+        <v>-9064.2733333333326</v>
+      </c>
+      <c r="J33">
         <f>STDEV(D$4:D33)/SQRT(COUNT(D$4:D33))</f>
-        <v>0.35791917257893408</v>
+        <v>0.37993264174134284</v>
       </c>
       <c r="L33">
         <v>100000</v>
       </c>
       <c r="M33">
-        <v>299.96499999999997</v>
+        <v>699.74099999999999</v>
       </c>
       <c r="N33">
-        <v>-9169.1</v>
+        <v>-9059.66</v>
       </c>
       <c r="O33">
-        <v>39263.9</v>
+        <v>39505.699999999997</v>
       </c>
       <c r="P33">
-        <v>0.34510299999999999</v>
+        <v>0.47591099999999997</v>
       </c>
       <c r="Q33">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="R33">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="T33">
         <f>AVERAGE(N$4:N33)</f>
-        <v>-9172.717333333334</v>
+        <v>-9059.0663333333305</v>
       </c>
       <c r="U33">
         <f>STDEV(N$4:N33)/SQRT(COUNT(N$4:N33))</f>
-        <v>0.39559178231802472</v>
+        <v>0.34152379406963557</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
@@ -4633,39 +4740,42 @@
         <v>100000</v>
       </c>
       <c r="C34">
-        <v>299.83999999999997</v>
+        <v>700.58199999999999</v>
       </c>
       <c r="D34">
-        <v>-9177.02</v>
+        <v>-9062</v>
       </c>
       <c r="E34">
-        <v>39272.300000000003</v>
+        <v>39502.800000000003</v>
       </c>
       <c r="F34">
-        <v>0.37931399999999998</v>
-      </c>
-      <c r="H34">
+        <v>0.44019900000000001</v>
+      </c>
+      <c r="G34">
+        <v>1540</v>
+      </c>
+      <c r="I34">
         <f>AVERAGE(D$4:D34)</f>
-        <v>-9178.3596774193538</v>
-      </c>
-      <c r="I34">
+        <v>-9064.1999999999989</v>
+      </c>
+      <c r="J34">
         <f>STDEV(D$4:D34)/SQRT(COUNT(D$4:D34))</f>
-        <v>0.34904924133343873</v>
+        <v>0.37471824540696935</v>
       </c>
       <c r="L34">
         <v>100000</v>
       </c>
       <c r="M34">
-        <v>300.08499999999998</v>
+        <v>699.68299999999999</v>
       </c>
       <c r="N34">
-        <v>-9169.0400000000009</v>
+        <v>-9058.86</v>
       </c>
       <c r="O34">
-        <v>39256.9</v>
+        <v>39500.9</v>
       </c>
       <c r="P34">
-        <v>0.112873</v>
+        <v>0.257822</v>
       </c>
       <c r="Q34">
         <v>1539</v>
@@ -4675,11 +4785,11 @@
       </c>
       <c r="T34">
         <f>AVERAGE(N$4:N34)</f>
-        <v>-9172.5987096774188</v>
+        <v>-9059.0596774193527</v>
       </c>
       <c r="U34">
         <f>STDEV(N$4:N34)/SQRT(COUNT(N$4:N34))</f>
-        <v>0.4005847183121975</v>
+        <v>0.33039028204062532</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
@@ -4690,39 +4800,42 @@
         <v>100000</v>
       </c>
       <c r="C35">
-        <v>299.726</v>
+        <v>699.63300000000004</v>
       </c>
       <c r="D35">
-        <v>-9180.8799999999992</v>
+        <v>-9062.9599999999991</v>
       </c>
       <c r="E35">
-        <v>39265.199999999997</v>
+        <v>39556.6</v>
       </c>
       <c r="F35">
-        <v>9.9936999999999998E-2</v>
-      </c>
-      <c r="H35">
+        <v>0.60255999999999998</v>
+      </c>
+      <c r="G35">
+        <v>1540</v>
+      </c>
+      <c r="I35">
         <f>AVERAGE(D$4:D35)</f>
-        <v>-9178.4384374999991</v>
-      </c>
-      <c r="I35">
+        <v>-9064.1612499999992</v>
+      </c>
+      <c r="J35">
         <f>STDEV(D$4:D35)/SQRT(COUNT(D$4:D35))</f>
-        <v>0.34702134282196867</v>
+        <v>0.3648828109486999</v>
       </c>
       <c r="L35">
         <v>100000</v>
       </c>
       <c r="M35">
-        <v>300.04399999999998</v>
+        <v>699.13400000000001</v>
       </c>
       <c r="N35">
-        <v>-9172.3799999999992</v>
+        <v>-9054.2199999999993</v>
       </c>
       <c r="O35">
-        <v>39295.599999999999</v>
+        <v>39510.9</v>
       </c>
       <c r="P35">
-        <v>0.140682</v>
+        <v>-0.272032</v>
       </c>
       <c r="Q35">
         <v>1539</v>
@@ -4732,11 +4845,11 @@
       </c>
       <c r="T35">
         <f>AVERAGE(N$4:N35)</f>
-        <v>-9172.5918750000001</v>
+        <v>-9058.9084374999966</v>
       </c>
       <c r="U35">
         <f>STDEV(N$4:N35)/SQRT(COUNT(N$4:N35))</f>
-        <v>0.38792469897727661</v>
+        <v>0.35384868661501162</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
@@ -4747,39 +4860,42 @@
         <v>100000</v>
       </c>
       <c r="C36">
-        <v>299.53899999999999</v>
+        <v>699.89300000000003</v>
       </c>
       <c r="D36">
-        <v>-9179.4500000000007</v>
+        <v>-9066.57</v>
       </c>
       <c r="E36">
-        <v>39283.199999999997</v>
+        <v>39533.9</v>
       </c>
       <c r="F36">
-        <v>0.225193</v>
-      </c>
-      <c r="H36">
+        <v>0.26866400000000001</v>
+      </c>
+      <c r="G36">
+        <v>1540</v>
+      </c>
+      <c r="I36">
         <f>AVERAGE(D$4:D36)</f>
-        <v>-9178.4690909090896</v>
-      </c>
-      <c r="I36">
+        <v>-9064.2342424242415</v>
+      </c>
+      <c r="J36">
         <f>STDEV(D$4:D36)/SQRT(COUNT(D$4:D36))</f>
-        <v>0.33773514918010716</v>
+        <v>0.36110704949332151</v>
       </c>
       <c r="L36">
         <v>100000</v>
       </c>
       <c r="M36">
-        <v>299.83199999999999</v>
+        <v>699.34199999999998</v>
       </c>
       <c r="N36">
-        <v>-9175.8799999999992</v>
+        <v>-9060.07</v>
       </c>
       <c r="O36">
-        <v>39245.4</v>
+        <v>39498.9</v>
       </c>
       <c r="P36">
-        <v>0.33009300000000003</v>
+        <v>-0.126938</v>
       </c>
       <c r="Q36">
         <v>1539</v>
@@ -4789,11 +4905,11 @@
       </c>
       <c r="T36">
         <f>AVERAGE(N$4:N36)</f>
-        <v>-9172.691515151515</v>
+        <v>-9058.9436363636341</v>
       </c>
       <c r="U36">
         <f>STDEV(N$4:N36)/SQRT(COUNT(N$4:N36))</f>
-        <v>0.38896451530821546</v>
+        <v>0.34475996760314531</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
@@ -4804,53 +4920,56 @@
         <v>100000</v>
       </c>
       <c r="C37">
-        <v>300.03100000000001</v>
+        <v>700.12099999999998</v>
       </c>
       <c r="D37">
-        <v>-9179.18</v>
+        <v>-9065.9699999999993</v>
       </c>
       <c r="E37">
-        <v>39317.199999999997</v>
+        <v>39540</v>
       </c>
       <c r="F37">
-        <v>0.21379000000000001</v>
-      </c>
-      <c r="H37">
+        <v>7.5197100000000003E-2</v>
+      </c>
+      <c r="G37">
+        <v>1540</v>
+      </c>
+      <c r="I37">
         <f>AVERAGE(D$4:D37)</f>
-        <v>-9178.49</v>
-      </c>
-      <c r="I37">
+        <v>-9064.2852941176461</v>
+      </c>
+      <c r="J37">
         <f>STDEV(D$4:D37)/SQRT(COUNT(D$4:D37))</f>
-        <v>0.32831770188181997</v>
+        <v>0.35402554750714726</v>
       </c>
       <c r="L37">
         <v>100000</v>
       </c>
       <c r="M37">
-        <v>300.27999999999997</v>
+        <v>699.54100000000005</v>
       </c>
       <c r="N37">
-        <v>-9176.7800000000007</v>
+        <v>-9056.69</v>
       </c>
       <c r="O37">
-        <v>39283.199999999997</v>
+        <v>39516.5</v>
       </c>
       <c r="P37">
-        <v>0.420348</v>
+        <v>-0.47559000000000001</v>
       </c>
       <c r="Q37">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="R37">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="T37">
         <f>AVERAGE(N$4:N37)</f>
-        <v>-9172.8117647058825</v>
+        <v>-9058.8773529411737</v>
       </c>
       <c r="U37">
         <f>STDEV(N$4:N37)/SQRT(COUNT(N$4:N37))</f>
-        <v>0.39604764621541005</v>
+        <v>0.34097096044785535</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
@@ -4861,39 +4980,42 @@
         <v>100000</v>
       </c>
       <c r="C38">
-        <v>299.78800000000001</v>
+        <v>700.08</v>
       </c>
       <c r="D38">
-        <v>-9178.67</v>
+        <v>-9067.67</v>
       </c>
       <c r="E38">
-        <v>39265.4</v>
+        <v>39527.4</v>
       </c>
       <c r="F38">
-        <v>5.5949899999999997E-2</v>
-      </c>
-      <c r="H38">
+        <v>0.110503</v>
+      </c>
+      <c r="G38">
+        <v>1540</v>
+      </c>
+      <c r="I38">
         <f>AVERAGE(D$4:D38)</f>
-        <v>-9178.4951428571421</v>
-      </c>
-      <c r="I38">
+        <v>-9064.3819999999978</v>
+      </c>
+      <c r="J38">
         <f>STDEV(D$4:D38)/SQRT(COUNT(D$4:D38))</f>
-        <v>0.31884069714520374</v>
+        <v>0.35710526188680147</v>
       </c>
       <c r="L38">
         <v>100000</v>
       </c>
       <c r="M38">
-        <v>300.23099999999999</v>
+        <v>699.36400000000003</v>
       </c>
       <c r="N38">
-        <v>-9174.42</v>
+        <v>-9061.57</v>
       </c>
       <c r="O38">
-        <v>39255</v>
+        <v>39505.199999999997</v>
       </c>
       <c r="P38">
-        <v>0.15053900000000001</v>
+        <v>0.213612</v>
       </c>
       <c r="Q38">
         <v>1539</v>
@@ -4903,11 +5025,11 @@
       </c>
       <c r="T38">
         <f>AVERAGE(N$4:N38)</f>
-        <v>-9172.8577142857157</v>
+        <v>-9058.9542857142824</v>
       </c>
       <c r="U38">
         <f>STDEV(N$4:N38)/SQRT(COUNT(N$4:N38))</f>
-        <v>0.3873009568959036</v>
+        <v>0.33990638496536824</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
@@ -4918,53 +5040,56 @@
         <v>100000</v>
       </c>
       <c r="C39">
-        <v>300.029</v>
+        <v>699.85699999999997</v>
       </c>
       <c r="D39">
-        <v>-9177.5400000000009</v>
+        <v>-9063.7900000000009</v>
       </c>
       <c r="E39">
-        <v>39284.400000000001</v>
+        <v>39501.800000000003</v>
       </c>
       <c r="F39">
-        <v>0.17874100000000001</v>
-      </c>
-      <c r="H39">
+        <v>0.556755</v>
+      </c>
+      <c r="G39">
+        <v>1540</v>
+      </c>
+      <c r="I39">
         <f>AVERAGE(D$4:D39)</f>
-        <v>-9178.4686111111096</v>
-      </c>
-      <c r="I39">
+        <v>-9064.3655555555524</v>
+      </c>
+      <c r="J39">
         <f>STDEV(D$4:D39)/SQRT(COUNT(D$4:D39))</f>
-        <v>0.31099128573960638</v>
+        <v>0.34743331995735666</v>
       </c>
       <c r="L39">
         <v>100000</v>
       </c>
       <c r="M39">
-        <v>299.93</v>
+        <v>700.40099999999995</v>
       </c>
       <c r="N39">
-        <v>-9170.5400000000009</v>
+        <v>-9055.19</v>
       </c>
       <c r="O39">
-        <v>39246.6</v>
+        <v>39466.800000000003</v>
       </c>
       <c r="P39">
-        <v>0.52376400000000001</v>
+        <v>0.417991</v>
       </c>
       <c r="Q39">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="R39">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="T39">
         <f>AVERAGE(N$4:N39)</f>
-        <v>-9172.7933333333331</v>
+        <v>-9058.8497222222195</v>
       </c>
       <c r="U39">
         <f>STDEV(N$4:N39)/SQRT(COUNT(N$4:N39))</f>
-        <v>0.38185532870903716</v>
+        <v>0.34648403754229529</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
@@ -4975,53 +5100,56 @@
         <v>100000</v>
       </c>
       <c r="C40">
-        <v>300.14800000000002</v>
+        <v>699.91899999999998</v>
       </c>
       <c r="D40">
-        <v>-9179.77</v>
+        <v>-9063.6</v>
       </c>
       <c r="E40">
-        <v>39291.9</v>
+        <v>39531.699999999997</v>
       </c>
       <c r="F40">
-        <v>0.17055699999999999</v>
-      </c>
-      <c r="H40">
+        <v>0.225498</v>
+      </c>
+      <c r="G40">
+        <v>1540</v>
+      </c>
+      <c r="I40">
         <f>AVERAGE(D$4:D40)</f>
-        <v>-9178.5037837837826</v>
-      </c>
-      <c r="I40">
+        <v>-9064.3448648648628</v>
+      </c>
+      <c r="J40">
         <f>STDEV(D$4:D40)/SQRT(COUNT(D$4:D40))</f>
-        <v>0.30450751637720225</v>
+        <v>0.33854564891555494</v>
       </c>
       <c r="L40">
         <v>100000</v>
       </c>
       <c r="M40">
-        <v>300.17399999999998</v>
+        <v>699.39599999999996</v>
       </c>
       <c r="N40">
-        <v>-9171.11</v>
+        <v>-9058.07</v>
       </c>
       <c r="O40">
-        <v>39256.1</v>
+        <v>39499.5</v>
       </c>
       <c r="P40">
-        <v>0.23299600000000001</v>
+        <v>5.71954E-2</v>
       </c>
       <c r="Q40">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="R40">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="T40">
         <f>AVERAGE(N$4:N40)</f>
-        <v>-9172.7478378378382</v>
+        <v>-9058.8286486486468</v>
       </c>
       <c r="U40">
         <f>STDEV(N$4:N40)/SQRT(COUNT(N$4:N40))</f>
-        <v>0.37416777225204229</v>
+        <v>0.33764779038916409</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
@@ -5032,53 +5160,56 @@
         <v>100000</v>
       </c>
       <c r="C41">
-        <v>299.95299999999997</v>
+        <v>700.56500000000005</v>
       </c>
       <c r="D41">
-        <v>-9176.36</v>
+        <v>-9066.94</v>
       </c>
       <c r="E41">
-        <v>39259.199999999997</v>
+        <v>39520.5</v>
       </c>
       <c r="F41">
-        <v>0.36785699999999999</v>
-      </c>
-      <c r="H41">
+        <v>0.11110399999999999</v>
+      </c>
+      <c r="G41">
+        <v>1540</v>
+      </c>
+      <c r="I41">
         <f>AVERAGE(D$4:D41)</f>
-        <v>-9178.4473684210516</v>
-      </c>
-      <c r="I41">
+        <v>-9064.4131578947345</v>
+      </c>
+      <c r="J41">
         <f>STDEV(D$4:D41)/SQRT(COUNT(D$4:D41))</f>
-        <v>0.3017072531474182</v>
+        <v>0.33651868141203645</v>
       </c>
       <c r="L41">
         <v>100000</v>
       </c>
       <c r="M41">
-        <v>299.77600000000001</v>
+        <v>699.92499999999995</v>
       </c>
       <c r="N41">
-        <v>-9173.9699999999993</v>
+        <v>-9055.3799999999992</v>
       </c>
       <c r="O41">
-        <v>39275</v>
+        <v>39523.1</v>
       </c>
       <c r="P41">
-        <v>0.359491</v>
+        <v>-0.27088000000000001</v>
       </c>
       <c r="Q41">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="R41">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="T41">
         <f>AVERAGE(N$4:N41)</f>
-        <v>-9172.7799999999988</v>
+        <v>-9058.7378947368397</v>
       </c>
       <c r="U41">
         <f>STDEV(N$4:N41)/SQRT(COUNT(N$4:N41))</f>
-        <v>0.3656055597499166</v>
+        <v>0.34094278915353249</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
@@ -5089,39 +5220,42 @@
         <v>100000</v>
       </c>
       <c r="C42">
-        <v>299.923</v>
+        <v>699.60400000000004</v>
       </c>
       <c r="D42">
-        <v>-9179.06</v>
+        <v>-9062.6299999999992</v>
       </c>
       <c r="E42">
-        <v>39260.5</v>
+        <v>39495</v>
       </c>
       <c r="F42">
-        <v>0.281198</v>
-      </c>
-      <c r="H42">
+        <v>-0.13731399999999999</v>
+      </c>
+      <c r="G42">
+        <v>1540</v>
+      </c>
+      <c r="I42">
         <f>AVERAGE(D$4:D42)</f>
-        <v>-9178.4630769230753</v>
-      </c>
-      <c r="I42">
+        <v>-9064.3674358974331</v>
+      </c>
+      <c r="J42">
         <f>STDEV(D$4:D42)/SQRT(COUNT(D$4:D42))</f>
-        <v>0.29428890343278424</v>
+        <v>0.33094999193093377</v>
       </c>
       <c r="L42">
         <v>100000</v>
       </c>
       <c r="M42">
-        <v>300.17</v>
+        <v>700.053</v>
       </c>
       <c r="N42">
-        <v>-9177.24</v>
+        <v>-9059.2099999999991</v>
       </c>
       <c r="O42">
-        <v>39271.300000000003</v>
+        <v>39495.800000000003</v>
       </c>
       <c r="P42">
-        <v>0.191994</v>
+        <v>0.31634400000000001</v>
       </c>
       <c r="Q42">
         <v>1539</v>
@@ -5131,11 +5265,11 @@
       </c>
       <c r="T42">
         <f>AVERAGE(N$4:N42)</f>
-        <v>-9172.8943589743576</v>
+        <v>-9058.7499999999982</v>
       </c>
       <c r="U42">
         <f>STDEV(N$4:N42)/SQRT(COUNT(N$4:N42))</f>
-        <v>0.37401959918763894</v>
+        <v>0.33230617720953437</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
@@ -5146,39 +5280,42 @@
         <v>100000</v>
       </c>
       <c r="C43">
-        <v>300.19299999999998</v>
+        <v>700.54</v>
       </c>
       <c r="D43">
-        <v>-9180.09</v>
+        <v>-9062.92</v>
       </c>
       <c r="E43">
-        <v>39285.699999999997</v>
+        <v>39514.800000000003</v>
       </c>
       <c r="F43">
-        <v>0.25691700000000001</v>
-      </c>
-      <c r="H43">
+        <v>0.20569299999999999</v>
+      </c>
+      <c r="G43">
+        <v>1540</v>
+      </c>
+      <c r="I43">
         <f>AVERAGE(D$4:D43)</f>
-        <v>-9178.5037499999999</v>
-      </c>
-      <c r="I43">
+        <v>-9064.3312499999975</v>
+      </c>
+      <c r="J43">
         <f>STDEV(D$4:D43)/SQRT(COUNT(D$4:D43))</f>
-        <v>0.28970667913577336</v>
+        <v>0.3245934710901805</v>
       </c>
       <c r="L43">
         <v>100000</v>
       </c>
       <c r="M43">
-        <v>300.20100000000002</v>
+        <v>700.28</v>
       </c>
       <c r="N43">
-        <v>-9172.64</v>
+        <v>-9054.51</v>
       </c>
       <c r="O43">
-        <v>39276.400000000001</v>
+        <v>39507.1</v>
       </c>
       <c r="P43">
-        <v>0.29439799999999999</v>
+        <v>0.49568699999999999</v>
       </c>
       <c r="Q43">
         <v>1539</v>
@@ -5188,11 +5325,11 @@
       </c>
       <c r="T43">
         <f>AVERAGE(N$4:N43)</f>
-        <v>-9172.887999999999</v>
+        <v>-9058.6439999999984</v>
       </c>
       <c r="U43">
         <f>STDEV(N$4:N43)/SQRT(COUNT(N$4:N43))</f>
-        <v>0.36460466824021365</v>
+        <v>0.34079616435786453</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
@@ -5203,39 +5340,42 @@
         <v>100000</v>
       </c>
       <c r="C44">
-        <v>300.09500000000003</v>
+        <v>699.58</v>
       </c>
       <c r="D44">
-        <v>-9176.56</v>
+        <v>-9066.36</v>
       </c>
       <c r="E44">
-        <v>39296.6</v>
+        <v>39514.800000000003</v>
       </c>
       <c r="F44">
-        <v>0.31970100000000001</v>
-      </c>
-      <c r="H44">
+        <v>-0.22892399999999999</v>
+      </c>
+      <c r="G44">
+        <v>1540</v>
+      </c>
+      <c r="I44">
         <f>AVERAGE(D$4:D44)</f>
-        <v>-9178.456341463414</v>
-      </c>
-      <c r="I44">
+        <v>-9064.3807317073133</v>
+      </c>
+      <c r="J44">
         <f>STDEV(D$4:D44)/SQRT(COUNT(D$4:D44))</f>
-        <v>0.28650198060385051</v>
+        <v>0.32042129094099647</v>
       </c>
       <c r="L44">
         <v>100000</v>
       </c>
       <c r="M44">
-        <v>300.16800000000001</v>
+        <v>700.05700000000002</v>
       </c>
       <c r="N44">
-        <v>-9171.92</v>
+        <v>-9055.4</v>
       </c>
       <c r="O44">
-        <v>39255.9</v>
+        <v>39495.199999999997</v>
       </c>
       <c r="P44">
-        <v>0.131161</v>
+        <v>0.50873299999999999</v>
       </c>
       <c r="Q44">
         <v>1539</v>
@@ -5245,11 +5385,11 @@
       </c>
       <c r="T44">
         <f>AVERAGE(N$4:N44)</f>
-        <v>-9172.8643902439017</v>
+        <v>-9058.5648780487791</v>
       </c>
       <c r="U44">
         <f>STDEV(N$4:N44)/SQRT(COUNT(N$4:N44))</f>
-        <v>0.35638360546118758</v>
+        <v>0.34166773939077227</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
@@ -5260,53 +5400,56 @@
         <v>100000</v>
       </c>
       <c r="C45">
-        <v>300.23099999999999</v>
+        <v>699.55</v>
       </c>
       <c r="D45">
-        <v>-9176.9699999999993</v>
+        <v>-9065.4</v>
       </c>
       <c r="E45">
-        <v>39273.9</v>
+        <v>39520.6</v>
       </c>
       <c r="F45">
-        <v>0.32156099999999999</v>
-      </c>
-      <c r="H45">
+        <v>0.22894100000000001</v>
+      </c>
+      <c r="G45">
+        <v>1540</v>
+      </c>
+      <c r="I45">
         <f>AVERAGE(D$4:D45)</f>
-        <v>-9178.4209523809513</v>
-      </c>
-      <c r="I45">
+        <v>-9064.404999999997</v>
+      </c>
+      <c r="J45">
         <f>STDEV(D$4:D45)/SQRT(COUNT(D$4:D45))</f>
-        <v>0.28182803166761844</v>
+        <v>0.3136394672983096</v>
       </c>
       <c r="L45">
         <v>100000</v>
       </c>
       <c r="M45">
-        <v>299.95</v>
+        <v>700.30200000000002</v>
       </c>
       <c r="N45">
-        <v>-9171.8799999999992</v>
+        <v>-9055.66</v>
       </c>
       <c r="O45">
-        <v>39247.4</v>
+        <v>39531.4</v>
       </c>
       <c r="P45">
-        <v>7.60628E-2</v>
+        <v>0.445104</v>
       </c>
       <c r="Q45">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="R45">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="T45">
         <f>AVERAGE(N$4:N45)</f>
-        <v>-9172.8409523809514</v>
+        <v>-9058.4957142857129</v>
       </c>
       <c r="U45">
         <f>STDEV(N$4:N45)/SQRT(COUNT(N$4:N45))</f>
-        <v>0.34858362982649466</v>
+        <v>0.34053130975265655</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
@@ -5317,39 +5460,42 @@
         <v>100000</v>
       </c>
       <c r="C46">
-        <v>300.31700000000001</v>
+        <v>700.05499999999995</v>
       </c>
       <c r="D46">
-        <v>-9178.49</v>
+        <v>-9064.2099999999991</v>
       </c>
       <c r="E46">
-        <v>39255.4</v>
+        <v>39528.300000000003</v>
       </c>
       <c r="F46">
-        <v>0.27415200000000001</v>
-      </c>
-      <c r="H46">
+        <v>0.30750699999999997</v>
+      </c>
+      <c r="G46">
+        <v>1540</v>
+      </c>
+      <c r="I46">
         <f>AVERAGE(D$4:D46)</f>
-        <v>-9178.4225581395331</v>
-      </c>
-      <c r="I46">
+        <v>-9064.4004651162777</v>
+      </c>
+      <c r="J46">
         <f>STDEV(D$4:D46)/SQRT(COUNT(D$4:D46))</f>
-        <v>0.27520053958954921</v>
+        <v>0.30629225425292123</v>
       </c>
       <c r="L46">
         <v>100000</v>
       </c>
       <c r="M46">
-        <v>300.31</v>
+        <v>699.59</v>
       </c>
       <c r="N46">
-        <v>-9173.58</v>
+        <v>-9057.99</v>
       </c>
       <c r="O46">
-        <v>39272.699999999997</v>
+        <v>39518.1</v>
       </c>
       <c r="P46">
-        <v>0.17816599999999999</v>
+        <v>0.53471800000000003</v>
       </c>
       <c r="Q46">
         <v>1540</v>
@@ -5359,11 +5505,11 @@
       </c>
       <c r="T46">
         <f>AVERAGE(N$4:N46)</f>
-        <v>-9172.8581395348829</v>
+        <v>-9058.4839534883704</v>
       </c>
       <c r="U46">
         <f>STDEV(N$4:N46)/SQRT(COUNT(N$4:N46))</f>
-        <v>0.34081416035022216</v>
+        <v>0.33272560428186876</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
@@ -5374,53 +5520,56 @@
         <v>100000</v>
       </c>
       <c r="C47">
-        <v>300.08100000000002</v>
+        <v>699.86599999999999</v>
       </c>
       <c r="D47">
-        <v>-9176.44</v>
+        <v>-9063.4599999999991</v>
       </c>
       <c r="E47">
-        <v>39265.5</v>
+        <v>39547.199999999997</v>
       </c>
       <c r="F47">
-        <v>0.58461700000000005</v>
-      </c>
-      <c r="H47">
+        <v>-0.103474</v>
+      </c>
+      <c r="G47">
+        <v>1540</v>
+      </c>
+      <c r="I47">
         <f>AVERAGE(D$4:D47)</f>
-        <v>-9178.3774999999987</v>
-      </c>
-      <c r="I47">
+        <v>-9064.3790909090894</v>
+      </c>
+      <c r="J47">
         <f>STDEV(D$4:D47)/SQRT(COUNT(D$4:D47))</f>
-        <v>0.27262255521320761</v>
+        <v>0.30001247651680085</v>
       </c>
       <c r="L47">
         <v>100000</v>
       </c>
       <c r="M47">
-        <v>300.27800000000002</v>
+        <v>699.88400000000001</v>
       </c>
       <c r="N47">
-        <v>-9173.75</v>
+        <v>-9058.5</v>
       </c>
       <c r="O47">
-        <v>39305.599999999999</v>
+        <v>39505.5</v>
       </c>
       <c r="P47">
-        <v>0.230597</v>
+        <v>0.319739</v>
       </c>
       <c r="Q47">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="R47">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="T47">
         <f>AVERAGE(N$4:N47)</f>
-        <v>-9172.8784090909085</v>
+        <v>-9058.484318181816</v>
       </c>
       <c r="U47">
         <f>STDEV(N$4:N47)/SQRT(COUNT(N$4:N47))</f>
-        <v>0.33359467360256279</v>
+        <v>0.32507592180822231</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
@@ -5431,53 +5580,56 @@
         <v>100000</v>
       </c>
       <c r="C48">
-        <v>299.7</v>
+        <v>700.22799999999995</v>
       </c>
       <c r="D48">
-        <v>-9178.11</v>
+        <v>-9064.2199999999993</v>
       </c>
       <c r="E48">
-        <v>39256.9</v>
+        <v>39522.6</v>
       </c>
       <c r="F48">
-        <v>0.21182400000000001</v>
-      </c>
-      <c r="H48">
+        <v>7.6840800000000001E-2</v>
+      </c>
+      <c r="G48">
+        <v>1540</v>
+      </c>
+      <c r="I48">
         <f>AVERAGE(D$4:D48)</f>
-        <v>-9178.3715555555536</v>
-      </c>
-      <c r="I48">
+        <v>-9064.3755555555526</v>
+      </c>
+      <c r="J48">
         <f>STDEV(D$4:D48)/SQRT(COUNT(D$4:D48))</f>
-        <v>0.26656171335321016</v>
+        <v>0.29329107057039921</v>
       </c>
       <c r="L48">
         <v>100000</v>
       </c>
       <c r="M48">
-        <v>299.93799999999999</v>
+        <v>700.22900000000004</v>
       </c>
       <c r="N48">
-        <v>-9171.92</v>
+        <v>-9059.06</v>
       </c>
       <c r="O48">
-        <v>39293.4</v>
+        <v>39524.800000000003</v>
       </c>
       <c r="P48">
-        <v>0.20761599999999999</v>
+        <v>-9.6716499999999997E-2</v>
       </c>
       <c r="Q48">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="R48">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="T48">
         <f>AVERAGE(N$4:N48)</f>
-        <v>-9172.8571111111105</v>
+        <v>-9058.4971111111099</v>
       </c>
       <c r="U48">
         <f>STDEV(N$4:N48)/SQRT(COUNT(N$4:N48))</f>
-        <v>0.32679197074538607</v>
+        <v>0.31802731955297414</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
@@ -5488,39 +5640,42 @@
         <v>100000</v>
       </c>
       <c r="C49">
-        <v>300.03699999999998</v>
+        <v>700.23299999999995</v>
       </c>
       <c r="D49">
-        <v>-9181.64</v>
+        <v>-9062.68</v>
       </c>
       <c r="E49">
-        <v>39324.1</v>
+        <v>39525.800000000003</v>
       </c>
       <c r="F49">
-        <v>0.43310999999999999</v>
-      </c>
-      <c r="H49">
+        <v>-0.10327</v>
+      </c>
+      <c r="G49">
+        <v>1540</v>
+      </c>
+      <c r="I49">
         <f>AVERAGE(D$4:D49)</f>
-        <v>-9178.4426086956501</v>
-      </c>
-      <c r="I49">
+        <v>-9064.3386956521717</v>
+      </c>
+      <c r="J49">
         <f>STDEV(D$4:D49)/SQRT(COUNT(D$4:D49))</f>
-        <v>0.27021166060122931</v>
+        <v>0.28920290399778203</v>
       </c>
       <c r="L49">
         <v>100000</v>
       </c>
       <c r="M49">
-        <v>300.12099999999998</v>
+        <v>699.95600000000002</v>
       </c>
       <c r="N49">
-        <v>-9176.0300000000007</v>
+        <v>-9059.08</v>
       </c>
       <c r="O49">
-        <v>39267.300000000003</v>
+        <v>39506.400000000001</v>
       </c>
       <c r="P49">
-        <v>0.35360900000000001</v>
+        <v>-0.141655</v>
       </c>
       <c r="Q49">
         <v>1539</v>
@@ -5530,11 +5685,11 @@
       </c>
       <c r="T49">
         <f>AVERAGE(N$4:N49)</f>
-        <v>-9172.9260869565205</v>
+        <v>-9058.5097826086949</v>
       </c>
       <c r="U49">
         <f>STDEV(N$4:N49)/SQRT(COUNT(N$4:N49))</f>
-        <v>0.32696710204897195</v>
+        <v>0.31129486295702058</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
@@ -5545,53 +5700,56 @@
         <v>100000</v>
       </c>
       <c r="C50">
-        <v>300.209</v>
+        <v>700.13</v>
       </c>
       <c r="D50">
-        <v>-9177.9599999999991</v>
+        <v>-9065.2199999999993</v>
       </c>
       <c r="E50">
-        <v>39306.400000000001</v>
+        <v>39531.9</v>
       </c>
       <c r="F50">
-        <v>0.43578899999999998</v>
-      </c>
-      <c r="H50">
+        <v>0.480184</v>
+      </c>
+      <c r="G50">
+        <v>1540</v>
+      </c>
+      <c r="I50">
         <f>AVERAGE(D$4:D50)</f>
-        <v>-9178.4323404255301</v>
-      </c>
-      <c r="I50">
+        <v>-9064.357446808508</v>
+      </c>
+      <c r="J50">
         <f>STDEV(D$4:D50)/SQRT(COUNT(D$4:D50))</f>
-        <v>0.26459929259119203</v>
+        <v>0.2836033288089031</v>
       </c>
       <c r="L50">
         <v>100000</v>
       </c>
       <c r="M50">
-        <v>299.94</v>
+        <v>699.78599999999994</v>
       </c>
       <c r="N50">
-        <v>-9173.0400000000009</v>
+        <v>-9055.76</v>
       </c>
       <c r="O50">
-        <v>39277</v>
+        <v>39516.6</v>
       </c>
       <c r="P50">
-        <v>0.18087400000000001</v>
+        <v>0.23725099999999999</v>
       </c>
       <c r="Q50">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="R50">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="T50">
         <f>AVERAGE(N$4:N50)</f>
-        <v>-9172.9285106382977</v>
+        <v>-9058.4512765957443</v>
       </c>
       <c r="U50">
         <f>STDEV(N$4:N50)/SQRT(COUNT(N$4:N50))</f>
-        <v>0.31994390967763747</v>
+        <v>0.31016745455191391</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
@@ -5602,39 +5760,42 @@
         <v>100000</v>
       </c>
       <c r="C51">
-        <v>300.04199999999997</v>
+        <v>699.82500000000005</v>
       </c>
       <c r="D51">
-        <v>-9178.32</v>
+        <v>-9064.4699999999993</v>
       </c>
       <c r="E51">
-        <v>39285.9</v>
+        <v>39512</v>
       </c>
       <c r="F51">
-        <v>0.39895700000000001</v>
-      </c>
-      <c r="H51">
+        <v>0.37691599999999997</v>
+      </c>
+      <c r="G51">
+        <v>1540</v>
+      </c>
+      <c r="I51">
         <f>AVERAGE(D$4:D51)</f>
-        <v>-9178.4299999999985</v>
-      </c>
-      <c r="I51">
+        <v>-9064.359791666664</v>
+      </c>
+      <c r="J51">
         <f>STDEV(D$4:D51)/SQRT(COUNT(D$4:D51))</f>
-        <v>0.25903873036627767</v>
+        <v>0.27764196572795669</v>
       </c>
       <c r="L51">
         <v>100000</v>
       </c>
       <c r="M51">
-        <v>300</v>
+        <v>700.02200000000005</v>
       </c>
       <c r="N51">
-        <v>-9176.43</v>
+        <v>-9057.68</v>
       </c>
       <c r="O51">
-        <v>39282.199999999997</v>
+        <v>39498.5</v>
       </c>
       <c r="P51">
-        <v>0.15176300000000001</v>
+        <v>-0.158743</v>
       </c>
       <c r="Q51">
         <v>1539</v>
@@ -5644,11 +5805,11 @@
       </c>
       <c r="T51">
         <f>AVERAGE(N$4:N51)</f>
-        <v>-9173.0014583333323</v>
+        <v>-9058.4352083333324</v>
       </c>
       <c r="U51">
         <f>STDEV(N$4:N51)/SQRT(COUNT(N$4:N51))</f>
-        <v>0.32159026803523455</v>
+        <v>0.30406174566333172</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
@@ -5659,39 +5820,42 @@
         <v>100000</v>
       </c>
       <c r="C52">
-        <v>299.91300000000001</v>
+        <v>699.726</v>
       </c>
       <c r="D52">
-        <v>-9178.09</v>
+        <v>-9067.08</v>
       </c>
       <c r="E52">
-        <v>39316.1</v>
+        <v>39527.9</v>
       </c>
       <c r="F52">
-        <v>0.184998</v>
-      </c>
-      <c r="H52">
+        <v>0.13350899999999999</v>
+      </c>
+      <c r="G52">
+        <v>1540</v>
+      </c>
+      <c r="I52">
         <f>AVERAGE(D$4:D52)</f>
-        <v>-9178.4230612244901</v>
-      </c>
-      <c r="I52">
+        <v>-9064.4153061224461</v>
+      </c>
+      <c r="J52">
         <f>STDEV(D$4:D52)/SQRT(COUNT(D$4:D52))</f>
-        <v>0.25379202411330137</v>
+        <v>0.27752583106486156</v>
       </c>
       <c r="L52">
         <v>100000</v>
       </c>
       <c r="M52">
-        <v>300.36500000000001</v>
+        <v>700.476</v>
       </c>
       <c r="N52">
-        <v>-9174.17</v>
+        <v>-9058.66</v>
       </c>
       <c r="O52">
-        <v>39266.6</v>
+        <v>39501.300000000003</v>
       </c>
       <c r="P52">
-        <v>0.29953600000000002</v>
+        <v>2.0562299999999999E-2</v>
       </c>
       <c r="Q52">
         <v>1539</v>
@@ -5701,11 +5865,11 @@
       </c>
       <c r="T52">
         <f>AVERAGE(N$4:N52)</f>
-        <v>-9173.0253061224485</v>
+        <v>-9058.4397959183661</v>
       </c>
       <c r="U52">
         <f>STDEV(N$4:N52)/SQRT(COUNT(N$4:N52))</f>
-        <v>0.31586038179198955</v>
+        <v>0.29782709249406347</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
@@ -5716,39 +5880,42 @@
         <v>100000</v>
       </c>
       <c r="C53">
-        <v>299.99</v>
+        <v>700.42499999999995</v>
       </c>
       <c r="D53">
-        <v>-9177.01</v>
+        <v>-9064.9699999999993</v>
       </c>
       <c r="E53">
-        <v>39252.5</v>
+        <v>39539.800000000003</v>
       </c>
       <c r="F53">
-        <v>0.24284700000000001</v>
-      </c>
-      <c r="H53">
+        <v>0.32053900000000002</v>
+      </c>
+      <c r="G53">
+        <v>1540</v>
+      </c>
+      <c r="I53">
         <f>AVERAGE(D$4:D53)</f>
-        <v>-9178.3948</v>
-      </c>
-      <c r="I53">
+        <v>-9064.4263999999966</v>
+      </c>
+      <c r="J53">
         <f>STDEV(D$4:D53)/SQRT(COUNT(D$4:D53))</f>
-        <v>0.25026520463909452</v>
+        <v>0.27214488338204912</v>
       </c>
       <c r="L53">
         <v>100000</v>
       </c>
       <c r="M53">
-        <v>300.17200000000003</v>
+        <v>699.74199999999996</v>
       </c>
       <c r="N53">
-        <v>-9171.6200000000008</v>
+        <v>-9057.3700000000008</v>
       </c>
       <c r="O53">
-        <v>39222.6</v>
+        <v>39500.1</v>
       </c>
       <c r="P53">
-        <v>-4.0560700000000002E-3</v>
+        <v>0.35807899999999998</v>
       </c>
       <c r="Q53">
         <v>1539</v>
@@ -5758,11 +5925,11 @@
       </c>
       <c r="T53">
         <f>AVERAGE(N$4:N53)</f>
-        <v>-9172.997199999998</v>
+        <v>-9058.4183999999987</v>
       </c>
       <c r="U53">
         <f>STDEV(N$4:N53)/SQRT(COUNT(N$4:N53))</f>
-        <v>0.31075235103449561</v>
+        <v>0.29259310187581361</v>
       </c>
     </row>
   </sheetData>
@@ -5775,8 +5942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05677C58-0B8B-2F40-A2A4-5CEA5656F2D5}">
   <dimension ref="B1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5827,237 +5994,536 @@
       <c r="C3">
         <v>400</v>
       </c>
+      <c r="D3">
+        <v>-8245.5349999999999</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="0">D3/2000</f>
+        <v>-4.1227675000000001</v>
+      </c>
       <c r="H3">
         <v>400</v>
+      </c>
+      <c r="I3">
+        <v>-13751.29</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J6" si="1">I3/2000</f>
+        <v>-6.8756450000000005</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C4">
         <v>500</v>
       </c>
+      <c r="D4">
+        <v>-8213.2749999999996</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>-4.1066374999999997</v>
+      </c>
       <c r="H4">
         <v>500</v>
+      </c>
+      <c r="I4">
+        <v>-13722.83</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>-6.861415</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C5">
         <v>600</v>
       </c>
+      <c r="D5">
+        <v>-8183.7349999999997</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>-4.0918675000000002</v>
+      </c>
       <c r="H5">
         <v>600</v>
+      </c>
+      <c r="I5">
+        <v>-13693.54</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>-6.8467700000000002</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C6">
         <v>700</v>
       </c>
+      <c r="D6">
+        <v>-8155.3630000000003</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>-4.0776814999999997</v>
+      </c>
       <c r="H6">
         <v>700</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C7">
-        <v>800</v>
-      </c>
-      <c r="H7">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+      <c r="I6">
+        <v>-13663.73</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>-6.8318649999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>0</v>
       </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>-9178.5267999999996</v>
+      </c>
+      <c r="E12">
+        <v>1540</v>
+      </c>
+      <c r="F12">
+        <v>460</v>
+      </c>
+      <c r="G12">
+        <f>D12-(E12*$E$2)-(F12*$J$2)</f>
+        <v>376.11300999999958</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>-9181.9894000000004</v>
+      </c>
+      <c r="E13">
+        <v>1540.56</v>
+      </c>
+      <c r="F13">
+        <v>460.44</v>
+      </c>
+      <c r="G13">
+        <f>D13-(E13*$E$2)-(F13*$J$2)</f>
+        <v>378.00378583999918</v>
+      </c>
+      <c r="H13">
+        <f>G13-G$12*(SUM(E13:F13)/SUM(E$12:F$12))</f>
+        <v>1.7027193349996423</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>-9172.9971999999998</v>
+      </c>
+      <c r="E14">
+        <v>1539.26</v>
+      </c>
+      <c r="F14">
+        <v>459.74</v>
+      </c>
+      <c r="G14">
+        <f>D14-(E14*$E$2)-(F14*$J$2)</f>
+        <v>376.78299638999988</v>
+      </c>
+      <c r="H14">
+        <f>G14-G$12*(SUM(E14:F14)/SUM(E$12:F$12))</f>
+        <v>0.85804289500026698</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>-9147.7546000000002</v>
+      </c>
+      <c r="E17">
+        <v>1540</v>
+      </c>
+      <c r="F17">
+        <v>460</v>
+      </c>
+      <c r="G17">
+        <f>D17-(E17*$E$3)-(F17*$J$3)</f>
+        <v>364.10405000000037</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>-9152.0347999999994</v>
+      </c>
+      <c r="E18">
+        <v>1540.52</v>
+      </c>
+      <c r="F18">
+        <v>460.48</v>
+      </c>
+      <c r="G18">
+        <f>D18-(E18*$E$3)-(F18*$J$3)</f>
+        <v>365.2679987000015</v>
+      </c>
+      <c r="H18">
+        <f>G18-G$17*(SUM(E18:F18)/SUM(E$17:F$17))</f>
+        <v>0.98189667500116684</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>-9141.2962000000007</v>
+      </c>
+      <c r="E19">
+        <v>1539.32</v>
+      </c>
+      <c r="F19">
+        <v>459.68</v>
+      </c>
+      <c r="G19">
+        <f>D19-(E19*$E$3)-(F19*$J$3)</f>
+        <v>365.5587616999992</v>
+      </c>
+      <c r="H19">
+        <f>G19-G$17*(SUM(E19:F19)/SUM(E$17:F$17))</f>
+        <v>1.6367637249987865</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
         <v>15</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
         <v>4</v>
       </c>
-      <c r="D18">
-        <v>-9178.5267999999996</v>
-      </c>
-      <c r="E18">
+      <c r="D22">
+        <v>-9118.82</v>
+      </c>
+      <c r="E22">
         <v>1540</v>
       </c>
-      <c r="F18">
+      <c r="F22">
         <v>460</v>
       </c>
-      <c r="G18">
-        <f>D18-(E18*$E$2)-(F18*$J$2)</f>
-        <v>376.11300999999958</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
+      <c r="G22">
+        <f>D22-(E22*$E$4)-(F22*$J$4)</f>
+        <v>361.65264999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
         <v>5</v>
       </c>
-      <c r="G19">
-        <f>D19-(E19*$E$2)-(F19*$J$2)</f>
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <f>G19-G18</f>
-        <v>-376.11300999999958</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
+      <c r="D23">
+        <v>-9122.9914000000008</v>
+      </c>
+      <c r="E23">
+        <v>1540.56</v>
+      </c>
+      <c r="F23">
+        <v>460.44</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ref="G23" si="2">D23-(E23*$E$4)-(F23*$J$4)</f>
+        <v>362.79998959999875</v>
+      </c>
+      <c r="H23">
+        <f>G23-G$22*(SUM(E23:F23)/SUM(E$22:F$22))</f>
+        <v>0.96651327499876061</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
         <v>6</v>
       </c>
-      <c r="D20">
-        <v>-9172.9971999999998</v>
-      </c>
-      <c r="E20">
+      <c r="D24">
+        <v>-9113.4488000000001</v>
+      </c>
+      <c r="E24">
         <v>1539.26</v>
       </c>
-      <c r="F20">
+      <c r="F24">
         <v>459.74</v>
       </c>
-      <c r="G20">
-        <f>D20-(E20*$E$2)-(F20*$J$2)</f>
-        <v>376.78299638999988</v>
-      </c>
-      <c r="H20">
-        <f>G20-G18</f>
-        <v>0.6699863900003038</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
+      <c r="G24">
+        <f>D24-(E24*$E$4)-(F24*$J$4)</f>
+        <v>362.20097034999981</v>
+      </c>
+      <c r="H24">
+        <f>G24-G$22*(SUM(E24:F24)/SUM(E$22:F$22))</f>
+        <v>0.72914667499981078</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
         <v>4</v>
       </c>
-      <c r="D24">
-        <v>-9147.7546000000002</v>
-      </c>
-      <c r="E24">
+      <c r="D27">
+        <v>-9091.8143999999993</v>
+      </c>
+      <c r="E27">
         <v>1540</v>
       </c>
-      <c r="F24">
+      <c r="F27">
         <v>460</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
+      <c r="G27">
+        <f>D27-(E27*$E$5)-(F27*$J$5)</f>
+        <v>359.17575000000079</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
+      <c r="D28">
+        <v>-9095.973</v>
+      </c>
+      <c r="E28">
+        <v>1540.54</v>
+      </c>
+      <c r="F28">
+        <v>460.46</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ref="G28:G29" si="3">D28-(E28*$E$5)-(F28*$J$5)</f>
+        <v>360.37627264999992</v>
+      </c>
+      <c r="H28">
+        <f>G28-G$27*(SUM(E28:F28)/SUM(E$27:F$27))</f>
+        <v>1.020934774999148</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
         <v>6</v>
       </c>
-      <c r="D26">
-        <v>-9141.2962000000007</v>
-      </c>
-      <c r="E26">
-        <v>1539.32</v>
-      </c>
-      <c r="F26">
-        <v>459.68</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
+      <c r="D29">
+        <v>-9085.6651999999995</v>
+      </c>
+      <c r="E29">
+        <v>1539.2</v>
+      </c>
+      <c r="F29">
+        <v>459.8</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>360.68210200000158</v>
+      </c>
+      <c r="H29">
+        <f>G29-G$27*(SUM(E29:F29)/SUM(E$27:F$27))</f>
+        <v>1.6859398750007699</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
         <v>4</v>
       </c>
-      <c r="D29">
-        <v>-9118.82</v>
-      </c>
-      <c r="E29">
+      <c r="D32">
+        <v>-9064.4264000000003</v>
+      </c>
+      <c r="E32">
         <v>1540</v>
       </c>
-      <c r="F29">
+      <c r="F32">
         <v>460</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
+      <c r="G32">
+        <f>D32-(E32*$E$6)-(F32*$J$6)</f>
+        <v>357.86100999999917</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
+      <c r="D33">
+        <v>-9069.0923999999995</v>
+      </c>
+      <c r="E33">
+        <v>1540.52</v>
+      </c>
+      <c r="F33">
+        <v>460.48</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ref="G33:G34" si="4">D33-(E33*$E$6)-(F33*$J$6)</f>
+        <v>358.59469958000045</v>
+      </c>
+      <c r="H33">
+        <f>G33-G$32*(SUM(E33:F33)/SUM(E$32:F$32))</f>
+        <v>0.55475907500130006</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
         <v>6</v>
       </c>
-      <c r="D31">
-        <v>-9113.4488000000001</v>
-      </c>
-      <c r="E31">
-        <v>1539.26</v>
-      </c>
-      <c r="F31">
-        <v>459.74</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
-        <v>6</v>
+      <c r="D34">
+        <v>-9058.4184000000005</v>
+      </c>
+      <c r="E34">
+        <v>1539.18</v>
+      </c>
+      <c r="F34">
+        <v>459.82</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="4"/>
+        <v>359.29557546999922</v>
+      </c>
+      <c r="H34">
+        <f>G34-G$32*(SUM(E34:F34)/SUM(E$32:F$32))</f>
+        <v>1.6134959750000348</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>300</v>
+      </c>
+      <c r="E37">
+        <v>1.7027193349996423</v>
+      </c>
+      <c r="F37">
+        <v>0.85804289500026698</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>400</v>
+      </c>
+      <c r="E38">
+        <v>0.98189667500116684</v>
+      </c>
+      <c r="F38">
+        <v>1.6367637249987865</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>500</v>
+      </c>
+      <c r="E39">
+        <v>0.96651327499876061</v>
+      </c>
+      <c r="F39">
+        <v>0.72914667499981078</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>600</v>
+      </c>
+      <c r="E40">
+        <v>1.020934774999148</v>
+      </c>
+      <c r="F40">
+        <v>1.6859398750007699</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <v>700</v>
+      </c>
+      <c r="E41">
+        <v>0.55475907500130006</v>
+      </c>
+      <c r="F41">
+        <v>1.6134959750000348</v>
       </c>
     </row>
   </sheetData>

--- a/USHPRR/umo_defects.xlsx
+++ b/USHPRR/umo_defects.xlsx
@@ -1,38 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natiben/myrepo/spreadsheets/USHPRR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1B9312-64A7-B243-BE6B-9E4D22C3BF22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C01FE02-1928-394B-9E9D-6CF847E81493}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="23480" windowHeight="15940" activeTab="1" xr2:uid="{0DBEEBB1-FF5B-D846-89BD-75622B7A2B7B}"/>
+    <workbookView xWindow="1800" yWindow="2260" windowWidth="23480" windowHeight="15940" activeTab="1" xr2:uid="{0DBEEBB1-FF5B-D846-89BD-75622B7A2B7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="28">
   <si>
     <t>U23Mo</t>
   </si>
@@ -98,9 +92,6 @@
   </si>
   <si>
     <t>Evac</t>
-  </si>
-  <si>
-    <t>EXTENDING TO 100 SIMULATIONS FOR 700 K</t>
   </si>
   <si>
     <t>100 sims</t>
@@ -3064,58 +3055,6 @@
             </c:spPr>
           </c:marker>
           <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Sheet2!$O$40:$O$42</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>0.4</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.4</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.4</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Sheet2!$O$40:$O$42</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>0.4</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.4</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.4</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:errBars>
             <c:errDir val="x"/>
             <c:errBarType val="both"/>
             <c:errValType val="fixedVal"/>
@@ -3137,17 +3076,23 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$M$40:$M$42</c:f>
+              <c:f>Sheet2!$M$52:$M$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>600</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>700</c:v>
                 </c:pt>
               </c:numCache>
@@ -3155,17 +3100,23 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$N$40:$N$42</c:f>
+              <c:f>Sheet2!$N$52:$N$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>1.4627753499993332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1869755249979903</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.98199680000146827</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>1.1507005750099211</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>0.60991586499972072</c:v>
                 </c:pt>
               </c:numCache>
@@ -3206,57 +3157,316 @@
             </c:spPr>
           </c:marker>
           <c:errBars>
-            <c:errDir val="y"/>
+            <c:errDir val="x"/>
             <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
+            <c:errValType val="fixedVal"/>
             <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Sheet2!$O$44:$O$46</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>0.45</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.45</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.45</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Sheet2!$O$44:$O$46</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>0.45</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.45</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.45</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
+            <c:val val="1"/>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$M$58:$M$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$N$58:$N$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.1072181149990001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5276424249993283</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92370202500120513</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3000779750100833</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0012646899992887</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4F10-E047-9EB3-F22D61835BE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1108674207"/>
+        <c:axId val="1108679711"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1108674207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1108679711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1108679711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1108674207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:errBars>
             <c:errDir val="x"/>
             <c:errBarType val="both"/>
@@ -3279,17 +3489,23 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$M$44:$M$46</c:f>
+              <c:f>Sheet2!$D$52:$D$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>600</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>700</c:v>
                 </c:pt>
               </c:numCache>
@@ -3297,18 +3513,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$N$44:$N$46</c:f>
+              <c:f>Sheet2!$E$52:$E$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.92370202500120513</c:v>
+                  <c:v>1.7027193349996423</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3000779750100833</c:v>
+                  <c:v>0.98189667500116684</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0012646899992887</c:v>
+                  <c:v>0.96651327499876061</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.020934774999148</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55475907500130006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3316,7 +3538,522 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4F10-E047-9EB3-F22D61835BE9}"/>
+              <c16:uniqueId val="{00000000-4D2B-234C-8E83-B6F35FD8BB61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$M$52:$M$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$N$52:$N$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.4627753499993332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1869755249979903</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98199680000146827</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1507005750099211</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60991586499972072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4D2B-234C-8E83-B6F35FD8BB61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1108674207"/>
+        <c:axId val="1108679711"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1108674207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1108679711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1108679711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1108674207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$52:$D$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$52:$F$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.85804289500026698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6367637249987865</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72914667499981078</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6859398750007699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6134959750000348</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F984-954F-83CA-B3351AF8680E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$M$58:$M$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$N$58:$N$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.1072181149990001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5276424249993283</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92370202500120513</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3000779750100833</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0012646899992887</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F984-954F-83CA-B3351AF8680E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3600,6 +4337,86 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5703,6 +6520,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5825,15 +7674,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5853,6 +7702,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{357906B1-F09D-C948-B5E3-9F53EC1AC7C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA22FD9-8439-B340-852F-3C4F98044646}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6177,7 +8102,7 @@
         <v>19</v>
       </c>
       <c r="W2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
@@ -15248,10 +17173,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05677C58-0B8B-2F40-A2A4-5CEA5656F2D5}">
-  <dimension ref="B1:P46"/>
+  <dimension ref="B1:P62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15391,7 +17316,7 @@
         <v>8</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
@@ -15445,21 +17370,21 @@
         <v>2000</v>
       </c>
       <c r="K12">
-        <v>-9086.6995000000006</v>
+        <v>-9178.5012999999999</v>
       </c>
       <c r="L12">
-        <v>1524.6</v>
+        <v>1540</v>
       </c>
       <c r="M12">
-        <v>455.4</v>
+        <v>460</v>
       </c>
       <c r="N12">
-        <f>K12-(L12*$E$4)-(M12*$J$4)</f>
-        <v>298.96842349999861</v>
+        <f>K12-(L12*$E$2)-(M12*$J$2)</f>
+        <v>376.13850999999931</v>
       </c>
       <c r="P12">
         <f>SUM(L12:M12)</f>
-        <v>1980</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
@@ -15487,17 +17412,26 @@
         <f t="shared" ref="I13:I17" si="2">SUM(E13:F13)</f>
         <v>2001</v>
       </c>
+      <c r="K13">
+        <v>-9182.1764000000003</v>
+      </c>
+      <c r="L13">
+        <v>1540.57</v>
+      </c>
+      <c r="M13">
+        <v>460.43</v>
+      </c>
       <c r="N13">
-        <f t="shared" ref="N13" si="3">K13-(L13*$E$4)-(M13*$J$4)</f>
-        <v>0</v>
+        <f>K13-(L13*$E$2)-(M13*$J$2)</f>
+        <v>377.78935460499861</v>
       </c>
       <c r="O13">
-        <f>N13-N$25*(SUM(L13:M13)/SUM(L$25:M$25))</f>
-        <v>0</v>
+        <f>N13-N$12*(SUM(L13:M13)/SUM(L$12:M$12))</f>
+        <v>1.4627753499993332</v>
       </c>
       <c r="P13">
-        <f t="shared" ref="P13:P14" si="4">SUM(L13:M13)</f>
-        <v>0</v>
+        <f t="shared" ref="P13" si="3">SUM(L13:M13)</f>
+        <v>2001</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
@@ -15525,22 +17459,31 @@
         <f t="shared" si="2"/>
         <v>1999</v>
       </c>
+      <c r="K14">
+        <v>-9172.7774000000009</v>
+      </c>
+      <c r="L14">
+        <v>1539.24</v>
+      </c>
+      <c r="M14">
+        <v>459.76</v>
+      </c>
       <c r="N14">
-        <f>K14-(L14*$E$4)-(M14*$J$4)</f>
-        <v>0</v>
+        <f t="shared" ref="N14:N17" si="4">K14-(L14*$E$2)-(M14*$J$2)</f>
+        <v>377.05765885999836</v>
       </c>
       <c r="O14">
-        <f>N14-N$25*(SUM(L14:M14)/SUM(L$25:M$25))</f>
-        <v>0</v>
+        <f t="shared" ref="O14:O17" si="5">N14-N$12*(SUM(L14:M14)/SUM(L$12:M$12))</f>
+        <v>1.1072181149990001</v>
       </c>
       <c r="P14">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ref="P14:P17" si="6">SUM(L14:M14)</f>
+        <v>1999</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15">
         <v>-9186.6833999999999</v>
@@ -15563,10 +17506,31 @@
         <f t="shared" si="2"/>
         <v>2002</v>
       </c>
+      <c r="K15">
+        <v>-9186.6833999999999</v>
+      </c>
+      <c r="L15">
+        <v>1541.04</v>
+      </c>
+      <c r="M15">
+        <v>460.96</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="4"/>
+        <v>378.88261155999908</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="5"/>
+        <v>2.367963049999787</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="6"/>
+        <v>2002</v>
+      </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16">
         <v>-9166.9925999999996</v>
@@ -15578,21 +17542,42 @@
         <v>459.58</v>
       </c>
       <c r="G16">
-        <f t="shared" ref="G16:G17" si="5">D16-(E16*$E$2)-(F16*$J$2)</f>
+        <f t="shared" ref="G16:G17" si="7">D16-(E16*$E$2)-(F16*$J$2)</f>
         <v>378.20229513000004</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16:H17" si="6">G16-G$12*(SUM(E16:F16)/SUM(E$12:F$12))</f>
+        <f t="shared" ref="H16:H17" si="8">G16-G$12*(SUM(E16:F16)/SUM(E$12:F$12))</f>
         <v>2.4653981400004454</v>
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
         <v>1998</v>
       </c>
+      <c r="K16">
+        <v>-9166.9925999999996</v>
+      </c>
+      <c r="L16">
+        <v>1538.42</v>
+      </c>
+      <c r="M16">
+        <v>459.58</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="4"/>
+        <v>378.20229513000004</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="5"/>
+        <v>2.4399236400006998</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="6"/>
+        <v>1998</v>
+      </c>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17">
         <v>-9167.7139999999999</v>
@@ -15604,15 +17589,36 @@
         <v>459.78</v>
       </c>
       <c r="G17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>382.17592132999971</v>
       </c>
       <c r="H17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.2509678350000968</v>
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
+        <v>1999</v>
+      </c>
+      <c r="K17">
+        <v>-9167.7139999999999</v>
+      </c>
+      <c r="L17">
+        <v>1539.22</v>
+      </c>
+      <c r="M17">
+        <v>459.78</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="4"/>
+        <v>382.17592132999971</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="5"/>
+        <v>6.2254805850003549</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="6"/>
         <v>1999</v>
       </c>
     </row>
@@ -15650,13 +17656,22 @@
         <f>D20-(E20*$E$3)-(F20*$J$3)</f>
         <v>364.10405000000037</v>
       </c>
+      <c r="K20">
+        <v>-9147.9424999999992</v>
+      </c>
+      <c r="L20">
+        <v>1540</v>
+      </c>
+      <c r="M20">
+        <v>460</v>
+      </c>
       <c r="N20">
         <f>K20-(L20*$E$3)-(M20*$J$3)</f>
-        <v>0</v>
+        <v>363.91615000000138</v>
       </c>
       <c r="P20">
         <f>SUM(L20:M20)</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.2">
@@ -15680,17 +17695,26 @@
         <f>G21-G$20*(SUM(E21:F21)/SUM(E$20:F$20))</f>
         <v>0.98189667500116684</v>
       </c>
+      <c r="K21">
+        <v>-9151.9076000000005</v>
+      </c>
+      <c r="L21">
+        <v>1540.56</v>
+      </c>
+      <c r="M21">
+        <v>460.44</v>
+      </c>
       <c r="N21">
         <f>K21-(L21*$E$3)-(M21*$J$3)</f>
-        <v>0</v>
-      </c>
-      <c r="O21" t="e">
+        <v>365.28508359999933</v>
+      </c>
+      <c r="O21">
         <f>N21-N$20*(SUM(L21:M21)/SUM(L$20:M$20))</f>
-        <v>#DIV/0!</v>
+        <v>1.1869755249979903</v>
       </c>
       <c r="P21">
-        <f t="shared" ref="P21:P22" si="7">SUM(L21:M21)</f>
-        <v>0</v>
+        <f t="shared" ref="P21:P22" si="9">SUM(L21:M21)</f>
+        <v>2001</v>
       </c>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.2">
@@ -15714,564 +17738,651 @@
         <f>G22-G$20*(SUM(E22:F22)/SUM(E$20:F$20))</f>
         <v>1.6367637249987865</v>
       </c>
+      <c r="K22">
+        <v>-9141.7582999999995</v>
+      </c>
+      <c r="L22">
+        <v>1539.26</v>
+      </c>
+      <c r="M22">
+        <v>459.74</v>
+      </c>
       <c r="N22">
         <f>K22-(L22*$E$3)-(M22*$J$3)</f>
-        <v>0</v>
-      </c>
-      <c r="O22" t="e">
+        <v>365.26183435000075</v>
+      </c>
+      <c r="O22">
         <f>N22-N$20*(SUM(L22:M22)/SUM(L$20:M$20))</f>
-        <v>#DIV/0!</v>
+        <v>1.5276424249993283</v>
       </c>
       <c r="P22">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" t="s">
-        <v>18</v>
-      </c>
-      <c r="N24" t="s">
-        <v>15</v>
-      </c>
-      <c r="O24" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25">
-        <v>-9118.82</v>
-      </c>
-      <c r="E25">
-        <v>1540</v>
-      </c>
-      <c r="F25">
-        <v>460</v>
-      </c>
-      <c r="G25">
-        <f>D25-(E25*$E$4)-(F25*$J$4)</f>
-        <v>361.65264999999999</v>
-      </c>
-      <c r="K25">
-        <v>-9118.9004000000004</v>
-      </c>
-      <c r="L25">
-        <v>1540</v>
-      </c>
-      <c r="M25">
-        <v>460</v>
-      </c>
-      <c r="N25">
-        <f>K25-(L25*$E$4)-(M25*$J$4)</f>
-        <v>361.57224999999926</v>
-      </c>
-      <c r="P25">
-        <f>SUM(L25:M25)</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26">
-        <v>-9122.9914000000008</v>
-      </c>
-      <c r="E26">
-        <v>1540.56</v>
-      </c>
-      <c r="F26">
-        <v>460.44</v>
-      </c>
-      <c r="G26">
-        <f t="shared" ref="G26" si="8">D26-(E26*$E$4)-(F26*$J$4)</f>
-        <v>362.79998959999875</v>
-      </c>
-      <c r="H26">
-        <f>G26-G$25*(SUM(E26:F26)/SUM(E$25:F$25))</f>
-        <v>0.96651327499876061</v>
-      </c>
-      <c r="K26">
-        <v>-9123.1389999999992</v>
-      </c>
-      <c r="L26">
-        <v>1540.53</v>
-      </c>
-      <c r="M26">
-        <v>460.47</v>
-      </c>
-      <c r="N26">
-        <f t="shared" ref="N26" si="9">K26-(L26*$E$4)-(M26*$J$4)</f>
-        <v>362.73503292500072</v>
-      </c>
-      <c r="O26">
-        <f>N26-N$25*(SUM(L26:M26)/SUM(L$25:M$25))</f>
-        <v>0.98199680000146827</v>
-      </c>
-      <c r="P26">
-        <f t="shared" ref="P26:P27" si="10">SUM(L26:M26)</f>
-        <v>2001</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27">
-        <v>-9113.4488000000001</v>
-      </c>
-      <c r="E27">
-        <v>1539.26</v>
-      </c>
-      <c r="F27">
-        <v>459.74</v>
-      </c>
-      <c r="G27">
-        <f>D27-(E27*$E$4)-(F27*$J$4)</f>
-        <v>362.20097034999981</v>
-      </c>
-      <c r="H27">
-        <f>G27-G$25*(SUM(E27:F27)/SUM(E$25:F$25))</f>
-        <v>0.72914667499981078</v>
-      </c>
-      <c r="K27">
-        <v>-9113.3896999999997</v>
-      </c>
-      <c r="L27">
-        <v>1539.24</v>
-      </c>
-      <c r="M27">
-        <v>459.76</v>
-      </c>
-      <c r="N27">
-        <f>K27-(L27*$E$4)-(M27*$J$4)</f>
-        <v>362.31516590000047</v>
-      </c>
-      <c r="O27">
-        <f>N27-N$25*(SUM(L27:M27)/SUM(L$25:M$25))</f>
-        <v>0.92370202500120513</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="10"/>
-        <v>1999</v>
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" t="s">
+        <v>18</v>
+      </c>
+      <c r="N27" t="s">
+        <v>15</v>
+      </c>
+      <c r="O27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>-9118.82</v>
+      </c>
+      <c r="E28">
+        <v>1540</v>
+      </c>
+      <c r="F28">
+        <v>460</v>
+      </c>
+      <c r="G28">
+        <f>D28-(E28*$E$4)-(F28*$J$4)</f>
+        <v>361.65264999999999</v>
+      </c>
+      <c r="K28">
+        <v>-9118.9004000000004</v>
+      </c>
+      <c r="L28">
+        <v>1540</v>
+      </c>
+      <c r="M28">
+        <v>460</v>
+      </c>
+      <c r="N28">
+        <f>K28-(L28*$E$4)-(M28*$J$4)</f>
+        <v>361.57224999999926</v>
+      </c>
+      <c r="P28">
+        <f>SUM(L28:M28)</f>
+        <v>2000</v>
       </c>
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" t="s">
-        <v>18</v>
-      </c>
-      <c r="N29" t="s">
-        <v>15</v>
-      </c>
-      <c r="O29" t="s">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>-9122.9914000000008</v>
+      </c>
+      <c r="E29">
+        <v>1540.56</v>
+      </c>
+      <c r="F29">
+        <v>460.44</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ref="G29" si="10">D29-(E29*$E$4)-(F29*$J$4)</f>
+        <v>362.79998959999875</v>
+      </c>
+      <c r="H29">
+        <f>G29-G$28*(SUM(E29:F29)/SUM(E$28:F$28))</f>
+        <v>0.96651327499876061</v>
+      </c>
+      <c r="K29">
+        <v>-9123.1389999999992</v>
+      </c>
+      <c r="L29">
+        <v>1540.53</v>
+      </c>
+      <c r="M29">
+        <v>460.47</v>
+      </c>
+      <c r="N29">
+        <f t="shared" ref="N29" si="11">K29-(L29*$E$4)-(M29*$J$4)</f>
+        <v>362.73503292500072</v>
+      </c>
+      <c r="O29">
+        <f>N29-N$28*(SUM(L29:M29)/SUM(L$28:M$28))</f>
+        <v>0.98199680000146827</v>
+      </c>
+      <c r="P29">
+        <f t="shared" ref="P29:P30" si="12">SUM(L29:M29)</f>
+        <v>2001</v>
       </c>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D30">
-        <v>-9091.8143999999993</v>
+        <v>-9113.4488000000001</v>
       </c>
       <c r="E30">
-        <v>1540</v>
+        <v>1539.26</v>
       </c>
       <c r="F30">
-        <v>460</v>
+        <v>459.74</v>
       </c>
       <c r="G30">
-        <f>D30-(E30*$E$5)-(F30*$J$5)</f>
-        <v>359.17575000000079</v>
+        <f>D30-(E30*$E$4)-(F30*$J$4)</f>
+        <v>362.20097034999981</v>
+      </c>
+      <c r="H30">
+        <f>G30-G$28*(SUM(E30:F30)/SUM(E$28:F$28))</f>
+        <v>0.72914667499981078</v>
       </c>
       <c r="K30">
-        <v>-9091.7499000000098</v>
+        <v>-9113.3896999999997</v>
       </c>
       <c r="L30">
-        <v>1540</v>
+        <v>1539.24</v>
       </c>
       <c r="M30">
-        <v>460</v>
+        <v>459.76</v>
       </c>
       <c r="N30">
-        <f>K30-(L30*$E$5)-(M30*$J$5)</f>
-        <v>359.24024999999028</v>
+        <f>K30-(L30*$E$4)-(M30*$J$4)</f>
+        <v>362.31516590000047</v>
+      </c>
+      <c r="O30">
+        <f>N30-N$28*(SUM(L30:M30)/SUM(L$28:M$28))</f>
+        <v>0.92370202500120513</v>
       </c>
       <c r="P30">
-        <f>SUM(L30:M30)</f>
-        <v>2000</v>
+        <f t="shared" si="12"/>
+        <v>1999</v>
       </c>
     </row>
     <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31">
-        <v>-9095.973</v>
-      </c>
-      <c r="E31">
-        <v>1540.54</v>
-      </c>
-      <c r="F31">
-        <v>460.46</v>
-      </c>
-      <c r="G31">
-        <f t="shared" ref="G31:G32" si="11">D31-(E31*$E$5)-(F31*$J$5)</f>
-        <v>360.37627264999992</v>
-      </c>
-      <c r="H31">
-        <f>G31-G$30*(SUM(E31:F31)/SUM(E$30:F$30))</f>
-        <v>1.020934774999148</v>
-      </c>
-      <c r="K31">
-        <v>-9095.8338000000003</v>
-      </c>
-      <c r="L31">
-        <v>1540.52</v>
-      </c>
-      <c r="M31">
-        <v>460.48</v>
-      </c>
-      <c r="N31">
-        <f>K31-(L31*$E$5)-(M31*$J$5)</f>
-        <v>360.57057070000019</v>
-      </c>
-      <c r="O31">
-        <f>N31-N$30*(SUM(L31:M31)/SUM(L$30:M$30))</f>
-        <v>1.1507005750099211</v>
-      </c>
-      <c r="P31">
-        <f t="shared" ref="P31:P32" si="12">SUM(L31:M31)</f>
-        <v>2001</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32">
-        <v>-9085.6651999999995</v>
-      </c>
-      <c r="E32">
-        <v>1539.2</v>
-      </c>
-      <c r="F32">
-        <v>459.8</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="11"/>
-        <v>360.68210200000158</v>
-      </c>
-      <c r="H32">
-        <f>G32-G$30*(SUM(E32:F32)/SUM(E$30:F$30))</f>
-        <v>1.6859398750007699</v>
-      </c>
-      <c r="K32">
-        <v>-9085.8212999999996</v>
-      </c>
-      <c r="L32">
-        <v>1539.26</v>
-      </c>
-      <c r="M32">
-        <v>459.74</v>
-      </c>
-      <c r="N32">
-        <f>K32-(L32*$E$5)-(M32*$J$5)</f>
-        <v>360.36070785000038</v>
-      </c>
-      <c r="O32">
-        <f>N32-N$30*(SUM(L32:M32)/SUM(L$30:M$30))</f>
-        <v>1.3000779750100833</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="12"/>
-        <v>1999</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="34" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" t="s">
-        <v>18</v>
-      </c>
-      <c r="N34" t="s">
-        <v>15</v>
-      </c>
-      <c r="O34" t="s">
-        <v>18</v>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35">
-        <v>-9064.4264000000003</v>
-      </c>
-      <c r="E35">
-        <v>1540</v>
-      </c>
-      <c r="F35">
-        <v>460</v>
-      </c>
-      <c r="G35">
-        <f>D35-(E35*$E$6)-(F35*$J$6)</f>
-        <v>357.86100999999917</v>
-      </c>
-      <c r="K35">
-        <v>-9064.2052999999996</v>
-      </c>
-      <c r="L35">
-        <v>1540</v>
-      </c>
-      <c r="M35">
-        <v>460</v>
-      </c>
-      <c r="N35">
-        <f>K35-(L35*$E$6)-(M35*$J$6)</f>
-        <v>358.08210999999983</v>
-      </c>
-      <c r="P35">
-        <f>SUM(L35:M35)</f>
-        <v>2000</v>
+        <v>11</v>
+      </c>
+      <c r="G35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" t="s">
+        <v>18</v>
+      </c>
+      <c r="N35" t="s">
+        <v>15</v>
+      </c>
+      <c r="O35" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36">
-        <v>-9069.0923999999995</v>
+        <v>-9091.8143999999993</v>
       </c>
       <c r="E36">
-        <v>1540.52</v>
+        <v>1540</v>
       </c>
       <c r="F36">
-        <v>460.48</v>
+        <v>460</v>
       </c>
       <c r="G36">
-        <f t="shared" ref="G36:G37" si="13">D36-(E36*$E$6)-(F36*$J$6)</f>
-        <v>358.59469958000045</v>
-      </c>
-      <c r="H36">
-        <f>G36-G$35*(SUM(E36:F36)/SUM(E$35:F$35))</f>
-        <v>0.55475907500130006</v>
+        <f>D36-(E36*$E$5)-(F36*$J$5)</f>
+        <v>359.17575000000079</v>
       </c>
       <c r="K36">
-        <v>-9068.9261999999999</v>
+        <v>-9091.7499000000098</v>
       </c>
       <c r="L36">
-        <v>1540.48</v>
+        <v>1540</v>
       </c>
       <c r="M36">
-        <v>460.52</v>
+        <v>460</v>
       </c>
       <c r="N36">
-        <f>K36-(L36*$E$6)-(M36*$J$6)</f>
-        <v>358.87106691999952</v>
-      </c>
-      <c r="O36">
-        <f>N36-N$35*(SUM(L36:M36)/SUM(L$35:M$35))</f>
-        <v>0.60991586499972072</v>
+        <f>K36-(L36*$E$5)-(M36*$J$5)</f>
+        <v>359.24024999999028</v>
       </c>
       <c r="P36">
-        <f t="shared" ref="P36:P37" si="14">SUM(L36:M36)</f>
-        <v>2001</v>
+        <f>SUM(L36:M36)</f>
+        <v>2000</v>
       </c>
     </row>
     <row r="37" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>-9095.973</v>
+      </c>
+      <c r="E37">
+        <v>1540.54</v>
+      </c>
+      <c r="F37">
+        <v>460.46</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ref="G37:G38" si="13">D37-(E37*$E$5)-(F37*$J$5)</f>
+        <v>360.37627264999992</v>
+      </c>
+      <c r="H37">
+        <f>G37-G$36*(SUM(E37:F37)/SUM(E$36:F$36))</f>
+        <v>1.020934774999148</v>
+      </c>
+      <c r="K37">
+        <v>-9095.8338000000003</v>
+      </c>
+      <c r="L37">
+        <v>1540.52</v>
+      </c>
+      <c r="M37">
+        <v>460.48</v>
+      </c>
+      <c r="N37">
+        <f>K37-(L37*$E$5)-(M37*$J$5)</f>
+        <v>360.57057070000019</v>
+      </c>
+      <c r="O37">
+        <f>N37-N$36*(SUM(L37:M37)/SUM(L$36:M$36))</f>
+        <v>1.1507005750099211</v>
+      </c>
+      <c r="P37">
+        <f t="shared" ref="P37:P38" si="14">SUM(L37:M37)</f>
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
         <v>6</v>
       </c>
-      <c r="D37">
-        <v>-9058.4184000000005</v>
-      </c>
-      <c r="E37">
-        <v>1539.18</v>
-      </c>
-      <c r="F37">
-        <v>459.82</v>
-      </c>
-      <c r="G37">
+      <c r="D38">
+        <v>-9085.6651999999995</v>
+      </c>
+      <c r="E38">
+        <v>1539.2</v>
+      </c>
+      <c r="F38">
+        <v>459.8</v>
+      </c>
+      <c r="G38">
         <f t="shared" si="13"/>
-        <v>359.29557546999922</v>
-      </c>
-      <c r="H37">
-        <f>G37-G$35*(SUM(E37:F37)/SUM(E$35:F$35))</f>
-        <v>1.6134959750000348</v>
-      </c>
-      <c r="K37">
-        <v>-9058.7821000000004</v>
-      </c>
-      <c r="L37">
-        <v>1539.19</v>
-      </c>
-      <c r="M37">
-        <v>459.81</v>
-      </c>
-      <c r="N37">
-        <f>K37-(L37*$E$6)-(M37*$J$6)</f>
-        <v>358.90433363499915</v>
-      </c>
-      <c r="O37">
-        <f>N37-N$35*(SUM(L37:M37)/SUM(L$35:M$35))</f>
-        <v>1.0012646899992887</v>
-      </c>
-      <c r="P37">
+        <v>360.68210200000158</v>
+      </c>
+      <c r="H38">
+        <f>G38-G$36*(SUM(E38:F38)/SUM(E$36:F$36))</f>
+        <v>1.6859398750007699</v>
+      </c>
+      <c r="K38">
+        <v>-9085.8212999999996</v>
+      </c>
+      <c r="L38">
+        <v>1539.26</v>
+      </c>
+      <c r="M38">
+        <v>459.74</v>
+      </c>
+      <c r="N38">
+        <f>K38-(L38*$E$5)-(M38*$J$5)</f>
+        <v>360.36070785000038</v>
+      </c>
+      <c r="O38">
+        <f>N38-N$36*(SUM(L38:M38)/SUM(L$36:M$36))</f>
+        <v>1.3000779750100833</v>
+      </c>
+      <c r="P38">
         <f t="shared" si="14"/>
         <v>1999</v>
       </c>
     </row>
     <row r="39" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="E39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M39" t="s">
-        <v>19</v>
-      </c>
-      <c r="O39" t="s">
+      <c r="C39" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="40" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D40">
-        <v>300</v>
-      </c>
-      <c r="E40">
-        <v>1.7027193349996423</v>
-      </c>
-      <c r="F40">
-        <v>0.85804289500026698</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M40">
-        <v>500</v>
-      </c>
-      <c r="N40">
-        <v>0.98199680000146827</v>
-      </c>
-      <c r="O40">
-        <v>0.4</v>
+      <c r="C40" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D41">
-        <v>400</v>
-      </c>
-      <c r="E41">
-        <v>0.98189667500116684</v>
-      </c>
-      <c r="F41">
-        <v>1.6367637249987865</v>
-      </c>
-      <c r="M41">
-        <v>600</v>
-      </c>
-      <c r="N41">
-        <v>1.1507005750099211</v>
-      </c>
-      <c r="O41">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="42" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D42">
-        <v>500</v>
-      </c>
-      <c r="E42">
-        <v>0.96651327499876061</v>
-      </c>
-      <c r="F42">
-        <v>0.72914667499981078</v>
-      </c>
-      <c r="M42">
-        <v>700</v>
-      </c>
-      <c r="N42">
-        <v>0.60991586499972072</v>
-      </c>
-      <c r="O42">
-        <v>0.4</v>
+      <c r="C41" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D43">
-        <v>600</v>
-      </c>
-      <c r="E43">
-        <v>1.020934774999148</v>
-      </c>
-      <c r="F43">
-        <v>1.6859398750007699</v>
-      </c>
-      <c r="M43" t="s">
-        <v>24</v>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" t="s">
+        <v>18</v>
+      </c>
+      <c r="N43" t="s">
+        <v>15</v>
+      </c>
+      <c r="O43" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
       <c r="D44">
-        <v>700</v>
+        <v>-9064.4264000000003</v>
       </c>
       <c r="E44">
-        <v>0.55475907500130006</v>
+        <v>1540</v>
       </c>
       <c r="F44">
-        <v>1.6134959750000348</v>
+        <v>460</v>
+      </c>
+      <c r="G44">
+        <f>D44-(E44*$E$6)-(F44*$J$6)</f>
+        <v>357.86100999999917</v>
+      </c>
+      <c r="K44">
+        <v>-9064.2052999999996</v>
+      </c>
+      <c r="L44">
+        <v>1540</v>
       </c>
       <c r="M44">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="N44">
-        <v>0.92370202500120513</v>
-      </c>
-      <c r="O44">
-        <v>0.45</v>
+        <f>K44-(L44*$E$6)-(M44*$J$6)</f>
+        <v>358.08210999999983</v>
+      </c>
+      <c r="P44">
+        <f>SUM(L44:M44)</f>
+        <v>2000</v>
       </c>
     </row>
     <row r="45" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>-9069.0923999999995</v>
+      </c>
+      <c r="E45">
+        <v>1540.52</v>
+      </c>
+      <c r="F45">
+        <v>460.48</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ref="G45:G46" si="15">D45-(E45*$E$6)-(F45*$J$6)</f>
+        <v>358.59469958000045</v>
+      </c>
+      <c r="H45">
+        <f>G45-G$44*(SUM(E45:F45)/SUM(E$44:F$44))</f>
+        <v>0.55475907500130006</v>
+      </c>
+      <c r="K45">
+        <v>-9068.9261999999999</v>
+      </c>
+      <c r="L45">
+        <v>1540.48</v>
+      </c>
       <c r="M45">
-        <v>600</v>
+        <v>460.52</v>
       </c>
       <c r="N45">
-        <v>1.3000779750100833</v>
+        <f>K45-(L45*$E$6)-(M45*$J$6)</f>
+        <v>358.87106691999952</v>
       </c>
       <c r="O45">
-        <v>0.45</v>
+        <f>N45-N$44*(SUM(L45:M45)/SUM(L$44:M$44))</f>
+        <v>0.60991586499972072</v>
+      </c>
+      <c r="P45">
+        <f t="shared" ref="P45:P46" si="16">SUM(L45:M45)</f>
+        <v>2001</v>
       </c>
     </row>
     <row r="46" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>-9058.4184000000005</v>
+      </c>
+      <c r="E46">
+        <v>1539.18</v>
+      </c>
+      <c r="F46">
+        <v>459.82</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="15"/>
+        <v>359.29557546999922</v>
+      </c>
+      <c r="H46">
+        <f>G46-G$44*(SUM(E46:F46)/SUM(E$44:F$44))</f>
+        <v>1.6134959750000348</v>
+      </c>
+      <c r="K46">
+        <v>-9058.7821000000004</v>
+      </c>
+      <c r="L46">
+        <v>1539.19</v>
+      </c>
       <c r="M46">
+        <v>459.81</v>
+      </c>
+      <c r="N46">
+        <f>K46-(L46*$E$6)-(M46*$J$6)</f>
+        <v>358.90433363499915</v>
+      </c>
+      <c r="O46">
+        <f>N46-N$44*(SUM(L46:M46)/SUM(L$44:M$44))</f>
+        <v>1.0012646899992887</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="16"/>
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="47" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" t="s">
+        <v>21</v>
+      </c>
+      <c r="M51" t="s">
+        <v>23</v>
+      </c>
+      <c r="O51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>300</v>
+      </c>
+      <c r="E52">
+        <v>1.7027193349996423</v>
+      </c>
+      <c r="F52">
+        <v>0.85804289500026698</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="M52">
+        <v>300</v>
+      </c>
+      <c r="N52">
+        <v>1.4627753499993332</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <v>400</v>
+      </c>
+      <c r="E53">
+        <v>0.98189667500116684</v>
+      </c>
+      <c r="F53">
+        <v>1.6367637249987865</v>
+      </c>
+      <c r="M53">
+        <v>400</v>
+      </c>
+      <c r="N53">
+        <v>1.1869755249979903</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D54">
+        <v>500</v>
+      </c>
+      <c r="E54">
+        <v>0.96651327499876061</v>
+      </c>
+      <c r="F54">
+        <v>0.72914667499981078</v>
+      </c>
+      <c r="M54">
+        <v>500</v>
+      </c>
+      <c r="N54">
+        <v>0.98199680000146827</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <v>600</v>
+      </c>
+      <c r="E55">
+        <v>1.020934774999148</v>
+      </c>
+      <c r="F55">
+        <v>1.6859398750007699</v>
+      </c>
+      <c r="M55">
+        <v>600</v>
+      </c>
+      <c r="N55">
+        <v>1.1507005750099211</v>
+      </c>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D56">
         <v>700</v>
       </c>
-      <c r="N46">
+      <c r="E56">
+        <v>0.55475907500130006</v>
+      </c>
+      <c r="F56">
+        <v>1.6134959750000348</v>
+      </c>
+      <c r="M56">
+        <v>700</v>
+      </c>
+      <c r="N56">
+        <v>0.60991586499972072</v>
+      </c>
+      <c r="O56">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M58">
+        <v>300</v>
+      </c>
+      <c r="N58">
+        <v>1.1072181149990001</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M59">
+        <v>400</v>
+      </c>
+      <c r="N59">
+        <v>1.5276424249993283</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M60">
+        <v>500</v>
+      </c>
+      <c r="N60">
+        <v>0.92370202500120513</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M61">
+        <v>600</v>
+      </c>
+      <c r="N61">
+        <v>1.3000779750100833</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M62">
+        <v>700</v>
+      </c>
+      <c r="N62">
         <v>1.0012646899992887</v>
       </c>
-      <c r="O46">
-        <v>0.45</v>
+      <c r="O62">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/USHPRR/umo_defects.xlsx
+++ b/USHPRR/umo_defects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37AF475-B69D-8746-85E3-3857CD6B2B1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD620B52-6FD8-7E43-A724-BA25210F151E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1540" yWindow="4940" windowWidth="23480" windowHeight="15940" activeTab="2" xr2:uid="{0DBEEBB1-FF5B-D846-89BD-75622B7A2B7B}"/>
+    <workbookView xWindow="1540" yWindow="4940" windowWidth="23480" windowHeight="15940" activeTab="2" xr2:uid="{0DBEEBB1-FF5B-D846-89BD-75622B7A2B7B}"/>
   </bookViews>
   <sheets>
     <sheet name="100 convergence" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="40">
   <si>
     <t>U23Mo</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>8x8x8 supercell</t>
+  </si>
+  <si>
+    <t>avg</t>
   </si>
 </sst>
 </file>
@@ -6412,445 +6415,72 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'defect energies'!$L$83:$L$90</c:f>
+              <c:f>'defect energies'!$C$3:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>300</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>400</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>600</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>700</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>800</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>900</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1000</c:v>
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'defect energies'!$M$83:$M$90</c:f>
+              <c:f>'defect energies'!$E$3:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.4627753499993332</c:v>
+                  <c:v>-4.1227675000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1869755249979903</c:v>
+                  <c:v>-4.1066374999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98199680000146827</c:v>
+                  <c:v>-4.0918675000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1507005750099211</c:v>
+                  <c:v>-4.0776814999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60991586499972072</c:v>
+                  <c:v>-4.0634980000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4939646399994899</c:v>
+                  <c:v>-4.0488515000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.73768944500000089</c:v>
+                  <c:v>-4.0337375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9502967749989466</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2695-2240-90E9-B5AA3CB6010B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'defect energies'!$P$83:$P$90</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'defect energies'!$Q$83:$Q$90</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1.1072181149990001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5276424249993283</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.92370202500120513</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.3000779750100833</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0012646899992887</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.6087571199981312</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0652876799989599</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7165676000009853</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2695-2240-90E9-B5AA3CB6010B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1108674207"/>
-        <c:axId val="1108679711"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1108674207"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1108679711"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1108679711"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1108674207"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'defect energies'!$C$2:$C$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'defect energies'!$E$2:$E$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>-4.1464014999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-4.1227675000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-4.1066374999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-4.0918675000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-4.0776814999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-4.0634980000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-4.0488515000000005</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-4.0337375</c:v>
+                  <c:v>-4.0183029999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.0022804999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6905,10 +6535,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'defect energies'!$H$2:$H$9</c:f>
+              <c:f>'defect energies'!$H$2:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>300</c:v>
                 </c:pt>
@@ -6932,16 +6562,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'defect energies'!$J$2:$J$9</c:f>
+              <c:f>'defect energies'!$J$2:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>-6.8895249999999999</c:v>
                 </c:pt>
@@ -6965,6 +6601,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-6.7847949999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.768465</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.7518687499999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7143,6 +6785,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="2036635440"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -7197,7 +6840,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7220,6 +6863,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Di-Int</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -7230,7 +6876,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="square"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -7244,34 +6890,45 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'defect energies'!$L$93:$L$100</c:f>
+              <c:f>'defect energies'!$L$108:$L$114</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>300</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>400</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>600</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>700</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>800</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
@@ -7279,32 +6936,29 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'defect energies'!$M$93:$M$100</c:f>
+              <c:f>'defect energies'!$M$108:$M$114</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.367963049999787</c:v>
+                  <c:v>2.2370251249986381</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2370251249986381</c:v>
+                  <c:v>1.5473980499991171</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5473980499991171</c:v>
+                  <c:v>1.3993070000095713</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3993070000095713</c:v>
+                  <c:v>1.0019970499993178</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0019970499993178</c:v>
+                  <c:v>2.5326473599982364</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5326473599982364</c:v>
+                  <c:v>1.4334697400006462</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4334697400006462</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>1.5347944750003535</c:v>
                 </c:pt>
               </c:numCache>
@@ -7320,6 +6974,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Di-Vac</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -7330,7 +6987,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="diamond"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -7344,34 +7001,45 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'defect energies'!$P$93:$P$100</c:f>
+              <c:f>'defect energies'!$P$108:$P$114</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>300</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>400</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>600</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>700</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>800</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
@@ -7379,32 +7047,29 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'defect energies'!$Q$93:$Q$100</c:f>
+              <c:f>'defect energies'!$Q$108:$Q$114</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.4399236400006998</c:v>
+                  <c:v>2.4711575000001176</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4711575000001176</c:v>
+                  <c:v>1.7508040500002835</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7508040500002835</c:v>
+                  <c:v>2.4105540000101655</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4105540000101655</c:v>
+                  <c:v>1.9684783700000139</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9684783700000139</c:v>
+                  <c:v>2.5921009599986178</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5921009599986178</c:v>
+                  <c:v>2.3014326150007491</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3014326150007491</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>3.036623699999609</c:v>
                 </c:pt>
               </c:numCache>
@@ -7420,6 +7085,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>Xe-Sub</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -7430,7 +7098,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="triangle"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
@@ -7444,34 +7112,45 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'defect energies'!$L$103:$L$110</c:f>
+              <c:f>'defect energies'!$L$118:$L$124</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>300</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>400</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>600</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>700</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>800</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
@@ -7479,32 +7158,29 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'defect energies'!$M$103:$M$110</c:f>
+              <c:f>'defect energies'!$M$118:$M$124</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.2254805850003549</c:v>
+                  <c:v>6.4032862999990243</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.4032862999990243</c:v>
+                  <c:v>6.0686453500002813</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0686453500002813</c:v>
+                  <c:v>6.5238701750100176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5238701750100176</c:v>
+                  <c:v>6.7236391849999109</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.7236391849999109</c:v>
+                  <c:v>6.9141552799982264</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.9141552799982264</c:v>
+                  <c:v>6.2422685949990182</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.2422685949990182</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>7.0143041499992478</c:v>
                 </c:pt>
               </c:numCache>
@@ -7535,6 +7211,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temperature (K)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7543,10 +7274,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -7557,7 +7285,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -7583,6 +7311,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Eform</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (eV)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7591,10 +7379,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -7605,7 +7390,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -7627,11 +7412,66 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22171123879785296"/>
+          <c:y val="0.25770133463046851"/>
+          <c:w val="0.19570617861956444"/>
+          <c:h val="0.23749277961876386"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-    </c:plotArea>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -7648,12 +7488,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -7663,7 +7498,563 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Int</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'defect energies'!$L$98:$L$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'defect energies'!$M$98:$M$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.1869755249979903</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98199680000146827</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1507005750099211</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60991586499972072</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4939646399994899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73768944500000089</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9502967749989466</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F6C2-7540-B910-0A001578BDB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Vac</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'defect energies'!$P$98:$P$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'defect energies'!$Q$98:$Q$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.5276424249993283</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92370202500120513</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3000779750100833</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0012646899992887</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6087571199981312</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0652876799989599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7165676000009853</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F6C2-7540-B910-0A001578BDB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1108674207"/>
+        <c:axId val="1108679711"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1108674207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temperature (K)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1108679711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1108679711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Eform</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (eV)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1108674207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22171123879785296"/>
+          <c:y val="0.25770133463046851"/>
+          <c:w val="0.19570617861956444"/>
+          <c:h val="0.23749277961876386"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -11732,42 +12123,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC03864E-AEE8-B94E-B80F-3DD76B1240E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>425450</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -11796,6 +12151,44 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46770FE3-0C3F-4E43-A95E-B391207555F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
@@ -11804,23 +12197,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46770FE3-0C3F-4E43-A95E-B391207555F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABEBA403-D06B-5348-8F72-EDD411D860D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -42288,10 +42681,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05677C58-0B8B-2F40-A2A4-5CEA5656F2D5}">
-  <dimension ref="B1:Y110"/>
+  <dimension ref="B1:Y125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="L91" sqref="L91:N91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42346,7 +42739,7 @@
         <v>-8245.5349999999999</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E9" si="0">D3/2000</f>
+        <f t="shared" ref="E3:E11" si="0">D3/2000</f>
         <v>-4.1227675000000001</v>
       </c>
       <c r="H3">
@@ -42356,7 +42749,7 @@
         <v>-13751.29</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J9" si="1">I3/2000</f>
+        <f t="shared" ref="J3:J11" si="1">I3/2000</f>
         <v>-6.8756450000000005</v>
       </c>
     </row>
@@ -42492,7 +42885,49 @@
         <v>-6.7847949999999999</v>
       </c>
     </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>1100</v>
+      </c>
+      <c r="D10">
+        <v>-8036.6059999999998</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>-4.0183029999999995</v>
+      </c>
+      <c r="H10">
+        <v>1100</v>
+      </c>
+      <c r="I10">
+        <v>-13536.93</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>-6.768465</v>
+      </c>
+    </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>1200</v>
+      </c>
+      <c r="D11">
+        <v>-8004.5609999999997</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>-4.0022804999999995</v>
+      </c>
+      <c r="H11">
+        <v>1200</v>
+      </c>
+      <c r="I11">
+        <v>-13503.737499999999</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>-6.7518687499999999</v>
+      </c>
       <c r="S11" t="s">
         <v>38</v>
       </c>
@@ -44382,24 +44817,106 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="82" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K78">
+        <v>1100</v>
+      </c>
+      <c r="O78" t="s">
+        <v>15</v>
+      </c>
+      <c r="P78" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K79" t="s">
+        <v>4</v>
+      </c>
+      <c r="L79">
+        <v>-8954.3788999999997</v>
+      </c>
+      <c r="M79">
+        <v>1540</v>
+      </c>
+      <c r="N79">
+        <v>460</v>
+      </c>
+      <c r="O79">
+        <f>L79-(M79*$E$10)-(N79*$J$10)</f>
+        <v>347.30161999999973</v>
+      </c>
+      <c r="Q79">
+        <f>SUM(M79:N79)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="80" spans="11:17" x14ac:dyDescent="0.2">
+      <c r="K80" t="s">
+        <v>5</v>
+      </c>
+      <c r="O80">
+        <f t="shared" ref="O80:O84" si="42">L80-(M80*$E$10)-(N80*$J$10)</f>
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <f>O80-O$79*(SUM(M80:N80)/SUM(M$79:N$79))</f>
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" ref="Q80:Q84" si="43">SUM(M80:N80)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="K81" t="s">
+        <v>6</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <f t="shared" ref="P81:P84" si="44">O81-O$79*(SUM(M81:N81)/SUM(M$79:N$79))</f>
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="4:17" x14ac:dyDescent="0.2">
       <c r="E82" t="s">
         <v>20</v>
       </c>
       <c r="F82" t="s">
         <v>21</v>
       </c>
-      <c r="L82" t="s">
-        <v>23</v>
-      </c>
-      <c r="N82" t="s">
-        <v>24</v>
-      </c>
-      <c r="P82" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="83" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="K82" t="s">
+        <v>25</v>
+      </c>
+      <c r="L82">
+        <v>-8963.1564999999991</v>
+      </c>
+      <c r="M82">
+        <v>1541.12</v>
+      </c>
+      <c r="N82">
+        <v>460.88</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="42"/>
+        <v>348.98076855999989</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="44"/>
+        <v>1.3318469400002186</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="43"/>
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="83" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D83">
         <v>300</v>
       </c>
@@ -44410,20 +44927,23 @@
         <v>0.85804289500026698</v>
       </c>
       <c r="H83" s="1"/>
-      <c r="L83">
-        <v>300</v>
-      </c>
-      <c r="M83">
-        <v>1.4627753499993332</v>
+      <c r="K83" t="s">
+        <v>26</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="42"/>
+        <v>0</v>
       </c>
       <c r="P83">
-        <v>300</v>
+        <f t="shared" si="44"/>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>1.1072181149990001</v>
-      </c>
-    </row>
-    <row r="84" spans="4:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D84">
         <v>400</v>
       </c>
@@ -44433,20 +44953,32 @@
       <c r="F84">
         <v>1.6367637249987865</v>
       </c>
+      <c r="K84" t="s">
+        <v>27</v>
+      </c>
       <c r="L84">
-        <v>400</v>
+        <v>-8943.2070999999996</v>
       </c>
       <c r="M84">
-        <v>1.1869755249979903</v>
+        <v>1539.19</v>
+      </c>
+      <c r="N84">
+        <v>459.81</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="42"/>
+        <v>353.93258621999985</v>
       </c>
       <c r="P84">
-        <v>400</v>
+        <f t="shared" si="44"/>
+        <v>6.8046170300000881</v>
       </c>
       <c r="Q84">
-        <v>1.5276424249993283</v>
-      </c>
-    </row>
-    <row r="85" spans="4:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="43"/>
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="85" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D85">
         <v>500</v>
       </c>
@@ -44456,20 +44988,8 @@
       <c r="F85">
         <v>0.72914667499981078</v>
       </c>
-      <c r="L85">
-        <v>500</v>
-      </c>
-      <c r="M85">
-        <v>0.98199680000146827</v>
-      </c>
-      <c r="P85">
-        <v>500</v>
-      </c>
-      <c r="Q85">
-        <v>0.92370202500120513</v>
-      </c>
-    </row>
-    <row r="86" spans="4:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D86">
         <v>600</v>
       </c>
@@ -44479,20 +44999,17 @@
       <c r="F86">
         <v>1.6859398750007699</v>
       </c>
-      <c r="L86">
-        <v>600</v>
-      </c>
-      <c r="M86">
-        <v>1.1507005750099211</v>
-      </c>
-      <c r="P86">
-        <v>600</v>
-      </c>
-      <c r="Q86">
-        <v>1.3000779750100833</v>
-      </c>
-    </row>
-    <row r="87" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="K86">
+        <v>1200</v>
+      </c>
+      <c r="O86" t="s">
+        <v>15</v>
+      </c>
+      <c r="P86" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D87">
         <v>700</v>
       </c>
@@ -44502,269 +45019,511 @@
       <c r="F87">
         <v>1.6134959750000348</v>
       </c>
+      <c r="K87" t="s">
+        <v>4</v>
+      </c>
       <c r="L87">
-        <v>700</v>
+        <v>-8926.2279999999992</v>
       </c>
       <c r="M87">
-        <v>0.60991586499972072</v>
+        <v>1540</v>
       </c>
       <c r="N87">
-        <v>0.45</v>
-      </c>
-      <c r="P87">
-        <v>700</v>
+        <v>460</v>
+      </c>
+      <c r="O87">
+        <f>L87-(M87*$E$11)-(N87*$J$11)</f>
+        <v>343.14359500000046</v>
       </c>
       <c r="Q87">
-        <v>1.0012646899992887</v>
-      </c>
-      <c r="R87">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="88" spans="4:18" x14ac:dyDescent="0.2">
+        <f>SUM(M87:N87)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="88" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="K88" t="s">
+        <v>5</v>
+      </c>
       <c r="L88">
-        <v>800</v>
+        <v>-8930.3279000000002</v>
       </c>
       <c r="M88">
-        <v>1.4939646399994899</v>
+        <v>1540.56</v>
+      </c>
+      <c r="N88">
+        <v>460.44</v>
+      </c>
+      <c r="O88">
+        <f t="shared" ref="O88:O92" si="45">L88-(M88*$E$11)-(N88*$J$11)</f>
+        <v>344.25579432999848</v>
       </c>
       <c r="P88">
-        <v>800</v>
+        <f>O88-O$87*(SUM(M88:N88)/SUM(M$87:N$87))</f>
+        <v>0.9406275324980129</v>
       </c>
       <c r="Q88">
-        <v>1.6087571199981312</v>
-      </c>
-    </row>
-    <row r="89" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="L89">
-        <v>900</v>
-      </c>
-      <c r="M89">
-        <v>0.73768944500000089</v>
+        <f t="shared" ref="Q88:Q92" si="46">SUM(M88:N88)</f>
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="89" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="K89" t="s">
+        <v>6</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="45"/>
+        <v>0</v>
       </c>
       <c r="P89">
-        <v>900</v>
+        <f t="shared" ref="P89:P92" si="47">O89-O$87*(SUM(M89:N89)/SUM(M$87:N$87))</f>
+        <v>0</v>
       </c>
       <c r="Q89">
-        <v>1.0652876799989599</v>
-      </c>
-    </row>
-    <row r="90" spans="4:18" x14ac:dyDescent="0.2">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="K90" t="s">
+        <v>25</v>
+      </c>
       <c r="L90">
-        <v>1000</v>
+        <v>-8935.2544999999991</v>
       </c>
       <c r="M90">
-        <v>0.9502967749989466</v>
+        <v>1540.96</v>
+      </c>
+      <c r="N90">
+        <v>461.04</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="45"/>
+        <v>344.98122778000015</v>
       </c>
       <c r="P90">
-        <v>1000</v>
+        <f t="shared" si="47"/>
+        <v>1.4944891849997362</v>
       </c>
       <c r="Q90">
-        <v>1.7165676000009853</v>
-      </c>
-    </row>
-    <row r="92" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="L92" t="s">
-        <v>29</v>
-      </c>
-      <c r="N92" t="s">
+        <f t="shared" si="46"/>
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="91" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="K91" t="s">
+        <v>26</v>
+      </c>
+      <c r="L91">
+        <v>-8914.2075999999997</v>
+      </c>
+      <c r="M91">
+        <v>1538.48</v>
+      </c>
+      <c r="N91">
+        <v>459.52</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="45"/>
+        <v>345.83963163999988</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="47"/>
+        <v>3.039180234999435</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="46"/>
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="92" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="K92" t="s">
+        <v>27</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="L96" t="s">
+        <v>23</v>
+      </c>
+      <c r="N96" t="s">
         <v>24</v>
       </c>
-      <c r="P92" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="93" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="L93">
-        <v>300</v>
-      </c>
-      <c r="M93">
-        <v>2.367963049999787</v>
-      </c>
-      <c r="P93">
-        <v>300</v>
-      </c>
-      <c r="Q93">
-        <v>2.4399236400006998</v>
-      </c>
-    </row>
-    <row r="94" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="L94">
-        <v>400</v>
-      </c>
-      <c r="M94">
-        <v>2.2370251249986381</v>
-      </c>
-      <c r="P94">
-        <v>400</v>
-      </c>
-      <c r="Q94">
-        <v>2.4711575000001176</v>
-      </c>
-    </row>
-    <row r="95" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="L95">
-        <v>500</v>
-      </c>
-      <c r="M95">
-        <v>1.5473980499991171</v>
-      </c>
-      <c r="P95">
-        <v>500</v>
-      </c>
-      <c r="Q95">
-        <v>1.7508040500002835</v>
-      </c>
-    </row>
-    <row r="96" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="L96">
-        <v>600</v>
-      </c>
-      <c r="M96">
-        <v>1.3993070000095713</v>
-      </c>
-      <c r="P96">
-        <v>600</v>
-      </c>
-      <c r="Q96">
-        <v>2.4105540000101655</v>
+      <c r="P96" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="97" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L97">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M97">
-        <v>1.0019970499993178</v>
-      </c>
-      <c r="N97">
-        <v>0.45</v>
+        <v>1.4627753499993332</v>
       </c>
       <c r="P97">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="Q97">
-        <v>1.9684783700000139</v>
-      </c>
-      <c r="R97">
-        <v>0.4</v>
+        <v>1.1072181149990001</v>
       </c>
     </row>
     <row r="98" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L98">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M98">
-        <v>2.5326473599982364</v>
+        <v>1.1869755249979903</v>
       </c>
       <c r="P98">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="Q98">
-        <v>2.5921009599986178</v>
+        <v>1.5276424249993283</v>
       </c>
     </row>
     <row r="99" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L99">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M99">
-        <v>1.4334697400006462</v>
+        <v>0.98199680000146827</v>
       </c>
       <c r="P99">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="Q99">
-        <v>2.3014326150007491</v>
+        <v>0.92370202500120513</v>
       </c>
     </row>
     <row r="100" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L100">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="M100">
-        <v>1.5347944750003535</v>
+        <v>1.1507005750099211</v>
       </c>
       <c r="P100">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="Q100">
-        <v>3.036623699999609</v>
+        <v>1.3000779750100833</v>
+      </c>
+    </row>
+    <row r="101" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L101">
+        <v>700</v>
+      </c>
+      <c r="M101">
+        <v>0.60991586499972072</v>
+      </c>
+      <c r="N101">
+        <v>0.45</v>
+      </c>
+      <c r="P101">
+        <v>700</v>
+      </c>
+      <c r="Q101">
+        <v>1.0012646899992887</v>
+      </c>
+      <c r="R101">
+        <v>0.4</v>
       </c>
     </row>
     <row r="102" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L102" t="s">
-        <v>30</v>
-      </c>
-      <c r="N102" t="s">
-        <v>24</v>
+      <c r="L102">
+        <v>800</v>
+      </c>
+      <c r="M102">
+        <v>1.4939646399994899</v>
+      </c>
+      <c r="P102">
+        <v>800</v>
+      </c>
+      <c r="Q102">
+        <v>1.6087571199981312</v>
       </c>
     </row>
     <row r="103" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L103">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="M103">
-        <v>6.2254805850003549</v>
+        <v>0.73768944500000089</v>
+      </c>
+      <c r="P103">
+        <v>900</v>
+      </c>
+      <c r="Q103">
+        <v>1.0652876799989599</v>
       </c>
     </row>
     <row r="104" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L104">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="M104">
-        <v>6.4032862999990243</v>
+        <v>0.9502967749989466</v>
+      </c>
+      <c r="P104">
+        <v>1000</v>
+      </c>
+      <c r="Q104">
+        <v>1.7165676000009853</v>
       </c>
     </row>
     <row r="105" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L105">
-        <v>500</v>
+      <c r="L105" t="s">
+        <v>39</v>
       </c>
       <c r="M105">
-        <v>6.0686453500002813</v>
+        <f>AVERAGE(M98:M104)</f>
+        <v>1.015934232143934</v>
+      </c>
+      <c r="P105" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q105">
+        <f>AVERAGE(Q98:Q104)</f>
+        <v>1.3061856450011402</v>
       </c>
     </row>
     <row r="106" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L106">
-        <v>600</v>
-      </c>
-      <c r="M106">
-        <v>6.5238701750100176</v>
+      <c r="L106" t="s">
+        <v>29</v>
+      </c>
+      <c r="N106" t="s">
+        <v>24</v>
+      </c>
+      <c r="P106" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="107" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L107">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="M107">
-        <v>6.7236391849999109</v>
-      </c>
-      <c r="N107">
-        <v>0.45</v>
+        <v>2.367963049999787</v>
+      </c>
+      <c r="P107">
+        <v>300</v>
+      </c>
+      <c r="Q107">
+        <v>2.4399236400006998</v>
       </c>
     </row>
     <row r="108" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L108">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="M108">
-        <v>6.9141552799982264</v>
+        <v>2.2370251249986381</v>
+      </c>
+      <c r="P108">
+        <v>400</v>
+      </c>
+      <c r="Q108">
+        <v>2.4711575000001176</v>
       </c>
     </row>
     <row r="109" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L109">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="M109">
-        <v>6.2422685949990182</v>
+        <v>1.5473980499991171</v>
+      </c>
+      <c r="P109">
+        <v>500</v>
+      </c>
+      <c r="Q109">
+        <v>1.7508040500002835</v>
       </c>
     </row>
     <row r="110" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L110">
+        <v>600</v>
+      </c>
+      <c r="M110">
+        <v>1.3993070000095713</v>
+      </c>
+      <c r="P110">
+        <v>600</v>
+      </c>
+      <c r="Q110">
+        <v>2.4105540000101655</v>
+      </c>
+    </row>
+    <row r="111" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L111">
+        <v>700</v>
+      </c>
+      <c r="M111">
+        <v>1.0019970499993178</v>
+      </c>
+      <c r="N111">
+        <v>0.45</v>
+      </c>
+      <c r="P111">
+        <v>700</v>
+      </c>
+      <c r="Q111">
+        <v>1.9684783700000139</v>
+      </c>
+      <c r="R111">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="112" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L112">
+        <v>800</v>
+      </c>
+      <c r="M112">
+        <v>2.5326473599982364</v>
+      </c>
+      <c r="P112">
+        <v>800</v>
+      </c>
+      <c r="Q112">
+        <v>2.5921009599986178</v>
+      </c>
+    </row>
+    <row r="113" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L113">
+        <v>900</v>
+      </c>
+      <c r="M113">
+        <v>1.4334697400006462</v>
+      </c>
+      <c r="P113">
+        <v>900</v>
+      </c>
+      <c r="Q113">
+        <v>2.3014326150007491</v>
+      </c>
+    </row>
+    <row r="114" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L114">
         <v>1000</v>
       </c>
-      <c r="M110">
+      <c r="M114">
+        <v>1.5347944750003535</v>
+      </c>
+      <c r="P114">
+        <v>1000</v>
+      </c>
+      <c r="Q114">
+        <v>3.036623699999609</v>
+      </c>
+    </row>
+    <row r="115" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L115" t="s">
+        <v>39</v>
+      </c>
+      <c r="M115">
+        <f>AVERAGE(M108:M114)</f>
+        <v>1.6695198285722685</v>
+      </c>
+      <c r="P115" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q115">
+        <f>AVERAGE(Q108:Q114)</f>
+        <v>2.361593027858508</v>
+      </c>
+    </row>
+    <row r="116" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L116" t="s">
+        <v>30</v>
+      </c>
+      <c r="N116" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L117">
+        <v>300</v>
+      </c>
+      <c r="M117">
+        <v>6.2254805850003549</v>
+      </c>
+    </row>
+    <row r="118" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L118">
+        <v>400</v>
+      </c>
+      <c r="M118">
+        <v>6.4032862999990243</v>
+      </c>
+    </row>
+    <row r="119" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L119">
+        <v>500</v>
+      </c>
+      <c r="M119">
+        <v>6.0686453500002813</v>
+      </c>
+    </row>
+    <row r="120" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L120">
+        <v>600</v>
+      </c>
+      <c r="M120">
+        <v>6.5238701750100176</v>
+      </c>
+    </row>
+    <row r="121" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L121">
+        <v>700</v>
+      </c>
+      <c r="M121">
+        <v>6.7236391849999109</v>
+      </c>
+      <c r="N121">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="122" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L122">
+        <v>800</v>
+      </c>
+      <c r="M122">
+        <v>6.9141552799982264</v>
+      </c>
+    </row>
+    <row r="123" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L123">
+        <v>900</v>
+      </c>
+      <c r="M123">
+        <v>6.2422685949990182</v>
+      </c>
+    </row>
+    <row r="124" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L124">
+        <v>1000</v>
+      </c>
+      <c r="M124">
         <v>7.0143041499992478</v>
+      </c>
+    </row>
+    <row r="125" spans="12:17" x14ac:dyDescent="0.2">
+      <c r="L125" t="s">
+        <v>39</v>
+      </c>
+      <c r="M125">
+        <f>AVERAGE(M118:M124)</f>
+        <v>6.5557384335722464</v>
       </c>
     </row>
   </sheetData>

--- a/USHPRR/umo_defects.xlsx
+++ b/USHPRR/umo_defects.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279EE0DF-6545-4441-A29E-A89A036FC011}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A977ED-4502-0944-8D04-7783FD80B3AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4400" yWindow="5780" windowWidth="27440" windowHeight="18980" activeTab="1" xr2:uid="{0DBEEBB1-FF5B-D846-89BD-75622B7A2B7B}"/>
+    <workbookView xWindow="12540" yWindow="5020" windowWidth="27440" windowHeight="18980" activeTab="1" xr2:uid="{0DBEEBB1-FF5B-D846-89BD-75622B7A2B7B}"/>
   </bookViews>
   <sheets>
     <sheet name="500 convergence" sheetId="3" r:id="rId1"/>
     <sheet name="defect energies" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -6518,6 +6515,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="505160368"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -13251,4012 +13249,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="4">
-          <cell r="K4">
-            <v>-4858.7299999999996</v>
-          </cell>
-          <cell r="L4">
-            <v>0.45999999999958158</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>-4859.1766666666663</v>
-          </cell>
-          <cell r="L5">
-            <v>0.51965800719725674</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>-4859.665</v>
-          </cell>
-          <cell r="L6">
-            <v>0.61113964579840829</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="K7">
-            <v>-4859.7119999999995</v>
-          </cell>
-          <cell r="L7">
-            <v>0.47571419991414615</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="K8">
-            <v>-4859.8233333333328</v>
-          </cell>
-          <cell r="L8">
-            <v>0.40405995154732061</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="K9">
-            <v>-4859.6271428571426</v>
-          </cell>
-          <cell r="L9">
-            <v>0.39383773722854098</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="K10">
-            <v>-4859.6499999999996</v>
-          </cell>
-          <cell r="L10">
-            <v>0.34183851659602016</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="K11">
-            <v>-4859.9911111111105</v>
-          </cell>
-          <cell r="L11">
-            <v>0.45523938893134669</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="K12">
-            <v>-4859.9299999999994</v>
-          </cell>
-          <cell r="L12">
-            <v>0.41173886006655003</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="K13">
-            <v>-4859.9127272727264</v>
-          </cell>
-          <cell r="L13">
-            <v>0.37283213602491955</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="K14">
-            <v>-4859.9708333333328</v>
-          </cell>
-          <cell r="L14">
-            <v>0.34527208931011516</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="K15">
-            <v>-4860.1884615384615</v>
-          </cell>
-          <cell r="L15">
-            <v>0.38501223116411409</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="K16">
-            <v>-4860.2157142857131</v>
-          </cell>
-          <cell r="L16">
-            <v>0.35749235646285643</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="K17">
-            <v>-4860.1106666666656</v>
-          </cell>
-          <cell r="L17">
-            <v>0.34899238177886616</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="K18">
-            <v>-4860.2474999999995</v>
-          </cell>
-          <cell r="L18">
-            <v>0.35396974917828716</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="K19">
-            <v>-4860.1899999999996</v>
-          </cell>
-          <cell r="L19">
-            <v>0.33743191034288617</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="K20">
-            <v>-4860.2016666666659</v>
-          </cell>
-          <cell r="L20">
-            <v>0.31834770524995193</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="K21">
-            <v>-4860.2384210526307</v>
-          </cell>
-          <cell r="L21">
-            <v>0.30336154019411293</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="K22">
-            <v>-4860.4164999999994</v>
-          </cell>
-          <cell r="L22">
-            <v>0.33843391254113159</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="K23">
-            <v>-4860.4528571428564</v>
-          </cell>
-          <cell r="L23">
-            <v>0.32396144895367962</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="K24">
-            <v>-4860.4336363636357</v>
-          </cell>
-          <cell r="L24">
-            <v>0.30948256317074468</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="K25">
-            <v>-4860.4517391304344</v>
-          </cell>
-          <cell r="L25">
-            <v>0.29627439755372043</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="K26">
-            <v>-4860.362916666666</v>
-          </cell>
-          <cell r="L26">
-            <v>0.29724244677004358</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="K27">
-            <v>-4860.4031999999997</v>
-          </cell>
-          <cell r="L27">
-            <v>0.28793675231435617</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="K28">
-            <v>-4860.4173076923071</v>
-          </cell>
-          <cell r="L28">
-            <v>0.27700017089265816</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="K29">
-            <v>-4860.3918518518512</v>
-          </cell>
-          <cell r="L29">
-            <v>0.26775634043905611</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="K30">
-            <v>-4860.3392857142853</v>
-          </cell>
-          <cell r="L30">
-            <v>0.26331672067924611</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="K31">
-            <v>-4860.3348275862063</v>
-          </cell>
-          <cell r="L31">
-            <v>0.25411375051229995</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="K32">
-            <v>-4860.3343333333332</v>
-          </cell>
-          <cell r="L32">
-            <v>0.24549770386985012</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="K33">
-            <v>-4860.3470967741941</v>
-          </cell>
-          <cell r="L33">
-            <v>0.23778918717488298</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="K34">
-            <v>-4860.3659375000007</v>
-          </cell>
-          <cell r="L34">
-            <v>0.23100798555488192</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="K35">
-            <v>-4860.4096969696975</v>
-          </cell>
-          <cell r="L35">
-            <v>0.22813451509774704</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="K36">
-            <v>-4860.3232352941186</v>
-          </cell>
-          <cell r="L36">
-            <v>0.23761205090624851</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="K37">
-            <v>-4860.2800000000007</v>
-          </cell>
-          <cell r="L37">
-            <v>0.2347392617531312</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="K38">
-            <v>-4860.2747222222224</v>
-          </cell>
-          <cell r="L38">
-            <v>0.2281866007887908</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="K39">
-            <v>-4860.2954054054062</v>
-          </cell>
-          <cell r="L39">
-            <v>0.22289542741104257</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="K40">
-            <v>-4860.2157894736847</v>
-          </cell>
-          <cell r="L40">
-            <v>0.23109782881604782</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="K41">
-            <v>-4860.2174358974362</v>
-          </cell>
-          <cell r="L41">
-            <v>0.2251002829296205</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="K42">
-            <v>-4860.1930000000002</v>
-          </cell>
-          <cell r="L42">
-            <v>0.22075720506869853</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="K43">
-            <v>-4860.1575609756092</v>
-          </cell>
-          <cell r="L43">
-            <v>0.21820268617643229</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="K44">
-            <v>-4860.160952380952</v>
-          </cell>
-          <cell r="L44">
-            <v>0.21297102187480474</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="K45">
-            <v>-4860.132790697674</v>
-          </cell>
-          <cell r="L45">
-            <v>0.20985739121866298</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="K46">
-            <v>-4860.1352272727272</v>
-          </cell>
-          <cell r="L46">
-            <v>0.20504691584953097</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="K47">
-            <v>-4860.1542222222215</v>
-          </cell>
-          <cell r="L47">
-            <v>0.20133656652252693</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="K48">
-            <v>-4860.1471739130429</v>
-          </cell>
-          <cell r="L48">
-            <v>0.19703715117053203</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="K49">
-            <v>-4860.1346808510625</v>
-          </cell>
-          <cell r="L49">
-            <v>0.19320363815632211</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="K50">
-            <v>-4860.1777083333327</v>
-          </cell>
-          <cell r="L50">
-            <v>0.19396827434511771</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="K51">
-            <v>-4860.1918367346934</v>
-          </cell>
-          <cell r="L51">
-            <v>0.19049315552485954</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="K52">
-            <v>-4860.2163999999993</v>
-          </cell>
-          <cell r="L52">
-            <v>0.18825379308859794</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="K53">
-            <v>-4860.1980392156856</v>
-          </cell>
-          <cell r="L53">
-            <v>0.18543684927026163</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="K54">
-            <v>-4860.204615384615</v>
-          </cell>
-          <cell r="L54">
-            <v>0.1819546670744405</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="K55">
-            <v>-4860.2258490566037</v>
-          </cell>
-          <cell r="L55">
-            <v>0.17974712804604914</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="K56">
-            <v>-4860.2001851851855</v>
-          </cell>
-          <cell r="L56">
-            <v>0.17824430873029448</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="K57">
-            <v>-4860.2039999999997</v>
-          </cell>
-          <cell r="L57">
-            <v>0.17501507390586624</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="K58">
-            <v>-4860.1701785714276</v>
-          </cell>
-          <cell r="L58">
-            <v>0.17515771947861489</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="K59">
-            <v>-4860.198771929824</v>
-          </cell>
-          <cell r="L59">
-            <v>0.17441705092995385</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="K60">
-            <v>-4860.1499999999996</v>
-          </cell>
-          <cell r="L60">
-            <v>0.17818809776502362</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="K61">
-            <v>-4860.1462711864397</v>
-          </cell>
-          <cell r="L61">
-            <v>0.17518161208429794</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="K62">
-            <v>-4860.1579999999985</v>
-          </cell>
-          <cell r="L62">
-            <v>0.17263605949959526</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="K63">
-            <v>-4860.155901639343</v>
-          </cell>
-          <cell r="L63">
-            <v>0.1697953408143171</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="K64">
-            <v>-4860.1780645161289</v>
-          </cell>
-          <cell r="L64">
-            <v>0.16849817833763844</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="K65">
-            <v>-4860.1514285714284</v>
-          </cell>
-          <cell r="L65">
-            <v>0.16792792463476028</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="K66">
-            <v>-4860.1520312499997</v>
-          </cell>
-          <cell r="L66">
-            <v>0.16528432388642877</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="K67">
-            <v>-4860.1218461538456</v>
-          </cell>
-          <cell r="L67">
-            <v>0.16549763133148274</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="K68">
-            <v>-4860.1093939393932</v>
-          </cell>
-          <cell r="L68">
-            <v>0.16344583140487448</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="K69">
-            <v>-4860.0994029850744</v>
-          </cell>
-          <cell r="L69">
-            <v>0.16129758219663198</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="K70">
-            <v>-4860.0932352941172</v>
-          </cell>
-          <cell r="L70">
-            <v>0.15902750453385334</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="K71">
-            <v>-4860.116231884057</v>
-          </cell>
-          <cell r="L71">
-            <v>0.15838419806430817</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="K72">
-            <v>-4860.1314285714279</v>
-          </cell>
-          <cell r="L72">
-            <v>0.15684311710628118</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="K73">
-            <v>-4860.0880281690133</v>
-          </cell>
-          <cell r="L73">
-            <v>0.16059392028381783</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="K74">
-            <v>-4860.0905555555546</v>
-          </cell>
-          <cell r="L74">
-            <v>0.15836790935654521</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="K75">
-            <v>-4860.0760273972601</v>
-          </cell>
-          <cell r="L75">
-            <v>0.15685766795303113</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="K76">
-            <v>-4860.0928378378376</v>
-          </cell>
-          <cell r="L76">
-            <v>0.15563398430405362</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="K77">
-            <v>-4860.0864000000001</v>
-          </cell>
-          <cell r="L77">
-            <v>0.15367974656572231</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="K78">
-            <v>-4860.0653947368419</v>
-          </cell>
-          <cell r="L78">
-            <v>0.15309204212183727</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="K79">
-            <v>-4860.0790909090902</v>
-          </cell>
-          <cell r="L79">
-            <v>0.15171025260563642</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="K80">
-            <v>-4860.08</v>
-          </cell>
-          <cell r="L80">
-            <v>0.14975537828964117</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="K81">
-            <v>-4860.081518987342</v>
-          </cell>
-          <cell r="L81">
-            <v>0.14785539140501452</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="K82">
-            <v>-4860.0713750000004</v>
-          </cell>
-          <cell r="L82">
-            <v>0.1463474865774323</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="K83">
-            <v>-4860.0676543209884</v>
-          </cell>
-          <cell r="L83">
-            <v>0.1445773183298856</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="K84">
-            <v>-4860.0741463414633</v>
-          </cell>
-          <cell r="L84">
-            <v>0.1429507879283356</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="K85">
-            <v>-4860.0493975903619</v>
-          </cell>
-          <cell r="L85">
-            <v>0.14337022198623645</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="K86">
-            <v>-4860.0569047619047</v>
-          </cell>
-          <cell r="L86">
-            <v>0.14185194015492469</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="K87">
-            <v>-4860.0541176470597</v>
-          </cell>
-          <cell r="L87">
-            <v>0.14020086571912943</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="K88">
-            <v>-4860.0777906976755</v>
-          </cell>
-          <cell r="L88">
-            <v>0.14056874908466738</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="K89">
-            <v>-4860.0565517241384</v>
-          </cell>
-          <cell r="L89">
-            <v>0.14055754748003049</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="K90">
-            <v>-4860.0403409090914</v>
-          </cell>
-          <cell r="L90">
-            <v>0.13989354895146225</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="K91">
-            <v>-4860.0622471910119</v>
-          </cell>
-          <cell r="L91">
-            <v>0.14003681779199434</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="K92">
-            <v>-4860.0860000000002</v>
-          </cell>
-          <cell r="L92">
-            <v>0.14049456074169719</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="K93">
-            <v>-4860.0708791208799</v>
-          </cell>
-          <cell r="L93">
-            <v>0.13976245749947194</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="K94">
-            <v>-4860.045760869566</v>
-          </cell>
-          <cell r="L94">
-            <v>0.14049850107047157</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="K95">
-            <v>-4860.0311827956994</v>
-          </cell>
-          <cell r="L95">
-            <v>0.1397420358851377</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="K96">
-            <v>-4860.0210638297885</v>
-          </cell>
-          <cell r="L96">
-            <v>0.13861725787029827</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="K97">
-            <v>-4860.0200000000004</v>
-          </cell>
-          <cell r="L97">
-            <v>0.1371544931207237</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="K98">
-            <v>-4860.011145833334</v>
-          </cell>
-          <cell r="L98">
-            <v>0.13600679402789781</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="K99">
-            <v>-4860.0356701030933</v>
-          </cell>
-          <cell r="L99">
-            <v>0.13681333597532816</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="K100">
-            <v>-4860.0593877551028</v>
-          </cell>
-          <cell r="L100">
-            <v>0.1374715177222641</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="K101">
-            <v>-4860.0548484848487</v>
-          </cell>
-          <cell r="L101">
-            <v>0.13615152196483452</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="K102">
-            <v>-4860.0340000000006</v>
-          </cell>
-          <cell r="L102">
-            <v>0.13638603856389184</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="K103">
-            <v>-4860.02801980198</v>
-          </cell>
-          <cell r="L103">
-            <v>0.13516129123955573</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="K104">
-            <v>-4860.0395098039216</v>
-          </cell>
-          <cell r="L104">
-            <v>0.13432195445304973</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="K105">
-            <v>-4860.0479611650489</v>
-          </cell>
-          <cell r="L105">
-            <v>0.13327968837236409</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="K106">
-            <v>-4860.0580769230764</v>
-          </cell>
-          <cell r="L106">
-            <v>0.13237899606155398</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="K107">
-            <v>-4860.04</v>
-          </cell>
-          <cell r="L107">
-            <v>0.13235248198344973</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="K108">
-            <v>-4860.0403773584903</v>
-          </cell>
-          <cell r="L108">
-            <v>0.13109847087627291</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="K109">
-            <v>-4860.0206542056076</v>
-          </cell>
-          <cell r="L109">
-            <v>0.13135662548252375</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="K110">
-            <v>-4860.0230555555554</v>
-          </cell>
-          <cell r="L110">
-            <v>0.13015683076276752</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="K111">
-            <v>-4860.0132110091736</v>
-          </cell>
-          <cell r="L111">
-            <v>0.12933242172705506</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="K112">
-            <v>-4860.0252727272718</v>
-          </cell>
-          <cell r="L112">
-            <v>0.12871765748194011</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="K113">
-            <v>-4860.0305405405397</v>
-          </cell>
-          <cell r="L113">
-            <v>0.1276614994477272</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="K114">
-            <v>-4860.0249999999996</v>
-          </cell>
-          <cell r="L114">
-            <v>0.12663779051740379</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="K115">
-            <v>-4860.0070796460168</v>
-          </cell>
-          <cell r="L115">
-            <v>0.12678495993357822</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="K116">
-            <v>-4859.9916666666659</v>
-          </cell>
-          <cell r="L116">
-            <v>0.12660955146829769</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="K117">
-            <v>-4859.9874782608695</v>
-          </cell>
-          <cell r="L117">
-            <v>0.12557363987295278</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="K118">
-            <v>-4859.9774999999991</v>
-          </cell>
-          <cell r="L118">
-            <v>0.12488566735236208</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="K119">
-            <v>-4859.9754700854692</v>
-          </cell>
-          <cell r="L119">
-            <v>0.12383030656327901</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="K120">
-            <v>-4859.9709322033887</v>
-          </cell>
-          <cell r="L120">
-            <v>0.12286024510572659</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="K121">
-            <v>-4859.9526050420154</v>
-          </cell>
-          <cell r="L121">
-            <v>0.12319429063784099</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="K122">
-            <v>-4859.9433333333318</v>
-          </cell>
-          <cell r="L122">
-            <v>0.12251469547327497</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="K123">
-            <v>-4859.9636363636355</v>
-          </cell>
-          <cell r="L123">
-            <v>0.12318265682371252</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="K124">
-            <v>-4859.9519672131137</v>
-          </cell>
-          <cell r="L124">
-            <v>0.12272482413764484</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="K125">
-            <v>-4859.9716260162595</v>
-          </cell>
-          <cell r="L125">
-            <v>0.12330024522654891</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="K126">
-            <v>-4859.9647580645151</v>
-          </cell>
-          <cell r="L126">
-            <v>0.12249453194118463</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="K127">
-            <v>-4859.9642399999993</v>
-          </cell>
-          <cell r="L127">
-            <v>0.1215117285723684</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="K128">
-            <v>-4859.9645238095227</v>
-          </cell>
-          <cell r="L128">
-            <v>0.1205438262996355</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="K129">
-            <v>-4859.9784251968495</v>
-          </cell>
-          <cell r="L129">
-            <v>0.12039614159555294</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="K130">
-            <v>-4859.9780468749996</v>
-          </cell>
-          <cell r="L130">
-            <v>0.11945244265201542</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="K131">
-            <v>-4859.9843410852709</v>
-          </cell>
-          <cell r="L131">
-            <v>0.11868984833949328</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="K132">
-            <v>-4859.980461538461</v>
-          </cell>
-          <cell r="L132">
-            <v>0.11783719105683503</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="K133">
-            <v>-4859.9817557251909</v>
-          </cell>
-          <cell r="L133">
-            <v>0.1169413723513722</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="K134">
-            <v>-4859.9783333333335</v>
-          </cell>
-          <cell r="L134">
-            <v>0.116102523883523</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="K135">
-            <v>-4860.0022556390977</v>
-          </cell>
-          <cell r="L135">
-            <v>0.11768334234367249</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="K136">
-            <v>-4859.9997014925375</v>
-          </cell>
-          <cell r="L136">
-            <v>0.11682972964471579</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="K137">
-            <v>-4859.9942222222226</v>
-          </cell>
-          <cell r="L137">
-            <v>0.1160904732228152</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="K138">
-            <v>-4859.9875735294117</v>
-          </cell>
-          <cell r="L138">
-            <v>0.11542535225210181</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="K139">
-            <v>-4859.9692700729929</v>
-          </cell>
-          <cell r="L139">
-            <v>0.11603246069397187</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="K140">
-            <v>-4859.9892753623189</v>
-          </cell>
-          <cell r="L140">
-            <v>0.1169128730486642</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="K141">
-            <v>-4860.0088489208629</v>
-          </cell>
-          <cell r="L141">
-            <v>0.11770757532496323</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="K142">
-            <v>-4860.0219285714284</v>
-          </cell>
-          <cell r="L142">
-            <v>0.11759345615032618</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="K143">
-            <v>-4860.0234042553184</v>
-          </cell>
-          <cell r="L143">
-            <v>0.11676580661564369</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="K144">
-            <v>-4860.0264084507035</v>
-          </cell>
-          <cell r="L144">
-            <v>0.11597951131016451</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="K145">
-            <v>-4860.022027972027</v>
-          </cell>
-          <cell r="L145">
-            <v>0.11524888853214404</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="K146">
-            <v>-4860.0245833333329</v>
-          </cell>
-          <cell r="L146">
-            <v>0.11447427528836762</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="K147">
-            <v>-4860.0231724137921</v>
-          </cell>
-          <cell r="L147">
-            <v>0.11369081144816359</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="K148">
-            <v>-4860.0185616438348</v>
-          </cell>
-          <cell r="L148">
-            <v>0.11300352554375845</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="K149">
-            <v>-4860.019387755101</v>
-          </cell>
-          <cell r="L149">
-            <v>0.11223520175671414</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="K150">
-            <v>-4860.011418918918</v>
-          </cell>
-          <cell r="L150">
-            <v>0.11175874301516683</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="K151">
-            <v>-4860.0181208053682</v>
-          </cell>
-          <cell r="L151">
-            <v>0.11120827618594789</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="K152">
-            <v>-4860.0050666666657</v>
-          </cell>
-          <cell r="L152">
-            <v>0.11123306232238866</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="K153">
-            <v>-4860.018675496688</v>
-          </cell>
-          <cell r="L153">
-            <v>0.11132886570843337</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="K154">
-            <v>-4860.0136184210523</v>
-          </cell>
-          <cell r="L154">
-            <v>0.11070957445387823</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="K155">
-            <v>-4860.0149673202613</v>
-          </cell>
-          <cell r="L155">
-            <v>0.10999187371017638</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="K156">
-            <v>-4860.0155194805184</v>
-          </cell>
-          <cell r="L156">
-            <v>0.10927670164859667</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="K157">
-            <v>-4860.0106451612901</v>
-          </cell>
-          <cell r="L157">
-            <v>0.1086787650024499</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="K158">
-            <v>-4860.0078205128193</v>
-          </cell>
-          <cell r="L158">
-            <v>0.10801679765793848</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="K159">
-            <v>-4860.0128662420375</v>
-          </cell>
-          <cell r="L159">
-            <v>0.10744512901221566</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="K160">
-            <v>-4860.0187974683531</v>
-          </cell>
-          <cell r="L160">
-            <v>0.1069275588556083</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="K161">
-            <v>-4860.0270440251561</v>
-          </cell>
-          <cell r="L161">
-            <v>0.10657246781462737</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="K162">
-            <v>-4860.0059999999994</v>
-          </cell>
-          <cell r="L162">
-            <v>0.10797486167954473</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="K163">
-            <v>-4860.0054658385088</v>
-          </cell>
-          <cell r="L163">
-            <v>0.10730344410743696</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="K164">
-            <v>-4860.0079012345677</v>
-          </cell>
-          <cell r="L164">
-            <v>0.10666682597536498</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="K165">
-            <v>-4860.0166257668707</v>
-          </cell>
-          <cell r="L165">
-            <v>0.10636881204213337</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="K166">
-            <v>-4860.0180487804873</v>
-          </cell>
-          <cell r="L166">
-            <v>0.10572780892411879</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="K167">
-            <v>-4860.0053939393938</v>
-          </cell>
-          <cell r="L167">
-            <v>0.10584431583301349</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="K168">
-            <v>-4860.0069277108432</v>
-          </cell>
-          <cell r="L168">
-            <v>0.10521594705247121</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="K169">
-            <v>-4859.9939520958087</v>
-          </cell>
-          <cell r="L169">
-            <v>0.10538587435082976</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="K170">
-            <v>-4859.9984523809526</v>
-          </cell>
-          <cell r="L170">
-            <v>0.10485331954965363</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="K171">
-            <v>-4860.0105325443792</v>
-          </cell>
-          <cell r="L171">
-            <v>0.10492873711661041</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="K172">
-            <v>-4860.0300588235295</v>
-          </cell>
-          <cell r="L172">
-            <v>0.1061215603423773</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="K173">
-            <v>-4860.0434502923972</v>
-          </cell>
-          <cell r="L173">
-            <v>0.10634566384043827</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="K174">
-            <v>-4860.0330813953487</v>
-          </cell>
-          <cell r="L174">
-            <v>0.1062328084443729</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="K175">
-            <v>-4860.0335838150286</v>
-          </cell>
-          <cell r="L175">
-            <v>0.10561815588535815</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="K176">
-            <v>-4860.0229885057461</v>
-          </cell>
-          <cell r="L176">
-            <v>0.10554257340481332</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="K177">
-            <v>-4860.0323999999991</v>
-          </cell>
-          <cell r="L177">
-            <v>0.1053589364240189</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="K178">
-            <v>-4860.0350568181811</v>
-          </cell>
-          <cell r="L178">
-            <v>0.10479228053379891</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="K179">
-            <v>-4860.0333333333328</v>
-          </cell>
-          <cell r="L179">
-            <v>0.10421280436884221</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="K180">
-            <v>-4860.0319662921347</v>
-          </cell>
-          <cell r="L180">
-            <v>0.10363470199114695</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="K181">
-            <v>-4860.0244692737424</v>
-          </cell>
-          <cell r="L181">
-            <v>0.10332644893398008</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="K182">
-            <v>-4860.0283333333327</v>
-          </cell>
-          <cell r="L182">
-            <v>0.10282344012242257</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="K183">
-            <v>-4860.0353591160219</v>
-          </cell>
-          <cell r="L183">
-            <v>0.10249486079997781</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="K184">
-            <v>-4860.0317582417574</v>
-          </cell>
-          <cell r="L184">
-            <v>0.10199373052396964</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="K185">
-            <v>-4860.0208743169396</v>
-          </cell>
-          <cell r="L185">
-            <v>0.1020171061392818</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="K186">
-            <v>-4860.0077717391305</v>
-          </cell>
-          <cell r="L186">
-            <v>0.10230367832868716</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="K187">
-            <v>-4860.0161081081078</v>
-          </cell>
-          <cell r="L187">
-            <v>0.10209011333537392</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="K188">
-            <v>-4860.0031182795701</v>
-          </cell>
-          <cell r="L188">
-            <v>0.10236727095738167</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="K189">
-            <v>-4860.0017647058821</v>
-          </cell>
-          <cell r="L189">
-            <v>0.10182737763790474</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="K190">
-            <v>-4859.984202127659</v>
-          </cell>
-          <cell r="L190">
-            <v>0.10279568303011896</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="K191">
-            <v>-4859.9760846560839</v>
-          </cell>
-          <cell r="L191">
-            <v>0.10257205365866832</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="K192">
-            <v>-4859.9700526315783</v>
-          </cell>
-          <cell r="L192">
-            <v>0.10220892264020036</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="K193">
-            <v>-4859.9831413612555</v>
-          </cell>
-          <cell r="L193">
-            <v>0.10251141185936856</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="K194">
-            <v>-4859.9897395833323</v>
-          </cell>
-          <cell r="L194">
-            <v>0.10218934201460429</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="K195">
-            <v>-4859.9959585492215</v>
-          </cell>
-          <cell r="L195">
-            <v>0.10184852992579704</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="K196">
-            <v>-4860.0168041237102</v>
-          </cell>
-          <cell r="L196">
-            <v>0.10344429230719739</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="K197">
-            <v>-4860.0173333333323</v>
-          </cell>
-          <cell r="L197">
-            <v>0.10291380219814783</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="K198">
-            <v>-4860.0210714285704</v>
-          </cell>
-          <cell r="L198">
-            <v>0.10245560039513982</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="K199">
-            <v>-4860.0189847715719</v>
-          </cell>
-          <cell r="L199">
-            <v>0.10195554981688086</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="K200">
-            <v>-4860.0119696969687</v>
-          </cell>
-          <cell r="L200">
-            <v>0.10168159162517523</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="K201">
-            <v>-4860.016532663316</v>
-          </cell>
-          <cell r="L201">
-            <v>0.10127218631726223</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="K202">
-            <v>-4860.0131499999989</v>
-          </cell>
-          <cell r="L202">
-            <v>0.1008213150845437</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="K203">
-            <v>-4860.0026865671634</v>
-          </cell>
-          <cell r="L203">
-            <v>0.10086266576201597</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="K204">
-            <v>-4860.0018811881173</v>
-          </cell>
-          <cell r="L204">
-            <v>0.10036533496064909</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="K205">
-            <v>-4859.9944827586196</v>
-          </cell>
-          <cell r="L205">
-            <v>0.10014336656263807</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="K206">
-            <v>-4859.9952450980381</v>
-          </cell>
-          <cell r="L206">
-            <v>9.9654174522620903E-2</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="K207">
-            <v>-4860.0031707317066</v>
-          </cell>
-          <cell r="L207">
-            <v>9.9483077997478672E-2</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="K208">
-            <v>-4860.0087378640765</v>
-          </cell>
-          <cell r="L208">
-            <v>9.9155380740676424E-2</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="K209">
-            <v>-4860.0080193236709</v>
-          </cell>
-          <cell r="L209">
-            <v>9.8677822709005436E-2</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="K210">
-            <v>-4859.9999999999991</v>
-          </cell>
-          <cell r="L210">
-            <v>9.8529154264407351E-2</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="K211">
-            <v>-4859.9952631578935</v>
-          </cell>
-          <cell r="L211">
-            <v>9.817093483703572E-2</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="K212">
-            <v>-4859.9942380952371</v>
-          </cell>
-          <cell r="L212">
-            <v>9.7707712985848363E-2</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="K213">
-            <v>-4859.994786729857</v>
-          </cell>
-          <cell r="L213">
-            <v>9.7245088350873643E-2</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="K214">
-            <v>-4860.0080660377353</v>
-          </cell>
-          <cell r="L214">
-            <v>9.76920362697907E-2</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="K215">
-            <v>-4860.0061971830974</v>
-          </cell>
-          <cell r="L215">
-            <v>9.7250265001367131E-2</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="K216">
-            <v>-4860.0009345794388</v>
-          </cell>
-          <cell r="L216">
-            <v>9.6937712598468326E-2</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="K217">
-            <v>-4860.0046046511625</v>
-          </cell>
-          <cell r="L217">
-            <v>9.6555560895398365E-2</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="K218">
-            <v>-4860.0097222222212</v>
-          </cell>
-          <cell r="L218">
-            <v>9.6243659626880987E-2</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="K219">
-            <v>-4860.0276036866344</v>
-          </cell>
-          <cell r="L219">
-            <v>9.745366577054268E-2</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="K220">
-            <v>-4860.0259633027508</v>
-          </cell>
-          <cell r="L220">
-            <v>9.7019469182559118E-2</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="K221">
-            <v>-4860.0094977168928</v>
-          </cell>
-          <cell r="L221">
-            <v>9.7969033274004483E-2</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="K222">
-            <v>-4860.0069545454526</v>
-          </cell>
-          <cell r="L222">
-            <v>9.755585722583314E-2</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="K223">
-            <v>-4860.0039366515821</v>
-          </cell>
-          <cell r="L223">
-            <v>9.7160305428232757E-2</v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="K224">
-            <v>-4860.0042342342331</v>
-          </cell>
-          <cell r="L224">
-            <v>9.6722113994745201E-2</v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="K225">
-            <v>-4859.9899999999989</v>
-          </cell>
-          <cell r="L225">
-            <v>9.7333847729288089E-2</v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="K226">
-            <v>-4859.986249999999</v>
-          </cell>
-          <cell r="L226">
-            <v>9.6970883352320875E-2</v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="K227">
-            <v>-4859.9740444444433</v>
-          </cell>
-          <cell r="L227">
-            <v>9.7307463493296081E-2</v>
-          </cell>
-        </row>
-        <row r="228">
-          <cell r="K228">
-            <v>-4859.9808849557512</v>
-          </cell>
-          <cell r="L228">
-            <v>9.7117150212844311E-2</v>
-          </cell>
-        </row>
-        <row r="229">
-          <cell r="K229">
-            <v>-4859.9885022026419</v>
-          </cell>
-          <cell r="L229">
-            <v>9.6987959444457608E-2</v>
-          </cell>
-        </row>
-        <row r="230">
-          <cell r="K230">
-            <v>-4859.9868859649114</v>
-          </cell>
-          <cell r="L230">
-            <v>9.6575161934524895E-2</v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="K231">
-            <v>-4859.9973799126619</v>
-          </cell>
-          <cell r="L231">
-            <v>9.6723463576627366E-2</v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="K232">
-            <v>-4859.9924782608687</v>
-          </cell>
-          <cell r="L232">
-            <v>9.642667185593351E-2</v>
-          </cell>
-        </row>
-        <row r="233">
-          <cell r="K233">
-            <v>-4859.9902597402588</v>
-          </cell>
-          <cell r="L233">
-            <v>9.6033961816846869E-2</v>
-          </cell>
-        </row>
-        <row r="234">
-          <cell r="K234">
-            <v>-4859.9925862068958</v>
-          </cell>
-          <cell r="L234">
-            <v>9.5647424276789669E-2</v>
-          </cell>
-        </row>
-        <row r="235">
-          <cell r="K235">
-            <v>-4859.9858798283249</v>
-          </cell>
-          <cell r="L235">
-            <v>9.5471870151073959E-2</v>
-          </cell>
-        </row>
-        <row r="236">
-          <cell r="K236">
-            <v>-4859.979273504272</v>
-          </cell>
-          <cell r="L236">
-            <v>9.5292269190872955E-2</v>
-          </cell>
-        </row>
-        <row r="237">
-          <cell r="K237">
-            <v>-4859.9944680851049</v>
-          </cell>
-          <cell r="L237">
-            <v>9.6094797003296026E-2</v>
-          </cell>
-        </row>
-        <row r="238">
-          <cell r="K238">
-            <v>-4859.9940677966088</v>
-          </cell>
-          <cell r="L238">
-            <v>9.5687586577056075E-2</v>
-          </cell>
-        </row>
-        <row r="239">
-          <cell r="K239">
-            <v>-4859.9919831223615</v>
-          </cell>
-          <cell r="L239">
-            <v>9.5305788412617387E-2</v>
-          </cell>
-        </row>
-        <row r="240">
-          <cell r="K240">
-            <v>-4859.985294117645</v>
-          </cell>
-          <cell r="L240">
-            <v>9.5139932381387349E-2</v>
-          </cell>
-        </row>
-        <row r="241">
-          <cell r="K241">
-            <v>-4859.9815481171536</v>
-          </cell>
-          <cell r="L241">
-            <v>9.4815049386585998E-2</v>
-          </cell>
-        </row>
-        <row r="242">
-          <cell r="K242">
-            <v>-4859.9799583333324</v>
-          </cell>
-          <cell r="L242">
-            <v>9.443254324046127E-2</v>
-          </cell>
-        </row>
-        <row r="243">
-          <cell r="K243">
-            <v>-4859.9852282157663</v>
-          </cell>
-          <cell r="L243">
-            <v>9.4187433827512879E-2</v>
-          </cell>
-        </row>
-        <row r="244">
-          <cell r="K244">
-            <v>-4859.9892561983461</v>
-          </cell>
-          <cell r="L244">
-            <v>9.388386992152134E-2</v>
-          </cell>
-        </row>
-        <row r="245">
-          <cell r="K245">
-            <v>-4859.9948971193407</v>
-          </cell>
-          <cell r="L245">
-            <v>9.3666730066014267E-2</v>
-          </cell>
-        </row>
-        <row r="246">
-          <cell r="K246">
-            <v>-4860.0010245901631</v>
-          </cell>
-          <cell r="L246">
-            <v>9.3483092821829566E-2</v>
-          </cell>
-        </row>
-        <row r="247">
-          <cell r="K247">
-            <v>-4859.9987755102029</v>
-          </cell>
-          <cell r="L247">
-            <v>9.312790937774626E-2</v>
-          </cell>
-        </row>
-        <row r="248">
-          <cell r="K248">
-            <v>-4859.9961788617875</v>
-          </cell>
-          <cell r="L248">
-            <v>9.278490964559237E-2</v>
-          </cell>
-        </row>
-        <row r="249">
-          <cell r="K249">
-            <v>-4859.995384615384</v>
-          </cell>
-          <cell r="L249">
-            <v>9.2411911914910772E-2</v>
-          </cell>
-        </row>
-        <row r="250">
-          <cell r="K250">
-            <v>-4859.9929032258051</v>
-          </cell>
-          <cell r="L250">
-            <v>9.2071972396826338E-2</v>
-          </cell>
-        </row>
-        <row r="251">
-          <cell r="K251">
-            <v>-4859.9950602409626</v>
-          </cell>
-          <cell r="L251">
-            <v>9.1726825243426582E-2</v>
-          </cell>
-        </row>
-        <row r="252">
-          <cell r="K252">
-            <v>-4859.9964399999999</v>
-          </cell>
-          <cell r="L252">
-            <v>9.1369599542090757E-2</v>
-          </cell>
-        </row>
-        <row r="253">
-          <cell r="K253">
-            <v>-4860.0018326693225</v>
-          </cell>
-          <cell r="L253">
-            <v>9.1164485726202713E-2</v>
-          </cell>
-        </row>
-        <row r="254">
-          <cell r="K254">
-            <v>-4859.999007936508</v>
-          </cell>
-          <cell r="L254">
-            <v>9.0845927513321267E-2</v>
-          </cell>
-        </row>
-        <row r="255">
-          <cell r="K255">
-            <v>-4859.9992490118575</v>
-          </cell>
-          <cell r="L255">
-            <v>9.0486461386987307E-2</v>
-          </cell>
-        </row>
-        <row r="256">
-          <cell r="K256">
-            <v>-4859.9925984251977</v>
-          </cell>
-          <cell r="L256">
-            <v>9.0374549147076461E-2</v>
-          </cell>
-        </row>
-        <row r="257">
-          <cell r="K257">
-            <v>-4859.9899215686282</v>
-          </cell>
-          <cell r="L257">
-            <v>9.0059232771041289E-2</v>
-          </cell>
-        </row>
-        <row r="258">
-          <cell r="K258">
-            <v>-4859.9993750000003</v>
-          </cell>
-          <cell r="L258">
-            <v>9.0203482186274275E-2</v>
-          </cell>
-        </row>
-        <row r="259">
-          <cell r="K259">
-            <v>-4859.9941245136188</v>
-          </cell>
-          <cell r="L259">
-            <v>9.0005085582338759E-2</v>
-          </cell>
-        </row>
-        <row r="260">
-          <cell r="K260">
-            <v>-4859.9859302325576</v>
-          </cell>
-          <cell r="L260">
-            <v>9.0029239021258478E-2</v>
-          </cell>
-        </row>
-        <row r="261">
-          <cell r="K261">
-            <v>-4859.9790347490343</v>
-          </cell>
-          <cell r="L261">
-            <v>8.9945665051227822E-2</v>
-          </cell>
-        </row>
-        <row r="262">
-          <cell r="K262">
-            <v>-4859.9850384615384</v>
-          </cell>
-          <cell r="L262">
-            <v>8.9799970731193987E-2</v>
-          </cell>
-        </row>
-        <row r="263">
-          <cell r="K263">
-            <v>-4859.9816091954017</v>
-          </cell>
-          <cell r="L263">
-            <v>8.9520954194396735E-2</v>
-          </cell>
-        </row>
-        <row r="264">
-          <cell r="K264">
-            <v>-4859.9727099236634</v>
-          </cell>
-          <cell r="L264">
-            <v>8.9621552627487097E-2</v>
-          </cell>
-        </row>
-        <row r="265">
-          <cell r="K265">
-            <v>-4859.9721673003796</v>
-          </cell>
-          <cell r="L265">
-            <v>8.9281784899791383E-2</v>
-          </cell>
-        </row>
-        <row r="266">
-          <cell r="K266">
-            <v>-4859.9708333333338</v>
-          </cell>
-          <cell r="L266">
-            <v>8.8952956235380423E-2</v>
-          </cell>
-        </row>
-        <row r="267">
-          <cell r="K267">
-            <v>-4859.9616981132076</v>
-          </cell>
-          <cell r="L267">
-            <v>8.9086265604736758E-2</v>
-          </cell>
-        </row>
-        <row r="268">
-          <cell r="K268">
-            <v>-4859.9663157894738</v>
-          </cell>
-          <cell r="L268">
-            <v>8.8870769960379459E-2</v>
-          </cell>
-        </row>
-        <row r="269">
-          <cell r="K269">
-            <v>-4859.9733333333334</v>
-          </cell>
-          <cell r="L269">
-            <v>8.8814967902163283E-2</v>
-          </cell>
-        </row>
-        <row r="270">
-          <cell r="K270">
-            <v>-4859.9668656716422</v>
-          </cell>
-          <cell r="L270">
-            <v>8.8719010163138393E-2</v>
-          </cell>
-        </row>
-        <row r="271">
-          <cell r="K271">
-            <v>-4859.9674349442384</v>
-          </cell>
-          <cell r="L271">
-            <v>8.8390417596421758E-2</v>
-          </cell>
-        </row>
-        <row r="272">
-          <cell r="K272">
-            <v>-4859.965925925927</v>
-          </cell>
-          <cell r="L272">
-            <v>8.807536533120712E-2</v>
-          </cell>
-        </row>
-        <row r="273">
-          <cell r="K273">
-            <v>-4859.9685608856098</v>
-          </cell>
-          <cell r="L273">
-            <v>8.778931464491968E-2</v>
-          </cell>
-        </row>
-        <row r="274">
-          <cell r="K274">
-            <v>-4859.9654411764714</v>
-          </cell>
-          <cell r="L274">
-            <v>8.7521583050769847E-2</v>
-          </cell>
-        </row>
-        <row r="275">
-          <cell r="K275">
-            <v>-4859.9657509157523</v>
-          </cell>
-          <cell r="L275">
-            <v>8.720095194752335E-2</v>
-          </cell>
-        </row>
-        <row r="276">
-          <cell r="K276">
-            <v>-4859.96186131387</v>
-          </cell>
-          <cell r="L276">
-            <v>8.6969140100247116E-2</v>
-          </cell>
-        </row>
-        <row r="277">
-          <cell r="K277">
-            <v>-4859.9529454545464</v>
-          </cell>
-          <cell r="L277">
-            <v>8.7109790778039556E-2</v>
-          </cell>
-        </row>
-        <row r="278">
-          <cell r="K278">
-            <v>-4859.9583695652182</v>
-          </cell>
-          <cell r="L278">
-            <v>8.6962924747789896E-2</v>
-          </cell>
-        </row>
-        <row r="279">
-          <cell r="K279">
-            <v>-4859.9593501805066</v>
-          </cell>
-          <cell r="L279">
-            <v>8.6653959147339407E-2</v>
-          </cell>
-        </row>
-        <row r="280">
-          <cell r="K280">
-            <v>-4859.9590647482019</v>
-          </cell>
-          <cell r="L280">
-            <v>8.6342163408561406E-2</v>
-          </cell>
-        </row>
-        <row r="281">
-          <cell r="K281">
-            <v>-4859.9616845878136</v>
-          </cell>
-          <cell r="L281">
-            <v>8.6072016953050903E-2</v>
-          </cell>
-        </row>
-        <row r="282">
-          <cell r="K282">
-            <v>-4859.9537500000006</v>
-          </cell>
-          <cell r="L282">
-            <v>8.6130323926552468E-2</v>
-          </cell>
-        </row>
-        <row r="283">
-          <cell r="K283">
-            <v>-4859.9507829181503</v>
-          </cell>
-          <cell r="L283">
-            <v>8.5874536631428702E-2</v>
-          </cell>
-        </row>
-        <row r="284">
-          <cell r="K284">
-            <v>-4859.9523049645395</v>
-          </cell>
-          <cell r="L284">
-            <v>8.5583010592289968E-2</v>
-          </cell>
-        </row>
-        <row r="285">
-          <cell r="K285">
-            <v>-4859.9542756183746</v>
-          </cell>
-          <cell r="L285">
-            <v>8.5302826852482139E-2</v>
-          </cell>
-        </row>
-        <row r="286">
-          <cell r="K286">
-            <v>-4859.9553169014089</v>
-          </cell>
-          <cell r="L286">
-            <v>8.5008311785953874E-2</v>
-          </cell>
-        </row>
-        <row r="287">
-          <cell r="K287">
-            <v>-4859.9542456140352</v>
-          </cell>
-          <cell r="L287">
-            <v>8.4716285675474928E-2</v>
-          </cell>
-        </row>
-        <row r="288">
-          <cell r="K288">
-            <v>-4859.9575524475522</v>
-          </cell>
-          <cell r="L288">
-            <v>8.4484297067001321E-2</v>
-          </cell>
-        </row>
-        <row r="289">
-          <cell r="K289">
-            <v>-4859.9611149825778</v>
-          </cell>
-          <cell r="L289">
-            <v>8.4264753952210114E-2</v>
-          </cell>
-        </row>
-        <row r="290">
-          <cell r="K290">
-            <v>-4859.9689583333329</v>
-          </cell>
-          <cell r="L290">
-            <v>8.4337165848231643E-2</v>
-          </cell>
-        </row>
-        <row r="291">
-          <cell r="K291">
-            <v>-4859.9618685121095</v>
-          </cell>
-          <cell r="L291">
-            <v>8.4343345159453978E-2</v>
-          </cell>
-        </row>
-        <row r="292">
-          <cell r="K292">
-            <v>-4859.9617931034472</v>
-          </cell>
-          <cell r="L292">
-            <v>8.4052036681903253E-2</v>
-          </cell>
-        </row>
-        <row r="293">
-          <cell r="K293">
-            <v>-4859.9602061855658</v>
-          </cell>
-          <cell r="L293">
-            <v>8.3777731117374882E-2</v>
-          </cell>
-        </row>
-        <row r="294">
-          <cell r="K294">
-            <v>-4859.9571575342461</v>
-          </cell>
-          <cell r="L294">
-            <v>8.3545970351654994E-2</v>
-          </cell>
-        </row>
-        <row r="295">
-          <cell r="K295">
-            <v>-4859.9647781569956</v>
-          </cell>
-          <cell r="L295">
-            <v>8.3608363728988846E-2</v>
-          </cell>
-        </row>
-        <row r="296">
-          <cell r="K296">
-            <v>-4859.9583673469378</v>
-          </cell>
-          <cell r="L296">
-            <v>8.3569752374597836E-2</v>
-          </cell>
-        </row>
-        <row r="297">
-          <cell r="K297">
-            <v>-4859.9598305084737</v>
-          </cell>
-          <cell r="L297">
-            <v>8.3298834657186863E-2</v>
-          </cell>
-        </row>
-        <row r="298">
-          <cell r="K298">
-            <v>-4859.9577702702691</v>
-          </cell>
-          <cell r="L298">
-            <v>8.304250331366958E-2</v>
-          </cell>
-        </row>
-        <row r="299">
-          <cell r="K299">
-            <v>-4859.9489898989896</v>
-          </cell>
-          <cell r="L299">
-            <v>8.32268837560588E-2</v>
-          </cell>
-        </row>
-        <row r="300">
-          <cell r="K300">
-            <v>-4859.9508724832212</v>
-          </cell>
-          <cell r="L300">
-            <v>8.296848973257466E-2</v>
-          </cell>
-        </row>
-        <row r="301">
-          <cell r="K301">
-            <v>-4859.9537123745813</v>
-          </cell>
-          <cell r="L301">
-            <v>8.2739289247810571E-2</v>
-          </cell>
-        </row>
-        <row r="302">
-          <cell r="K302">
-            <v>-4859.9556999999995</v>
-          </cell>
-          <cell r="L302">
-            <v>8.2486981034183948E-2</v>
-          </cell>
-        </row>
-        <row r="303">
-          <cell r="K303">
-            <v>-4859.9507308970096</v>
-          </cell>
-          <cell r="L303">
-            <v>8.2362516015031126E-2</v>
-          </cell>
-        </row>
-        <row r="304">
-          <cell r="K304">
-            <v>-4859.9551324503309</v>
-          </cell>
-          <cell r="L304">
-            <v>8.2207258306798731E-2</v>
-          </cell>
-        </row>
-        <row r="305">
-          <cell r="K305">
-            <v>-4859.9595709570958</v>
-          </cell>
-          <cell r="L305">
-            <v>8.2055628569714809E-2</v>
-          </cell>
-        </row>
-        <row r="306">
-          <cell r="K306">
-            <v>-4859.9571710526316</v>
-          </cell>
-          <cell r="L306">
-            <v>8.1820467113339027E-2</v>
-          </cell>
-        </row>
-        <row r="307">
-          <cell r="K307">
-            <v>-4859.9549836065571</v>
-          </cell>
-          <cell r="L307">
-            <v>8.1581093494561024E-2</v>
-          </cell>
-        </row>
-        <row r="308">
-          <cell r="K308">
-            <v>-4859.9479411764705</v>
-          </cell>
-          <cell r="L308">
-            <v>8.1618446456045851E-2</v>
-          </cell>
-        </row>
-        <row r="309">
-          <cell r="K309">
-            <v>-4859.9497394136806</v>
-          </cell>
-          <cell r="L309">
-            <v>8.1372025927683472E-2</v>
-          </cell>
-        </row>
-        <row r="310">
-          <cell r="K310">
-            <v>-4859.9453896103905</v>
-          </cell>
-          <cell r="L310">
-            <v>8.1223957336927471E-2</v>
-          </cell>
-        </row>
-        <row r="311">
-          <cell r="K311">
-            <v>-4859.9457605178004</v>
-          </cell>
-          <cell r="L311">
-            <v>8.0961519530377959E-2</v>
-          </cell>
-        </row>
-        <row r="312">
-          <cell r="K312">
-            <v>-4859.9469677419365</v>
-          </cell>
-          <cell r="L312">
-            <v>8.0708959919383427E-2</v>
-          </cell>
-        </row>
-        <row r="313">
-          <cell r="K313">
-            <v>-4859.9414790996798</v>
-          </cell>
-          <cell r="L313">
-            <v>8.0636041197903838E-2</v>
-          </cell>
-        </row>
-        <row r="314">
-          <cell r="K314">
-            <v>-4859.9479487179497</v>
-          </cell>
-          <cell r="L314">
-            <v>8.0637128646807152E-2</v>
-          </cell>
-        </row>
-        <row r="315">
-          <cell r="K315">
-            <v>-4859.948306709266</v>
-          </cell>
-          <cell r="L315">
-            <v>8.0379886378020446E-2</v>
-          </cell>
-        </row>
-        <row r="316">
-          <cell r="K316">
-            <v>-4859.9538535031852</v>
-          </cell>
-          <cell r="L316">
-            <v>8.0315257959931941E-2</v>
-          </cell>
-        </row>
-        <row r="317">
-          <cell r="K317">
-            <v>-4859.9543492063503</v>
-          </cell>
-          <cell r="L317">
-            <v>8.0061417481056316E-2</v>
-          </cell>
-        </row>
-        <row r="318">
-          <cell r="K318">
-            <v>-4859.9528164556968</v>
-          </cell>
-          <cell r="L318">
-            <v>7.9822373716488371E-2</v>
-          </cell>
-        </row>
-        <row r="319">
-          <cell r="K319">
-            <v>-4859.9587381703486</v>
-          </cell>
-          <cell r="L319">
-            <v>7.9790216251575105E-2</v>
-          </cell>
-        </row>
-        <row r="320">
-          <cell r="K320">
-            <v>-4859.9590251572345</v>
-          </cell>
-          <cell r="L320">
-            <v>7.953942560123356E-2</v>
-          </cell>
-        </row>
-        <row r="321">
-          <cell r="K321">
-            <v>-4859.9588714733554</v>
-          </cell>
-          <cell r="L321">
-            <v>7.9289842603600891E-2</v>
-          </cell>
-        </row>
-        <row r="322">
-          <cell r="K322">
-            <v>-4859.959062500001</v>
-          </cell>
-          <cell r="L322">
-            <v>7.9041904308142452E-2</v>
-          </cell>
-        </row>
-        <row r="323">
-          <cell r="K323">
-            <v>-4859.961838006232</v>
-          </cell>
-          <cell r="L323">
-            <v>7.8844150536086607E-2</v>
-          </cell>
-        </row>
-        <row r="324">
-          <cell r="K324">
-            <v>-4859.957608695654</v>
-          </cell>
-          <cell r="L324">
-            <v>7.8712616276826505E-2</v>
-          </cell>
-        </row>
-        <row r="325">
-          <cell r="K325">
-            <v>-4859.9668730650174</v>
-          </cell>
-          <cell r="L325">
-            <v>7.9013550623914103E-2</v>
-          </cell>
-        </row>
-        <row r="326">
-          <cell r="K326">
-            <v>-4859.9571604938292</v>
-          </cell>
-          <cell r="L326">
-            <v>7.9365844749198805E-2</v>
-          </cell>
-        </row>
-        <row r="327">
-          <cell r="K327">
-            <v>-4859.9577846153861</v>
-          </cell>
-          <cell r="L327">
-            <v>7.9123726841681313E-2</v>
-          </cell>
-        </row>
-        <row r="328">
-          <cell r="K328">
-            <v>-4859.9573006134988</v>
-          </cell>
-          <cell r="L328">
-            <v>7.8882127494953311E-2</v>
-          </cell>
-        </row>
-        <row r="329">
-          <cell r="K329">
-            <v>-4859.9582874617754</v>
-          </cell>
-          <cell r="L329">
-            <v>7.8646719424433506E-2</v>
-          </cell>
-        </row>
-        <row r="330">
-          <cell r="K330">
-            <v>-4859.9553658536606</v>
-          </cell>
-          <cell r="L330">
-            <v>7.8460990223247373E-2</v>
-          </cell>
-        </row>
-        <row r="331">
-          <cell r="K331">
-            <v>-4859.9579331307013</v>
-          </cell>
-          <cell r="L331">
-            <v>7.8264261536527366E-2</v>
-          </cell>
-        </row>
-        <row r="332">
-          <cell r="K332">
-            <v>-4859.9513030303051</v>
-          </cell>
-          <cell r="L332">
-            <v>7.830791701570658E-2</v>
-          </cell>
-        </row>
-        <row r="333">
-          <cell r="K333">
-            <v>-4859.9539577039295</v>
-          </cell>
-          <cell r="L333">
-            <v>7.8116099590146496E-2</v>
-          </cell>
-        </row>
-        <row r="334">
-          <cell r="K334">
-            <v>-4859.957379518075</v>
-          </cell>
-          <cell r="L334">
-            <v>7.7955590164985225E-2</v>
-          </cell>
-        </row>
-        <row r="335">
-          <cell r="K335">
-            <v>-4859.9579879879902</v>
-          </cell>
-          <cell r="L335">
-            <v>7.7723518515559115E-2</v>
-          </cell>
-        </row>
-        <row r="336">
-          <cell r="K336">
-            <v>-4859.9599700598828</v>
-          </cell>
-          <cell r="L336">
-            <v>7.7515808801124853E-2</v>
-          </cell>
-        </row>
-        <row r="337">
-          <cell r="K337">
-            <v>-4859.9562388059721</v>
-          </cell>
-          <cell r="L337">
-            <v>7.7374091467021275E-2</v>
-          </cell>
-        </row>
-        <row r="338">
-          <cell r="K338">
-            <v>-4859.9521130952407</v>
-          </cell>
-          <cell r="L338">
-            <v>7.7253712548616571E-2</v>
-          </cell>
-        </row>
-        <row r="339">
-          <cell r="K339">
-            <v>-4859.9505934718127</v>
-          </cell>
-          <cell r="L339">
-            <v>7.7039120922755083E-2</v>
-          </cell>
-        </row>
-        <row r="340">
-          <cell r="K340">
-            <v>-4859.9479585798845</v>
-          </cell>
-          <cell r="L340">
-            <v>7.6856036263141456E-2</v>
-          </cell>
-        </row>
-        <row r="341">
-          <cell r="K341">
-            <v>-4859.9489675516252</v>
-          </cell>
-          <cell r="L341">
-            <v>7.6635629178986961E-2</v>
-          </cell>
-        </row>
-        <row r="342">
-          <cell r="K342">
-            <v>-4859.9496470588256</v>
-          </cell>
-          <cell r="L342">
-            <v>7.6412919164412119E-2</v>
-          </cell>
-        </row>
-        <row r="343">
-          <cell r="K343">
-            <v>-4859.9492082111465</v>
-          </cell>
-          <cell r="L343">
-            <v>7.6189768696568877E-2</v>
-          </cell>
-        </row>
-        <row r="344">
-          <cell r="K344">
-            <v>-4859.9460526315816</v>
-          </cell>
-          <cell r="L344">
-            <v>7.6032176509456109E-2</v>
-          </cell>
-        </row>
-        <row r="345">
-          <cell r="K345">
-            <v>-4859.9486880466502</v>
-          </cell>
-          <cell r="L345">
-            <v>7.5855978360725704E-2</v>
-          </cell>
-        </row>
-        <row r="346">
-          <cell r="K346">
-            <v>-4859.94514534884</v>
-          </cell>
-          <cell r="L346">
-            <v>7.5718068648307713E-2</v>
-          </cell>
-        </row>
-        <row r="347">
-          <cell r="K347">
-            <v>-4859.9380869565248</v>
-          </cell>
-          <cell r="L347">
-            <v>7.5827506418317966E-2</v>
-          </cell>
-        </row>
-        <row r="348">
-          <cell r="K348">
-            <v>-4859.9352312138753</v>
-          </cell>
-          <cell r="L348">
-            <v>7.5661946152115467E-2</v>
-          </cell>
-        </row>
-        <row r="349">
-          <cell r="K349">
-            <v>-4859.9318731988506</v>
-          </cell>
-          <cell r="L349">
-            <v>7.5518281216718192E-2</v>
-          </cell>
-        </row>
-        <row r="350">
-          <cell r="K350">
-            <v>-4859.9300862068994</v>
-          </cell>
-          <cell r="L350">
-            <v>7.5322162834276188E-2</v>
-          </cell>
-        </row>
-        <row r="351">
-          <cell r="K351">
-            <v>-4859.9288252149026</v>
-          </cell>
-          <cell r="L351">
-            <v>7.5116614888101771E-2</v>
-          </cell>
-        </row>
-        <row r="352">
-          <cell r="K352">
-            <v>-4859.9302285714311</v>
-          </cell>
-          <cell r="L352">
-            <v>7.4914833987165044E-2</v>
-          </cell>
-        </row>
-        <row r="353">
-          <cell r="K353">
-            <v>-4859.9330199430224</v>
-          </cell>
-          <cell r="L353">
-            <v>7.4753231199522346E-2</v>
-          </cell>
-        </row>
-        <row r="354">
-          <cell r="K354">
-            <v>-4859.9343465909114</v>
-          </cell>
-          <cell r="L354">
-            <v>7.4552366229674177E-2</v>
-          </cell>
-        </row>
-        <row r="355">
-          <cell r="K355">
-            <v>-4859.9233711048182</v>
-          </cell>
-          <cell r="L355">
-            <v>7.5146697911928115E-2</v>
-          </cell>
-        </row>
-        <row r="356">
-          <cell r="K356">
-            <v>-4859.9176553672341</v>
-          </cell>
-          <cell r="L356">
-            <v>7.5151791464565618E-2</v>
-          </cell>
-        </row>
-        <row r="357">
-          <cell r="K357">
-            <v>-4859.915802816904</v>
-          </cell>
-          <cell r="L357">
-            <v>7.4962691773514639E-2</v>
-          </cell>
-        </row>
-        <row r="358">
-          <cell r="K358">
-            <v>-4859.9192415730358</v>
-          </cell>
-          <cell r="L358">
-            <v>7.4830879386586724E-2</v>
-          </cell>
-        </row>
-        <row r="359">
-          <cell r="K359">
-            <v>-4859.9272829131669</v>
-          </cell>
-          <cell r="L359">
-            <v>7.5053001364154284E-2</v>
-          </cell>
-        </row>
-        <row r="360">
-          <cell r="K360">
-            <v>-4859.9248882681586</v>
-          </cell>
-          <cell r="L360">
-            <v>7.4881361681235548E-2</v>
-          </cell>
-        </row>
-        <row r="361">
-          <cell r="K361">
-            <v>-4859.9178272980516</v>
-          </cell>
-          <cell r="L361">
-            <v>7.5005584065240841E-2</v>
-          </cell>
-        </row>
-        <row r="362">
-          <cell r="K362">
-            <v>-4859.9090000000015</v>
-          </cell>
-          <cell r="L362">
-            <v>7.5316028694249249E-2</v>
-          </cell>
-        </row>
-        <row r="363">
-          <cell r="K363">
-            <v>-4859.9156509695313</v>
-          </cell>
-          <cell r="L363">
-            <v>7.5401014303547106E-2</v>
-          </cell>
-        </row>
-        <row r="364">
-          <cell r="K364">
-            <v>-4859.9163812154711</v>
-          </cell>
-          <cell r="L364">
-            <v>7.5195981596815592E-2</v>
-          </cell>
-        </row>
-        <row r="365">
-          <cell r="K365">
-            <v>-4859.9221763085416</v>
-          </cell>
-          <cell r="L365">
-            <v>7.5212132243307403E-2</v>
-          </cell>
-        </row>
-        <row r="366">
-          <cell r="K366">
-            <v>-4859.9191208791226</v>
-          </cell>
-          <cell r="L366">
-            <v>7.506742842667094E-2</v>
-          </cell>
-        </row>
-        <row r="367">
-          <cell r="K367">
-            <v>-4859.9221643835635</v>
-          </cell>
-          <cell r="L367">
-            <v>7.4923323248028653E-2</v>
-          </cell>
-        </row>
-        <row r="368">
-          <cell r="K368">
-            <v>-4859.9222950819694</v>
-          </cell>
-          <cell r="L368">
-            <v>7.4718448601085258E-2</v>
-          </cell>
-        </row>
-        <row r="369">
-          <cell r="K369">
-            <v>-4859.9227792915553</v>
-          </cell>
-          <cell r="L369">
-            <v>7.4516151191095101E-2</v>
-          </cell>
-        </row>
-        <row r="370">
-          <cell r="K370">
-            <v>-4859.9200271739155</v>
-          </cell>
-          <cell r="L370">
-            <v>7.436432919951437E-2</v>
-          </cell>
-        </row>
-        <row r="371">
-          <cell r="K371">
-            <v>-4859.9202439024411</v>
-          </cell>
-          <cell r="L371">
-            <v>7.4162842711679347E-2</v>
-          </cell>
-        </row>
-        <row r="372">
-          <cell r="K372">
-            <v>-4859.9175405405422</v>
-          </cell>
-          <cell r="L372">
-            <v>7.4011519286682287E-2</v>
-          </cell>
-        </row>
-        <row r="373">
-          <cell r="K373">
-            <v>-4859.9156064690042</v>
-          </cell>
-          <cell r="L373">
-            <v>7.3837092391952797E-2</v>
-          </cell>
-        </row>
-        <row r="374">
-          <cell r="K374">
-            <v>-4859.9105645161308</v>
-          </cell>
-          <cell r="L374">
-            <v>7.3810745316581911E-2</v>
-          </cell>
-        </row>
-        <row r="375">
-          <cell r="K375">
-            <v>-4859.9182573726557</v>
-          </cell>
-          <cell r="L375">
-            <v>7.4013473296304033E-2</v>
-          </cell>
-        </row>
-        <row r="376">
-          <cell r="K376">
-            <v>-4859.917245989307</v>
-          </cell>
-          <cell r="L376">
-            <v>7.3822239459893774E-2</v>
-          </cell>
-        </row>
-        <row r="377">
-          <cell r="K377">
-            <v>-4859.9210666666686</v>
-          </cell>
-          <cell r="L377">
-            <v>7.3724184802794676E-2</v>
-          </cell>
-        </row>
-        <row r="378">
-          <cell r="K378">
-            <v>-4859.9244414893637</v>
-          </cell>
-          <cell r="L378">
-            <v>7.3605257420572306E-2</v>
-          </cell>
-        </row>
-        <row r="379">
-          <cell r="K379">
-            <v>-4859.9234748010631</v>
-          </cell>
-          <cell r="L379">
-            <v>7.3416122971826633E-2</v>
-          </cell>
-        </row>
-        <row r="380">
-          <cell r="K380">
-            <v>-4859.9230158730179</v>
-          </cell>
-          <cell r="L380">
-            <v>7.3223081021602174E-2</v>
-          </cell>
-        </row>
-        <row r="381">
-          <cell r="K381">
-            <v>-4859.9274142480235</v>
-          </cell>
-          <cell r="L381">
-            <v>7.316195589163059E-2</v>
-          </cell>
-        </row>
-        <row r="382">
-          <cell r="K382">
-            <v>-4859.9205526315818</v>
-          </cell>
-          <cell r="L382">
-            <v>7.3291074581420548E-2</v>
-          </cell>
-        </row>
-        <row r="383">
-          <cell r="K383">
-            <v>-4859.9155380577458</v>
-          </cell>
-          <cell r="L383">
-            <v>7.327025511930281E-2</v>
-          </cell>
-        </row>
-        <row r="384">
-          <cell r="K384">
-            <v>-4859.9103403141389</v>
-          </cell>
-          <cell r="L384">
-            <v>7.3262810043321552E-2</v>
-          </cell>
-        </row>
-        <row r="385">
-          <cell r="K385">
-            <v>-4859.9144125326393</v>
-          </cell>
-          <cell r="L385">
-            <v>7.3184656145416555E-2</v>
-          </cell>
-        </row>
-        <row r="386">
-          <cell r="K386">
-            <v>-4859.9171093750019</v>
-          </cell>
-          <cell r="L386">
-            <v>7.3043624309834396E-2</v>
-          </cell>
-        </row>
-        <row r="387">
-          <cell r="K387">
-            <v>-4859.9189870129894</v>
-          </cell>
-          <cell r="L387">
-            <v>7.2877845491395518E-2</v>
-          </cell>
-        </row>
-        <row r="388">
-          <cell r="K388">
-            <v>-4859.9174611398985</v>
-          </cell>
-          <cell r="L388">
-            <v>7.2704811277629358E-2</v>
-          </cell>
-        </row>
-        <row r="389">
-          <cell r="K389">
-            <v>-4859.9167958656353</v>
-          </cell>
-          <cell r="L389">
-            <v>7.2519751772457119E-2</v>
-          </cell>
-        </row>
-        <row r="390">
-          <cell r="K390">
-            <v>-4859.9140463917547</v>
-          </cell>
-          <cell r="L390">
-            <v>7.2384840724143848E-2</v>
-          </cell>
-        </row>
-        <row r="391">
-          <cell r="K391">
-            <v>-4859.9172750642692</v>
-          </cell>
-          <cell r="L391">
-            <v>7.2270677694887639E-2</v>
-          </cell>
-        </row>
-        <row r="392">
-          <cell r="K392">
-            <v>-4859.9205641025655</v>
-          </cell>
-          <cell r="L392">
-            <v>7.2160125770532144E-2</v>
-          </cell>
-        </row>
-        <row r="393">
-          <cell r="K393">
-            <v>-4859.9219437340171</v>
-          </cell>
-          <cell r="L393">
-            <v>7.1988557664850822E-2</v>
-          </cell>
-        </row>
-        <row r="394">
-          <cell r="K394">
-            <v>-4859.9261734693901</v>
-          </cell>
-          <cell r="L394">
-            <v>7.1929149323065947E-2</v>
-          </cell>
-        </row>
-        <row r="395">
-          <cell r="K395">
-            <v>-4859.9250890585263</v>
-          </cell>
-          <cell r="L395">
-            <v>7.1754084799628373E-2</v>
-          </cell>
-        </row>
-        <row r="396">
-          <cell r="K396">
-            <v>-4859.9281979695452</v>
-          </cell>
-          <cell r="L396">
-            <v>7.1639226270537509E-2</v>
-          </cell>
-        </row>
-        <row r="397">
-          <cell r="K397">
-            <v>-4859.9237468354449</v>
-          </cell>
-          <cell r="L397">
-            <v>7.1596128528545022E-2</v>
-          </cell>
-        </row>
-        <row r="398">
-          <cell r="K398">
-            <v>-4859.9188131313149</v>
-          </cell>
-          <cell r="L398">
-            <v>7.1585320698054206E-2</v>
-          </cell>
-        </row>
-        <row r="399">
-          <cell r="K399">
-            <v>-4859.9211335012615</v>
-          </cell>
-          <cell r="L399">
-            <v>7.1442468785090599E-2</v>
-          </cell>
-        </row>
-        <row r="400">
-          <cell r="K400">
-            <v>-4859.9166582914586</v>
-          </cell>
-          <cell r="L400">
-            <v>7.1403119506667598E-2</v>
-          </cell>
-        </row>
-        <row r="401">
-          <cell r="K401">
-            <v>-4859.91471177945</v>
-          </cell>
-          <cell r="L401">
-            <v>7.125053310055994E-2</v>
-          </cell>
-        </row>
-        <row r="402">
-          <cell r="K402">
-            <v>-4859.9213250000012</v>
-          </cell>
-          <cell r="L402">
-            <v>7.1379198376274849E-2</v>
-          </cell>
-        </row>
-        <row r="403">
-          <cell r="K403">
-            <v>-4859.9216708229442</v>
-          </cell>
-          <cell r="L403">
-            <v>7.1201812709341755E-2</v>
-          </cell>
-        </row>
-        <row r="404">
-          <cell r="K404">
-            <v>-4859.9195273631858</v>
-          </cell>
-          <cell r="L404">
-            <v>7.1056809484110292E-2</v>
-          </cell>
-        </row>
-        <row r="405">
-          <cell r="K405">
-            <v>-4859.9162531017391</v>
-          </cell>
-          <cell r="L405">
-            <v>7.0955856290136329E-2</v>
-          </cell>
-        </row>
-        <row r="406">
-          <cell r="K406">
-            <v>-4859.9226732673287</v>
-          </cell>
-          <cell r="L406">
-            <v>7.1070582132073734E-2</v>
-          </cell>
-        </row>
-        <row r="407">
-          <cell r="K407">
-            <v>-4859.9232839506185</v>
-          </cell>
-          <cell r="L407">
-            <v>7.0897512172714103E-2</v>
-          </cell>
-        </row>
-        <row r="408">
-          <cell r="K408">
-            <v>-4859.9183990147794</v>
-          </cell>
-          <cell r="L408">
-            <v>7.0891176865428632E-2</v>
-          </cell>
-        </row>
-        <row r="409">
-          <cell r="K409">
-            <v>-4859.9199754299771</v>
-          </cell>
-          <cell r="L409">
-            <v>7.073435106669905E-2</v>
-          </cell>
-        </row>
-        <row r="410">
-          <cell r="K410">
-            <v>-4859.9262254901978</v>
-          </cell>
-          <cell r="L410">
-            <v>7.0837034493544601E-2</v>
-          </cell>
-        </row>
-        <row r="411">
-          <cell r="K411">
-            <v>-4859.9312469437664</v>
-          </cell>
-          <cell r="L411">
-            <v>7.0841817555698697E-2</v>
-          </cell>
-        </row>
-        <row r="412">
-          <cell r="K412">
-            <v>-4859.9308536585377</v>
-          </cell>
-          <cell r="L412">
-            <v>7.0669915750516274E-2</v>
-          </cell>
-        </row>
-        <row r="413">
-          <cell r="K413">
-            <v>-4859.9354987834568</v>
-          </cell>
-          <cell r="L413">
-            <v>7.065062859793228E-2</v>
-          </cell>
-        </row>
-        <row r="414">
-          <cell r="K414">
-            <v>-4859.9400000000014</v>
-          </cell>
-          <cell r="L414">
-            <v>7.0622529225354877E-2</v>
-          </cell>
-        </row>
-        <row r="415">
-          <cell r="K415">
-            <v>-4859.9419612590818</v>
-          </cell>
-          <cell r="L415">
-            <v>7.0478616809450861E-2</v>
-          </cell>
-        </row>
-        <row r="416">
-          <cell r="K416">
-            <v>-4859.9439855072478</v>
-          </cell>
-          <cell r="L416">
-            <v>7.0337306613207987E-2</v>
-          </cell>
-        </row>
-        <row r="417">
-          <cell r="K417">
-            <v>-4859.9430120481948</v>
-          </cell>
-          <cell r="L417">
-            <v>7.0174366670570934E-2</v>
-          </cell>
-        </row>
-        <row r="418">
-          <cell r="K418">
-            <v>-4859.9446634615397</v>
-          </cell>
-          <cell r="L418">
-            <v>7.0024950574723369E-2</v>
-          </cell>
-        </row>
-        <row r="419">
-          <cell r="K419">
-            <v>-4859.9410311750617</v>
-          </cell>
-          <cell r="L419">
-            <v>6.995119193154864E-2</v>
-          </cell>
-        </row>
-        <row r="420">
-          <cell r="K420">
-            <v>-4859.9396411483267</v>
-          </cell>
-          <cell r="L420">
-            <v>6.9797486587214727E-2</v>
-          </cell>
-        </row>
-        <row r="421">
-          <cell r="K421">
-            <v>-4859.9402386634856</v>
-          </cell>
-          <cell r="L421">
-            <v>6.9633269865612066E-2</v>
-          </cell>
-        </row>
-        <row r="422">
-          <cell r="K422">
-            <v>-4859.9375476190489</v>
-          </cell>
-          <cell r="L422">
-            <v>6.9519382227749865E-2</v>
-          </cell>
-        </row>
-        <row r="423">
-          <cell r="K423">
-            <v>-4859.9360570071276</v>
-          </cell>
-          <cell r="L423">
-            <v>6.9370073323511278E-2</v>
-          </cell>
-        </row>
-        <row r="424">
-          <cell r="K424">
-            <v>-4859.9337440758309</v>
-          </cell>
-          <cell r="L424">
-            <v>6.9244133726256568E-2</v>
-          </cell>
-        </row>
-        <row r="425">
-          <cell r="K425">
-            <v>-4859.935886524825</v>
-          </cell>
-          <cell r="L425">
-            <v>6.9113456939732712E-2</v>
-          </cell>
-        </row>
-        <row r="426">
-          <cell r="K426">
-            <v>-4859.9373820754736</v>
-          </cell>
-          <cell r="L426">
-            <v>6.8966478378769541E-2</v>
-          </cell>
-        </row>
-        <row r="427">
-          <cell r="K427">
-            <v>-4859.9364235294142</v>
-          </cell>
-          <cell r="L427">
-            <v>6.8810689639642125E-2</v>
-          </cell>
-        </row>
-        <row r="428">
-          <cell r="K428">
-            <v>-4859.9382863849787</v>
-          </cell>
-          <cell r="L428">
-            <v>6.8674242699789306E-2</v>
-          </cell>
-        </row>
-        <row r="429">
-          <cell r="K429">
-            <v>-4859.9408665105411</v>
-          </cell>
-          <cell r="L429">
-            <v>6.856178932330094E-2</v>
-          </cell>
-        </row>
-        <row r="430">
-          <cell r="K430">
-            <v>-4859.9406308411235</v>
-          </cell>
-          <cell r="L430">
-            <v>6.8401816634214019E-2</v>
-          </cell>
-        </row>
-        <row r="431">
-          <cell r="K431">
-            <v>-4859.9415850815876</v>
-          </cell>
-          <cell r="L431">
-            <v>6.8248856888562123E-2</v>
-          </cell>
-        </row>
-        <row r="432">
-          <cell r="K432">
-            <v>-4859.9411395348861</v>
-          </cell>
-          <cell r="L432">
-            <v>6.8091411332256546E-2</v>
-          </cell>
-        </row>
-        <row r="433">
-          <cell r="K433">
-            <v>-4859.9470997679837</v>
-          </cell>
-          <cell r="L433">
-            <v>6.819420702401531E-2</v>
-          </cell>
-        </row>
-        <row r="434">
-          <cell r="K434">
-            <v>-4859.9553009259289</v>
-          </cell>
-          <cell r="L434">
-            <v>6.85286728512077E-2</v>
-          </cell>
-        </row>
-        <row r="435">
-          <cell r="K435">
-            <v>-4859.9618244803723</v>
-          </cell>
-          <cell r="L435">
-            <v>6.8680742623722119E-2</v>
-          </cell>
-        </row>
-        <row r="436">
-          <cell r="K436">
-            <v>-4859.957258064519</v>
-          </cell>
-          <cell r="L436">
-            <v>6.8674296714716546E-2</v>
-          </cell>
-        </row>
-        <row r="437">
-          <cell r="K437">
-            <v>-4859.9577471264392</v>
-          </cell>
-          <cell r="L437">
-            <v>6.8517988302587027E-2</v>
-          </cell>
-        </row>
-        <row r="438">
-          <cell r="K438">
-            <v>-4859.9566972477087</v>
-          </cell>
-          <cell r="L438">
-            <v>6.8368717830257136E-2</v>
-          </cell>
-        </row>
-        <row r="439">
-          <cell r="K439">
-            <v>-4859.9610983981711</v>
-          </cell>
-          <cell r="L439">
-            <v>6.8353925345347552E-2</v>
-          </cell>
-        </row>
-        <row r="440">
-          <cell r="K440">
-            <v>-4859.9635844748873</v>
-          </cell>
-          <cell r="L440">
-            <v>6.8242986240881556E-2</v>
-          </cell>
-        </row>
-        <row r="441">
-          <cell r="K441">
-            <v>-4859.9638496583166</v>
-          </cell>
-          <cell r="L441">
-            <v>6.8087874201457288E-2</v>
-          </cell>
-        </row>
-        <row r="442">
-          <cell r="K442">
-            <v>-4859.9602500000019</v>
-          </cell>
-          <cell r="L442">
-            <v>6.8028255997800643E-2</v>
-          </cell>
-        </row>
-        <row r="443">
-          <cell r="K443">
-            <v>-4859.9590022675757</v>
-          </cell>
-          <cell r="L443">
-            <v>6.788528925630001E-2</v>
-          </cell>
-        </row>
-        <row r="444">
-          <cell r="K444">
-            <v>-4859.9564027149345</v>
-          </cell>
-          <cell r="L444">
-            <v>6.7781395870184405E-2</v>
-          </cell>
-        </row>
-        <row r="445">
-          <cell r="K445">
-            <v>-4859.9583972911978</v>
-          </cell>
-          <cell r="L445">
-            <v>6.7657624258365329E-2</v>
-          </cell>
-        </row>
-        <row r="446">
-          <cell r="K446">
-            <v>-4859.957454954957</v>
-          </cell>
-          <cell r="L446">
-            <v>6.751164717827296E-2</v>
-          </cell>
-        </row>
-        <row r="447">
-          <cell r="K447">
-            <v>-4859.9594382022487</v>
-          </cell>
-          <cell r="L447">
-            <v>6.7388954428889467E-2</v>
-          </cell>
-        </row>
-        <row r="448">
-          <cell r="K448">
-            <v>-4859.9564349775801</v>
-          </cell>
-          <cell r="L448">
-            <v>6.730472563409462E-2</v>
-          </cell>
-        </row>
-        <row r="449">
-          <cell r="K449">
-            <v>-4859.9577852349012</v>
-          </cell>
-          <cell r="L449">
-            <v>6.7167560338447424E-2</v>
-          </cell>
-        </row>
-        <row r="450">
-          <cell r="K450">
-            <v>-4859.9518973214299</v>
-          </cell>
-          <cell r="L450">
-            <v>6.7275613307922533E-2</v>
-          </cell>
-        </row>
-        <row r="451">
-          <cell r="K451">
-            <v>-4859.9532293986649</v>
-          </cell>
-          <cell r="L451">
-            <v>6.7138827686258548E-2</v>
-          </cell>
-        </row>
-        <row r="452">
-          <cell r="K452">
-            <v>-4859.9515333333338</v>
-          </cell>
-          <cell r="L452">
-            <v>6.70109315285254E-2</v>
-          </cell>
-        </row>
-        <row r="453">
-          <cell r="K453">
-            <v>-4859.9521951219522</v>
-          </cell>
-          <cell r="L453">
-            <v>6.6865458485335691E-2</v>
-          </cell>
-        </row>
-        <row r="454">
-          <cell r="K454">
-            <v>-4859.9534734513281</v>
-          </cell>
-          <cell r="L454">
-            <v>6.6729607558396214E-2</v>
-          </cell>
-        </row>
-        <row r="455">
-          <cell r="K455">
-            <v>-4859.955452538632</v>
-          </cell>
-          <cell r="L455">
-            <v>6.6611545331033223E-2</v>
-          </cell>
-        </row>
-        <row r="456">
-          <cell r="K456">
-            <v>-4859.9562114537448</v>
-          </cell>
-          <cell r="L456">
-            <v>6.6468994549629234E-2</v>
-          </cell>
-        </row>
-        <row r="457">
-          <cell r="K457">
-            <v>-4859.955736263737</v>
-          </cell>
-          <cell r="L457">
-            <v>6.6324450261436366E-2</v>
-          </cell>
-        </row>
-        <row r="458">
-          <cell r="K458">
-            <v>-4859.9557675438609</v>
-          </cell>
-          <cell r="L458">
-            <v>6.6178849464487419E-2</v>
-          </cell>
-        </row>
-        <row r="459">
-          <cell r="K459">
-            <v>-4859.954682713349</v>
-          </cell>
-          <cell r="L459">
-            <v>6.6042789602741875E-2</v>
-          </cell>
-        </row>
-        <row r="460">
-          <cell r="K460">
-            <v>-4859.9530786026216</v>
-          </cell>
-          <cell r="L460">
-            <v>6.59179544808048E-2</v>
-          </cell>
-        </row>
-        <row r="461">
-          <cell r="K461">
-            <v>-4859.9572984749475</v>
-          </cell>
-          <cell r="L461">
-            <v>6.590941369385947E-2</v>
-          </cell>
-        </row>
-        <row r="462">
-          <cell r="K462">
-            <v>-4859.9515652173932</v>
-          </cell>
-          <cell r="L462">
-            <v>6.6015406370040539E-2</v>
-          </cell>
-        </row>
-        <row r="463">
-          <cell r="K463">
-            <v>-4859.9588720173542</v>
-          </cell>
-          <cell r="L463">
-            <v>6.6276061533568228E-2</v>
-          </cell>
-        </row>
-        <row r="464">
-          <cell r="K464">
-            <v>-4859.9567532467545</v>
-          </cell>
-          <cell r="L464">
-            <v>6.616638345141726E-2</v>
-          </cell>
-        </row>
-        <row r="465">
-          <cell r="K465">
-            <v>-4859.964859611232</v>
-          </cell>
-          <cell r="L465">
-            <v>6.6519110328599376E-2</v>
-          </cell>
-        </row>
-        <row r="466">
-          <cell r="K466">
-            <v>-4859.9629956896561</v>
-          </cell>
-          <cell r="L466">
-            <v>6.6401760993753181E-2</v>
-          </cell>
-        </row>
-        <row r="467">
-          <cell r="K467">
-            <v>-4859.9611827957006</v>
-          </cell>
-          <cell r="L467">
-            <v>6.6283604103037755E-2</v>
-          </cell>
-        </row>
-        <row r="468">
-          <cell r="K468">
-            <v>-4859.9589484978551</v>
-          </cell>
-          <cell r="L468">
-            <v>6.6178938999958484E-2</v>
-          </cell>
-        </row>
-        <row r="469">
-          <cell r="K469">
-            <v>-4859.9534047109219</v>
-          </cell>
-          <cell r="L469">
-            <v>6.6269366989946579E-2</v>
-          </cell>
-        </row>
-        <row r="470">
-          <cell r="K470">
-            <v>-4859.9560897435913</v>
-          </cell>
-          <cell r="L470">
-            <v>6.6182102991497585E-2</v>
-          </cell>
-        </row>
-        <row r="471">
-          <cell r="K471">
-            <v>-4859.9564605543719</v>
-          </cell>
-          <cell r="L471">
-            <v>6.6041880022453966E-2</v>
-          </cell>
-        </row>
-        <row r="472">
-          <cell r="K472">
-            <v>-4859.9558936170224</v>
-          </cell>
-          <cell r="L472">
-            <v>6.5903654170953715E-2</v>
-          </cell>
-        </row>
-        <row r="473">
-          <cell r="K473">
-            <v>-4859.9546709129518</v>
-          </cell>
-          <cell r="L473">
-            <v>6.5774948015050363E-2</v>
-          </cell>
-        </row>
-        <row r="474">
-          <cell r="K474">
-            <v>-4859.9538983050852</v>
-          </cell>
-          <cell r="L474">
-            <v>6.5639993480356915E-2</v>
-          </cell>
-        </row>
-        <row r="475">
-          <cell r="K475">
-            <v>-4859.958583509514</v>
-          </cell>
-          <cell r="L475">
-            <v>6.5668422136150387E-2</v>
-          </cell>
-        </row>
-        <row r="476">
-          <cell r="K476">
-            <v>-4859.9601898734181</v>
-          </cell>
-          <cell r="L476">
-            <v>6.5549420564857783E-2</v>
-          </cell>
-        </row>
-        <row r="477">
-          <cell r="K477">
-            <v>-4859.9630315789482</v>
-          </cell>
-          <cell r="L477">
-            <v>6.5472974169137915E-2</v>
-          </cell>
-        </row>
-        <row r="478">
-          <cell r="K478">
-            <v>-4859.9657983193283</v>
-          </cell>
-          <cell r="L478">
-            <v>6.5393836184110085E-2</v>
-          </cell>
-        </row>
-        <row r="479">
-          <cell r="K479">
-            <v>-4859.9649475890992</v>
-          </cell>
-          <cell r="L479">
-            <v>6.5262143300226741E-2</v>
-          </cell>
-        </row>
-        <row r="480">
-          <cell r="K480">
-            <v>-4859.9629288702936</v>
-          </cell>
-          <cell r="L480">
-            <v>6.5156748488197191E-2</v>
-          </cell>
-        </row>
-        <row r="481">
-          <cell r="K481">
-            <v>-4859.9649478079336</v>
-          </cell>
-          <cell r="L481">
-            <v>6.5051916796459233E-2</v>
-          </cell>
-        </row>
-        <row r="482">
-          <cell r="K482">
-            <v>-4859.9657291666672</v>
-          </cell>
-          <cell r="L482">
-            <v>6.4920952710726842E-2</v>
-          </cell>
-        </row>
-        <row r="483">
-          <cell r="K483">
-            <v>-4859.9637214137219</v>
-          </cell>
-          <cell r="L483">
-            <v>6.4816944601495549E-2</v>
-          </cell>
-        </row>
-        <row r="484">
-          <cell r="K484">
-            <v>-4859.9673651452295</v>
-          </cell>
-          <cell r="L484">
-            <v>6.4784879184639682E-2</v>
-          </cell>
-        </row>
-        <row r="485">
-          <cell r="K485">
-            <v>-4859.9699171842667</v>
-          </cell>
-          <cell r="L485">
-            <v>6.4700960260253501E-2</v>
-          </cell>
-        </row>
-        <row r="486">
-          <cell r="K486">
-            <v>-4859.9735743801675</v>
-          </cell>
-          <cell r="L486">
-            <v>6.4670634250984849E-2</v>
-          </cell>
-        </row>
-        <row r="487">
-          <cell r="K487">
-            <v>-4859.96882474227</v>
-          </cell>
-          <cell r="L487">
-            <v>6.4711694723792373E-2</v>
-          </cell>
-        </row>
-        <row r="488">
-          <cell r="K488">
-            <v>-4859.9727572016473</v>
-          </cell>
-          <cell r="L488">
-            <v>6.4698027287103804E-2</v>
-          </cell>
-        </row>
-        <row r="489">
-          <cell r="K489">
-            <v>-4859.9743121149913</v>
-          </cell>
-          <cell r="L489">
-            <v>6.4583761147548963E-2</v>
-          </cell>
-        </row>
-        <row r="490">
-          <cell r="K490">
-            <v>-4859.975184426231</v>
-          </cell>
-          <cell r="L490">
-            <v>6.4457184344596866E-2</v>
-          </cell>
-        </row>
-        <row r="491">
-          <cell r="K491">
-            <v>-4859.9756850715767</v>
-          </cell>
-          <cell r="L491">
-            <v>6.4327183245723979E-2</v>
-          </cell>
-        </row>
-        <row r="492">
-          <cell r="K492">
-            <v>-4859.9800000000014</v>
-          </cell>
-          <cell r="L492">
-            <v>6.434061991316932E-2</v>
-          </cell>
-        </row>
-        <row r="493">
-          <cell r="K493">
-            <v>-4859.981608961305</v>
-          </cell>
-          <cell r="L493">
-            <v>6.4229601764953154E-2</v>
-          </cell>
-        </row>
-        <row r="494">
-          <cell r="K494">
-            <v>-4859.9831097560991</v>
-          </cell>
-          <cell r="L494">
-            <v>6.4116488047246872E-2</v>
-          </cell>
-        </row>
-        <row r="495">
-          <cell r="K495">
-            <v>-4859.984766734281</v>
-          </cell>
-          <cell r="L495">
-            <v>6.4007752964611225E-2</v>
-          </cell>
-        </row>
-        <row r="496">
-          <cell r="K496">
-            <v>-4859.9853238866408</v>
-          </cell>
-          <cell r="L496">
-            <v>6.3880480934360953E-2</v>
-          </cell>
-        </row>
-        <row r="497">
-          <cell r="K497">
-            <v>-4859.9859797979807</v>
-          </cell>
-          <cell r="L497">
-            <v>6.3754672952701125E-2</v>
-          </cell>
-        </row>
-        <row r="498">
-          <cell r="K498">
-            <v>-4859.9862298387106</v>
-          </cell>
-          <cell r="L498">
-            <v>6.362649677900567E-2</v>
-          </cell>
-        </row>
-        <row r="499">
-          <cell r="K499">
-            <v>-4859.9893561368217</v>
-          </cell>
-          <cell r="L499">
-            <v>6.3575260608628087E-2</v>
-          </cell>
-        </row>
-        <row r="500">
-          <cell r="K500">
-            <v>-4859.9882730923709</v>
-          </cell>
-          <cell r="L500">
-            <v>6.3456714088879818E-2</v>
-          </cell>
-        </row>
-        <row r="501">
-          <cell r="K501">
-            <v>-4859.99244488978</v>
-          </cell>
-          <cell r="L501">
-            <v>6.3466677553997417E-2</v>
-          </cell>
-        </row>
-        <row r="502">
-          <cell r="K502">
-            <v>-4859.9947800000009</v>
-          </cell>
-          <cell r="L502">
-            <v>6.3382646070085438E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -34650,8 +30642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05677C58-0B8B-2F40-A2A4-5CEA5656F2D5}">
   <dimension ref="B1:AG130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H23" workbookViewId="0">
-      <selection activeCell="W45" sqref="W45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -35793,7 +31785,7 @@
         <v>0</v>
       </c>
       <c r="AF31" t="e">
-        <f t="shared" ref="AF30:AF33" si="27">AE31-AE$28*(SUM(AC31:AD31)/SUM(AC$28:AD$28))</f>
+        <f t="shared" ref="AF31:AF33" si="27">AE31-AE$28*(SUM(AC31:AD31)/SUM(AC$28:AD$28))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AG31">
@@ -36726,7 +32718,7 @@
         <v>440.46370967741899</v>
       </c>
       <c r="O45">
-        <f t="shared" ref="O45:O49" si="44">L45-(M45*$E$5)-(N45*$J$5)</f>
+        <f t="shared" ref="O45:O48" si="44">L45-(M45*$E$5)-(N45*$J$5)</f>
         <v>352.7416843850724</v>
       </c>
       <c r="P45">
@@ -37433,7 +33425,7 @@
         <v>3</v>
       </c>
       <c r="AE54">
-        <f t="shared" ref="AE53:AE57" si="64">AB54-(AC54*$E$6)-(AD54*$J$6)</f>
+        <f t="shared" ref="AE54:AE57" si="64">AB54-(AC54*$E$6)-(AD54*$J$6)</f>
         <v>0</v>
       </c>
       <c r="AF54" t="e">
